--- a/Mall.xlsx
+++ b/Mall.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13900" yWindow="460" windowWidth="17300" windowHeight="16640" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="11500" yWindow="460" windowWidth="17300" windowHeight="16640" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -92,6 +92,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -107,7 +113,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -116,6 +122,8 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -397,8 +405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="K18" sqref="K4:T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -633,65 +641,65 @@
       <c r="G3" s="1">
         <v>0</v>
       </c>
-      <c r="H3" s="2">
-        <v>1</v>
-      </c>
-      <c r="I3" s="2">
-        <v>1</v>
-      </c>
-      <c r="J3" s="2">
-        <v>1</v>
-      </c>
-      <c r="K3" s="2">
-        <v>1</v>
-      </c>
-      <c r="L3" s="2">
-        <v>1</v>
-      </c>
-      <c r="M3" s="2">
-        <v>1</v>
-      </c>
-      <c r="N3" s="2">
-        <v>1</v>
-      </c>
-      <c r="O3" s="7">
-        <v>1</v>
-      </c>
-      <c r="P3" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>1</v>
-      </c>
-      <c r="R3" s="3">
-        <v>1</v>
-      </c>
-      <c r="S3" s="3">
-        <v>1</v>
-      </c>
-      <c r="T3" s="3">
-        <v>1</v>
-      </c>
-      <c r="U3" s="2">
-        <v>1</v>
-      </c>
-      <c r="V3" s="2">
-        <v>1</v>
-      </c>
-      <c r="W3" s="2">
-        <v>1</v>
-      </c>
-      <c r="X3" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA3" s="2">
-        <v>1</v>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0</v>
+      </c>
+      <c r="T3" s="1">
+        <v>0</v>
+      </c>
+      <c r="U3" s="1">
+        <v>0</v>
+      </c>
+      <c r="V3" s="1">
+        <v>0</v>
+      </c>
+      <c r="W3" s="1">
+        <v>0</v>
+      </c>
+      <c r="X3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>0</v>
       </c>
       <c r="AB3" s="1">
         <v>0</v>
@@ -737,65 +745,65 @@
       <c r="G4" s="1">
         <v>0</v>
       </c>
-      <c r="H4" s="2">
-        <v>1</v>
-      </c>
-      <c r="I4" s="2">
-        <v>1</v>
-      </c>
-      <c r="J4" s="2">
-        <v>1</v>
-      </c>
-      <c r="K4" s="2">
-        <v>1</v>
-      </c>
-      <c r="L4" s="2">
-        <v>1</v>
-      </c>
-      <c r="M4" s="2">
-        <v>1</v>
-      </c>
-      <c r="N4" s="2">
-        <v>1</v>
-      </c>
-      <c r="O4" s="7">
-        <v>1</v>
-      </c>
-      <c r="P4" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>0</v>
-      </c>
-      <c r="R4" s="1">
-        <v>0</v>
-      </c>
-      <c r="S4" s="1">
-        <v>0</v>
-      </c>
-      <c r="T4" s="6">
-        <v>0</v>
-      </c>
-      <c r="U4" s="2">
-        <v>1</v>
-      </c>
-      <c r="V4" s="2">
-        <v>1</v>
-      </c>
-      <c r="W4" s="2">
-        <v>1</v>
-      </c>
-      <c r="X4" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA4" s="2">
-        <v>1</v>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <v>28</v>
+      </c>
+      <c r="L4" s="4">
+        <v>28</v>
+      </c>
+      <c r="M4" s="4">
+        <v>28</v>
+      </c>
+      <c r="N4" s="4">
+        <v>28</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="8">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>14</v>
+      </c>
+      <c r="R4" s="8">
+        <v>13</v>
+      </c>
+      <c r="S4" s="8">
+        <v>12</v>
+      </c>
+      <c r="T4" s="8">
+        <v>11</v>
+      </c>
+      <c r="U4" s="1">
+        <v>0</v>
+      </c>
+      <c r="V4" s="1">
+        <v>0</v>
+      </c>
+      <c r="W4" s="1">
+        <v>0</v>
+      </c>
+      <c r="X4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>0</v>
       </c>
       <c r="AB4" s="1">
         <v>0</v>
@@ -841,29 +849,29 @@
       <c r="G5" s="1">
         <v>0</v>
       </c>
-      <c r="H5" s="2">
-        <v>1</v>
-      </c>
-      <c r="I5" s="2">
-        <v>1</v>
-      </c>
-      <c r="J5" s="2">
-        <v>1</v>
-      </c>
-      <c r="K5" s="2">
-        <v>1</v>
-      </c>
-      <c r="L5" s="2">
-        <v>1</v>
-      </c>
-      <c r="M5" s="2">
-        <v>1</v>
-      </c>
-      <c r="N5" s="2">
-        <v>1</v>
-      </c>
-      <c r="O5" s="7">
-        <v>1</v>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4">
+        <v>28</v>
+      </c>
+      <c r="L5" s="4">
+        <v>28</v>
+      </c>
+      <c r="M5" s="4">
+        <v>28</v>
+      </c>
+      <c r="N5" s="4">
+        <v>28</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
       </c>
       <c r="P5" s="1">
         <v>0</v>
@@ -877,29 +885,29 @@
       <c r="S5" s="1">
         <v>0</v>
       </c>
-      <c r="T5" s="7">
-        <v>1</v>
-      </c>
-      <c r="U5" s="2">
-        <v>1</v>
-      </c>
-      <c r="V5" s="2">
-        <v>1</v>
-      </c>
-      <c r="W5" s="2">
-        <v>1</v>
-      </c>
-      <c r="X5" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="2">
-        <v>1</v>
+      <c r="T5" s="6">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1">
+        <v>0</v>
+      </c>
+      <c r="V5" s="1">
+        <v>0</v>
+      </c>
+      <c r="W5" s="1">
+        <v>0</v>
+      </c>
+      <c r="X5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>0</v>
       </c>
       <c r="AB5" s="1">
         <v>0</v>
@@ -981,8 +989,8 @@
       <c r="S6" s="1">
         <v>0</v>
       </c>
-      <c r="T6" s="3">
-        <v>1</v>
+      <c r="T6" s="9">
+        <v>10</v>
       </c>
       <c r="U6" s="1">
         <v>0</v>
@@ -1049,35 +1057,35 @@
       <c r="G7" s="1">
         <v>0</v>
       </c>
-      <c r="H7" s="5">
-        <v>1</v>
-      </c>
-      <c r="I7" s="5">
-        <v>1</v>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
       </c>
       <c r="K7" s="2">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="L7" s="2">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="M7" s="4">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="N7" s="4">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="O7" s="1">
         <v>0</v>
       </c>
       <c r="P7" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="Q7" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="R7" s="1">
         <v>0</v>
@@ -1085,8 +1093,8 @@
       <c r="S7" s="1">
         <v>0</v>
       </c>
-      <c r="T7" s="3">
-        <v>1</v>
+      <c r="T7" s="8">
+        <v>9</v>
       </c>
       <c r="U7" s="1">
         <v>0</v>
@@ -1153,44 +1161,44 @@
       <c r="G8" s="1">
         <v>0</v>
       </c>
-      <c r="H8" s="5">
-        <v>1</v>
-      </c>
-      <c r="I8" s="5">
-        <v>1</v>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
       </c>
-      <c r="K8" s="4">
-        <v>1</v>
-      </c>
-      <c r="L8" s="4">
-        <v>1</v>
-      </c>
-      <c r="M8" s="2">
-        <v>1</v>
-      </c>
-      <c r="N8" s="2">
-        <v>1</v>
+      <c r="K8" s="2">
+        <v>29</v>
+      </c>
+      <c r="L8" s="2">
+        <v>29</v>
+      </c>
+      <c r="M8" s="4">
+        <v>26</v>
+      </c>
+      <c r="N8" s="4">
+        <v>26</v>
       </c>
       <c r="O8" s="1">
         <v>0</v>
       </c>
       <c r="P8" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="Q8" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="R8" s="1">
         <v>0</v>
       </c>
-      <c r="S8" s="3">
-        <v>1</v>
-      </c>
-      <c r="T8" s="3">
-        <v>1</v>
+      <c r="S8" s="8">
+        <v>7</v>
+      </c>
+      <c r="T8" s="8">
+        <v>8</v>
       </c>
       <c r="U8" s="1">
         <v>0</v>
@@ -1257,44 +1265,44 @@
       <c r="G9" s="1">
         <v>0</v>
       </c>
-      <c r="H9" s="4">
-        <v>1</v>
-      </c>
-      <c r="I9" s="4">
-        <v>1</v>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
       </c>
-      <c r="K9" s="1">
-        <v>0</v>
-      </c>
-      <c r="L9" s="1">
-        <v>0</v>
-      </c>
-      <c r="M9" s="1">
-        <v>0</v>
-      </c>
-      <c r="N9" s="1">
-        <v>0</v>
+      <c r="K9" s="2">
+        <v>29</v>
+      </c>
+      <c r="L9" s="2">
+        <v>29</v>
+      </c>
+      <c r="M9" s="4">
+        <v>26</v>
+      </c>
+      <c r="N9" s="4">
+        <v>26</v>
       </c>
       <c r="O9" s="1">
         <v>0</v>
       </c>
       <c r="P9" s="4">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="Q9" s="4">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="R9" s="1">
         <v>0</v>
       </c>
       <c r="S9" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T9" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U9" s="1">
         <v>0</v>
@@ -1361,44 +1369,44 @@
       <c r="G10" s="1">
         <v>0</v>
       </c>
-      <c r="H10" s="5">
-        <v>1</v>
-      </c>
-      <c r="I10" s="5">
-        <v>1</v>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
       </c>
-      <c r="K10" s="4">
-        <v>1</v>
-      </c>
-      <c r="L10" s="4">
-        <v>1</v>
-      </c>
-      <c r="M10" s="5">
-        <v>1</v>
-      </c>
-      <c r="N10" s="5">
-        <v>1</v>
+      <c r="K10" s="2">
+        <v>29</v>
+      </c>
+      <c r="L10" s="2">
+        <v>29</v>
+      </c>
+      <c r="M10" s="4">
+        <v>26</v>
+      </c>
+      <c r="N10" s="4">
+        <v>26</v>
       </c>
       <c r="O10" s="1">
         <v>0</v>
       </c>
       <c r="P10" s="4">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="Q10" s="4">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="R10" s="1">
         <v>0</v>
       </c>
       <c r="S10" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T10" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U10" s="1">
         <v>0</v>
@@ -1465,26 +1473,26 @@
       <c r="G11" s="1">
         <v>0</v>
       </c>
-      <c r="H11" s="4">
-        <v>1</v>
-      </c>
-      <c r="I11" s="4">
-        <v>1</v>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
       </c>
-      <c r="K11" s="5">
-        <v>1</v>
-      </c>
-      <c r="L11" s="5">
-        <v>1</v>
-      </c>
-      <c r="M11" s="4">
-        <v>1</v>
-      </c>
-      <c r="N11" s="4">
-        <v>1</v>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0</v>
       </c>
       <c r="O11" s="1">
         <v>0</v>
@@ -1569,44 +1577,44 @@
       <c r="G12" s="1">
         <v>0</v>
       </c>
-      <c r="H12" s="5">
-        <v>1</v>
-      </c>
-      <c r="I12" s="5">
-        <v>1</v>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
       </c>
       <c r="K12" s="4">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="L12" s="4">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="M12" s="5">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="N12" s="5">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="O12" s="1">
         <v>0</v>
       </c>
       <c r="P12" s="4">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="Q12" s="4">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="R12" s="1">
         <v>0</v>
       </c>
       <c r="S12" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T12" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U12" s="1">
         <v>0</v>
@@ -1673,44 +1681,44 @@
       <c r="G13" s="1">
         <v>0</v>
       </c>
-      <c r="H13" s="4">
-        <v>1</v>
-      </c>
-      <c r="I13" s="4">
-        <v>1</v>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
       </c>
       <c r="J13" s="1">
         <v>0</v>
       </c>
-      <c r="K13" s="5">
-        <v>1</v>
-      </c>
-      <c r="L13" s="5">
-        <v>1</v>
-      </c>
-      <c r="M13" s="4">
-        <v>1</v>
-      </c>
-      <c r="N13" s="4">
-        <v>1</v>
+      <c r="K13" s="4">
+        <v>30</v>
+      </c>
+      <c r="L13" s="4">
+        <v>30</v>
+      </c>
+      <c r="M13" s="5">
+        <v>25</v>
+      </c>
+      <c r="N13" s="5">
+        <v>25</v>
       </c>
       <c r="O13" s="1">
         <v>0</v>
       </c>
       <c r="P13" s="4">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="Q13" s="4">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="R13" s="1">
         <v>0</v>
       </c>
       <c r="S13" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T13" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U13" s="1">
         <v>0</v>
@@ -1777,44 +1785,44 @@
       <c r="G14" s="1">
         <v>0</v>
       </c>
-      <c r="H14" s="5">
-        <v>1</v>
-      </c>
-      <c r="I14" s="5">
-        <v>1</v>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
       </c>
       <c r="J14" s="1">
         <v>0</v>
       </c>
-      <c r="K14" s="4">
-        <v>1</v>
-      </c>
-      <c r="L14" s="4">
-        <v>1</v>
-      </c>
-      <c r="M14" s="5">
-        <v>1</v>
-      </c>
-      <c r="N14" s="5">
-        <v>1</v>
+      <c r="K14" s="5">
+        <v>31</v>
+      </c>
+      <c r="L14" s="5">
+        <v>31</v>
+      </c>
+      <c r="M14" s="4">
+        <v>24</v>
+      </c>
+      <c r="N14" s="4">
+        <v>24</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="5">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="Q14" s="5">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="R14" s="1">
         <v>0</v>
       </c>
       <c r="S14" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T14" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U14" s="1">
         <v>0</v>
@@ -1881,44 +1889,44 @@
       <c r="G15" s="1">
         <v>0</v>
       </c>
-      <c r="H15" s="4">
-        <v>1</v>
-      </c>
-      <c r="I15" s="4">
-        <v>1</v>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
       </c>
       <c r="J15" s="1">
         <v>0</v>
       </c>
-      <c r="K15" s="4">
-        <v>1</v>
-      </c>
-      <c r="L15" s="4">
-        <v>1</v>
-      </c>
-      <c r="M15" s="5">
-        <v>1</v>
-      </c>
-      <c r="N15" s="5">
-        <v>1</v>
+      <c r="K15" s="5">
+        <v>31</v>
+      </c>
+      <c r="L15" s="5">
+        <v>31</v>
+      </c>
+      <c r="M15" s="4">
+        <v>24</v>
+      </c>
+      <c r="N15" s="4">
+        <v>24</v>
       </c>
       <c r="O15" s="1">
         <v>0</v>
       </c>
       <c r="P15" s="4">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="Q15" s="4">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="R15" s="1">
         <v>0</v>
       </c>
       <c r="S15" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T15" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U15" s="1">
         <v>0</v>
@@ -1985,11 +1993,11 @@
       <c r="G16" s="1">
         <v>0</v>
       </c>
-      <c r="H16" s="5">
-        <v>1</v>
-      </c>
-      <c r="I16" s="5">
-        <v>1</v>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
       </c>
       <c r="J16" s="1">
         <v>0</v>
@@ -2087,44 +2095,44 @@
       <c r="G17" s="1">
         <v>0</v>
       </c>
-      <c r="H17" s="4">
-        <v>1</v>
-      </c>
-      <c r="I17" s="4">
-        <v>1</v>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
       </c>
       <c r="J17" s="1">
         <v>0</v>
       </c>
       <c r="K17" s="4">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="L17" s="4">
-        <v>1</v>
-      </c>
-      <c r="M17" s="5">
-        <v>1</v>
-      </c>
-      <c r="N17" s="5">
-        <v>1</v>
+        <v>32</v>
+      </c>
+      <c r="M17" s="4">
+        <v>32</v>
+      </c>
+      <c r="N17" s="4">
+        <v>32</v>
       </c>
       <c r="O17" s="1">
         <v>0</v>
       </c>
       <c r="P17" s="4">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="Q17" s="4">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="R17" s="1">
         <v>0</v>
       </c>
       <c r="S17" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T17" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U17" s="1">
         <v>0</v>
@@ -2191,35 +2199,35 @@
       <c r="G18" s="1">
         <v>0</v>
       </c>
-      <c r="H18" s="5">
-        <v>1</v>
-      </c>
-      <c r="I18" s="5">
-        <v>1</v>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
       </c>
       <c r="J18" s="1">
         <v>0</v>
       </c>
       <c r="K18" s="4">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="L18" s="4">
-        <v>1</v>
-      </c>
-      <c r="M18" s="5">
-        <v>1</v>
-      </c>
-      <c r="N18" s="5">
-        <v>1</v>
+        <v>32</v>
+      </c>
+      <c r="M18" s="4">
+        <v>32</v>
+      </c>
+      <c r="N18" s="4">
+        <v>32</v>
       </c>
       <c r="O18" s="1">
         <v>0</v>
       </c>
       <c r="P18" s="5">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="Q18" s="5">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="R18" s="1">
         <v>0</v>
@@ -2387,8 +2395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T19" sqref="T1:T19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Mall.xlsx
+++ b/Mall.xlsx
@@ -1,31 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27106"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kevin/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevh9\Desktop\MallSim\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11500" yWindow="460" windowWidth="17300" windowHeight="16640" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9495" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="NEW MALL" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>Up</t>
+  </si>
+  <si>
+    <t>Down</t>
+  </si>
+  <si>
+    <t>Pause</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -130,11 +142,135 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -403,15 +539,3258 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T12" sqref="T12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.75" customWidth="1"/>
+    <col min="4" max="4" width="3.75" customWidth="1"/>
+    <col min="9" max="9" width="3.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>999</v>
+      </c>
+      <c r="B1">
+        <v>999</v>
+      </c>
+      <c r="C1">
+        <v>999</v>
+      </c>
+      <c r="D1">
+        <v>999</v>
+      </c>
+      <c r="E1">
+        <v>999</v>
+      </c>
+      <c r="F1">
+        <v>999</v>
+      </c>
+      <c r="G1">
+        <v>999</v>
+      </c>
+      <c r="H1">
+        <v>999</v>
+      </c>
+      <c r="I1">
+        <v>999</v>
+      </c>
+      <c r="J1">
+        <v>999</v>
+      </c>
+      <c r="K1">
+        <v>999</v>
+      </c>
+      <c r="L1">
+        <v>999</v>
+      </c>
+      <c r="M1">
+        <v>999</v>
+      </c>
+      <c r="N1">
+        <v>999</v>
+      </c>
+      <c r="O1">
+        <v>999</v>
+      </c>
+      <c r="P1">
+        <v>999</v>
+      </c>
+      <c r="Q1">
+        <v>999</v>
+      </c>
+      <c r="R1">
+        <v>800</v>
+      </c>
+      <c r="S1">
+        <v>800</v>
+      </c>
+      <c r="T1">
+        <v>800</v>
+      </c>
+      <c r="U1">
+        <v>800</v>
+      </c>
+      <c r="V1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>999</v>
+      </c>
+      <c r="B2">
+        <v>101</v>
+      </c>
+      <c r="C2">
+        <v>101</v>
+      </c>
+      <c r="D2">
+        <v>999</v>
+      </c>
+      <c r="E2">
+        <v>107</v>
+      </c>
+      <c r="F2">
+        <v>107</v>
+      </c>
+      <c r="G2">
+        <v>113</v>
+      </c>
+      <c r="H2">
+        <v>113</v>
+      </c>
+      <c r="I2">
+        <v>999</v>
+      </c>
+      <c r="J2">
+        <v>117</v>
+      </c>
+      <c r="K2">
+        <v>117</v>
+      </c>
+      <c r="L2">
+        <v>117</v>
+      </c>
+      <c r="M2">
+        <v>117</v>
+      </c>
+      <c r="N2">
+        <v>999</v>
+      </c>
+      <c r="O2">
+        <v>133</v>
+      </c>
+      <c r="P2">
+        <v>133</v>
+      </c>
+      <c r="Q2">
+        <v>999</v>
+      </c>
+      <c r="R2">
+        <v>801</v>
+      </c>
+      <c r="S2">
+        <v>801</v>
+      </c>
+      <c r="T2">
+        <v>801</v>
+      </c>
+      <c r="U2">
+        <v>801</v>
+      </c>
+      <c r="V2">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>999</v>
+      </c>
+      <c r="B3">
+        <v>101</v>
+      </c>
+      <c r="C3">
+        <v>101</v>
+      </c>
+      <c r="D3">
+        <v>999</v>
+      </c>
+      <c r="E3">
+        <v>107</v>
+      </c>
+      <c r="F3">
+        <v>107</v>
+      </c>
+      <c r="G3">
+        <v>113</v>
+      </c>
+      <c r="H3">
+        <v>113</v>
+      </c>
+      <c r="I3">
+        <v>999</v>
+      </c>
+      <c r="J3">
+        <v>117</v>
+      </c>
+      <c r="K3">
+        <v>117</v>
+      </c>
+      <c r="L3">
+        <v>117</v>
+      </c>
+      <c r="M3">
+        <v>117</v>
+      </c>
+      <c r="N3">
+        <v>999</v>
+      </c>
+      <c r="O3">
+        <v>133</v>
+      </c>
+      <c r="P3">
+        <v>133</v>
+      </c>
+      <c r="Q3">
+        <v>999</v>
+      </c>
+      <c r="R3">
+        <v>802</v>
+      </c>
+      <c r="S3">
+        <v>802</v>
+      </c>
+      <c r="T3">
+        <v>802</v>
+      </c>
+      <c r="U3">
+        <v>802</v>
+      </c>
+      <c r="V3">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>999</v>
+      </c>
+      <c r="B4">
+        <v>999</v>
+      </c>
+      <c r="C4">
+        <v>999</v>
+      </c>
+      <c r="D4">
+        <v>999</v>
+      </c>
+      <c r="E4">
+        <v>999</v>
+      </c>
+      <c r="F4">
+        <v>999</v>
+      </c>
+      <c r="G4">
+        <v>999</v>
+      </c>
+      <c r="H4">
+        <v>999</v>
+      </c>
+      <c r="I4">
+        <v>999</v>
+      </c>
+      <c r="J4">
+        <v>999</v>
+      </c>
+      <c r="K4">
+        <v>999</v>
+      </c>
+      <c r="L4">
+        <v>999</v>
+      </c>
+      <c r="M4">
+        <v>999</v>
+      </c>
+      <c r="N4">
+        <v>999</v>
+      </c>
+      <c r="O4">
+        <v>133</v>
+      </c>
+      <c r="P4">
+        <v>133</v>
+      </c>
+      <c r="Q4">
+        <v>999</v>
+      </c>
+      <c r="R4">
+        <v>803</v>
+      </c>
+      <c r="S4">
+        <v>803</v>
+      </c>
+      <c r="T4">
+        <v>803</v>
+      </c>
+      <c r="U4">
+        <v>803</v>
+      </c>
+      <c r="V4">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>999</v>
+      </c>
+      <c r="B5">
+        <v>102</v>
+      </c>
+      <c r="C5">
+        <v>102</v>
+      </c>
+      <c r="D5">
+        <v>999</v>
+      </c>
+      <c r="E5">
+        <v>108</v>
+      </c>
+      <c r="F5">
+        <v>108</v>
+      </c>
+      <c r="G5">
+        <v>114</v>
+      </c>
+      <c r="H5">
+        <v>114</v>
+      </c>
+      <c r="I5">
+        <v>999</v>
+      </c>
+      <c r="J5">
+        <v>118</v>
+      </c>
+      <c r="K5">
+        <v>118</v>
+      </c>
+      <c r="L5">
+        <v>118</v>
+      </c>
+      <c r="M5">
+        <v>118</v>
+      </c>
+      <c r="N5">
+        <v>999</v>
+      </c>
+      <c r="O5">
+        <v>133</v>
+      </c>
+      <c r="P5">
+        <v>133</v>
+      </c>
+      <c r="Q5">
+        <v>999</v>
+      </c>
+      <c r="R5">
+        <v>804</v>
+      </c>
+      <c r="S5">
+        <v>804</v>
+      </c>
+      <c r="T5">
+        <v>804</v>
+      </c>
+      <c r="U5">
+        <v>804</v>
+      </c>
+      <c r="V5">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>999</v>
+      </c>
+      <c r="B6">
+        <v>102</v>
+      </c>
+      <c r="C6">
+        <v>102</v>
+      </c>
+      <c r="D6">
+        <v>999</v>
+      </c>
+      <c r="E6">
+        <v>108</v>
+      </c>
+      <c r="F6">
+        <v>108</v>
+      </c>
+      <c r="G6">
+        <v>114</v>
+      </c>
+      <c r="H6">
+        <v>114</v>
+      </c>
+      <c r="I6">
+        <v>999</v>
+      </c>
+      <c r="J6">
+        <v>118</v>
+      </c>
+      <c r="K6">
+        <v>118</v>
+      </c>
+      <c r="L6">
+        <v>118</v>
+      </c>
+      <c r="M6">
+        <v>118</v>
+      </c>
+      <c r="N6">
+        <v>999</v>
+      </c>
+      <c r="O6">
+        <v>999</v>
+      </c>
+      <c r="P6">
+        <v>132</v>
+      </c>
+      <c r="Q6">
+        <v>999</v>
+      </c>
+      <c r="R6">
+        <v>999</v>
+      </c>
+      <c r="S6">
+        <v>999</v>
+      </c>
+      <c r="T6">
+        <v>999</v>
+      </c>
+      <c r="U6">
+        <v>999</v>
+      </c>
+      <c r="V6">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>999</v>
+      </c>
+      <c r="B7">
+        <v>103</v>
+      </c>
+      <c r="C7">
+        <v>104</v>
+      </c>
+      <c r="D7">
+        <v>999</v>
+      </c>
+      <c r="E7">
+        <v>109</v>
+      </c>
+      <c r="F7">
+        <v>110</v>
+      </c>
+      <c r="G7">
+        <v>115</v>
+      </c>
+      <c r="H7">
+        <v>115</v>
+      </c>
+      <c r="I7">
+        <v>999</v>
+      </c>
+      <c r="J7">
+        <v>119</v>
+      </c>
+      <c r="K7">
+        <v>119</v>
+      </c>
+      <c r="L7">
+        <v>120</v>
+      </c>
+      <c r="M7">
+        <v>120</v>
+      </c>
+      <c r="N7">
+        <v>999</v>
+      </c>
+      <c r="O7">
+        <v>999</v>
+      </c>
+      <c r="P7">
+        <v>131</v>
+      </c>
+      <c r="Q7">
+        <v>999</v>
+      </c>
+      <c r="R7">
+        <v>999</v>
+      </c>
+      <c r="S7">
+        <v>999</v>
+      </c>
+      <c r="T7">
+        <v>999</v>
+      </c>
+      <c r="U7">
+        <v>999</v>
+      </c>
+      <c r="V7">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>999</v>
+      </c>
+      <c r="B8">
+        <v>103</v>
+      </c>
+      <c r="C8">
+        <v>104</v>
+      </c>
+      <c r="D8">
+        <v>999</v>
+      </c>
+      <c r="E8">
+        <v>109</v>
+      </c>
+      <c r="F8">
+        <v>110</v>
+      </c>
+      <c r="G8">
+        <v>115</v>
+      </c>
+      <c r="H8">
+        <v>115</v>
+      </c>
+      <c r="I8">
+        <v>999</v>
+      </c>
+      <c r="J8">
+        <v>119</v>
+      </c>
+      <c r="K8">
+        <v>119</v>
+      </c>
+      <c r="L8">
+        <v>120</v>
+      </c>
+      <c r="M8">
+        <v>120</v>
+      </c>
+      <c r="N8">
+        <v>999</v>
+      </c>
+      <c r="O8">
+        <v>999</v>
+      </c>
+      <c r="P8">
+        <v>130</v>
+      </c>
+      <c r="Q8">
+        <v>999</v>
+      </c>
+      <c r="R8">
+        <v>999</v>
+      </c>
+      <c r="S8">
+        <v>999</v>
+      </c>
+      <c r="T8">
+        <v>999</v>
+      </c>
+      <c r="U8">
+        <v>999</v>
+      </c>
+      <c r="V8">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>999</v>
+      </c>
+      <c r="B9">
+        <v>999</v>
+      </c>
+      <c r="C9">
+        <v>999</v>
+      </c>
+      <c r="D9">
+        <v>999</v>
+      </c>
+      <c r="E9">
+        <v>999</v>
+      </c>
+      <c r="F9">
+        <v>999</v>
+      </c>
+      <c r="G9">
+        <v>999</v>
+      </c>
+      <c r="H9">
+        <v>999</v>
+      </c>
+      <c r="I9">
+        <v>999</v>
+      </c>
+      <c r="J9">
+        <v>999</v>
+      </c>
+      <c r="K9">
+        <v>999</v>
+      </c>
+      <c r="L9">
+        <v>999</v>
+      </c>
+      <c r="M9">
+        <v>999</v>
+      </c>
+      <c r="N9">
+        <v>999</v>
+      </c>
+      <c r="O9">
+        <v>999</v>
+      </c>
+      <c r="P9">
+        <v>129</v>
+      </c>
+      <c r="Q9">
+        <v>999</v>
+      </c>
+      <c r="R9">
+        <v>999</v>
+      </c>
+      <c r="S9">
+        <v>999</v>
+      </c>
+      <c r="T9">
+        <v>999</v>
+      </c>
+      <c r="U9">
+        <v>999</v>
+      </c>
+      <c r="V9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>999</v>
+      </c>
+      <c r="B10">
+        <v>105</v>
+      </c>
+      <c r="C10">
+        <v>106</v>
+      </c>
+      <c r="D10">
+        <v>999</v>
+      </c>
+      <c r="E10">
+        <v>111</v>
+      </c>
+      <c r="F10">
+        <v>112</v>
+      </c>
+      <c r="G10">
+        <v>116</v>
+      </c>
+      <c r="H10">
+        <v>116</v>
+      </c>
+      <c r="I10">
+        <v>999</v>
+      </c>
+      <c r="J10">
+        <v>121</v>
+      </c>
+      <c r="K10">
+        <v>121</v>
+      </c>
+      <c r="L10">
+        <v>122</v>
+      </c>
+      <c r="M10">
+        <v>999</v>
+      </c>
+      <c r="N10">
+        <v>999</v>
+      </c>
+      <c r="O10">
+        <v>999</v>
+      </c>
+      <c r="P10">
+        <v>128</v>
+      </c>
+      <c r="Q10">
+        <v>999</v>
+      </c>
+      <c r="R10">
+        <v>999</v>
+      </c>
+      <c r="S10">
+        <v>999</v>
+      </c>
+      <c r="T10">
+        <v>999</v>
+      </c>
+      <c r="U10">
+        <v>999</v>
+      </c>
+      <c r="V10">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>999</v>
+      </c>
+      <c r="B11">
+        <v>105</v>
+      </c>
+      <c r="C11">
+        <v>106</v>
+      </c>
+      <c r="D11">
+        <v>999</v>
+      </c>
+      <c r="E11">
+        <v>111</v>
+      </c>
+      <c r="F11">
+        <v>112</v>
+      </c>
+      <c r="G11">
+        <v>116</v>
+      </c>
+      <c r="H11">
+        <v>116</v>
+      </c>
+      <c r="I11">
+        <v>999</v>
+      </c>
+      <c r="J11">
+        <v>121</v>
+      </c>
+      <c r="K11">
+        <v>121</v>
+      </c>
+      <c r="L11">
+        <v>123</v>
+      </c>
+      <c r="M11">
+        <v>124</v>
+      </c>
+      <c r="N11">
+        <v>125</v>
+      </c>
+      <c r="O11">
+        <v>126</v>
+      </c>
+      <c r="P11">
+        <v>127</v>
+      </c>
+      <c r="Q11">
+        <v>999</v>
+      </c>
+      <c r="R11">
+        <v>999</v>
+      </c>
+      <c r="S11">
+        <v>999</v>
+      </c>
+      <c r="T11">
+        <v>999</v>
+      </c>
+      <c r="U11">
+        <v>999</v>
+      </c>
+      <c r="V11">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>999</v>
+      </c>
+      <c r="B12">
+        <v>999</v>
+      </c>
+      <c r="C12">
+        <v>999</v>
+      </c>
+      <c r="D12">
+        <v>999</v>
+      </c>
+      <c r="E12">
+        <v>999</v>
+      </c>
+      <c r="F12">
+        <v>999</v>
+      </c>
+      <c r="G12">
+        <v>999</v>
+      </c>
+      <c r="H12">
+        <v>999</v>
+      </c>
+      <c r="I12">
+        <v>999</v>
+      </c>
+      <c r="J12">
+        <v>999</v>
+      </c>
+      <c r="K12">
+        <v>999</v>
+      </c>
+      <c r="L12">
+        <v>999</v>
+      </c>
+      <c r="M12">
+        <v>999</v>
+      </c>
+      <c r="N12">
+        <v>999</v>
+      </c>
+      <c r="O12">
+        <v>999</v>
+      </c>
+      <c r="P12">
+        <v>999</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>0</v>
+      </c>
+      <c r="R12" t="s">
+        <v>1</v>
+      </c>
+      <c r="S12" t="s">
+        <v>2</v>
+      </c>
+      <c r="T12">
+        <v>808</v>
+      </c>
+      <c r="U12">
+        <v>809</v>
+      </c>
+      <c r="V12">
+        <v>999</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:V1 A4:V4 A2:A3 D2:D3 I2:V3 L7:O8 A9:O9 A5:A8 A10:A11 M10:O10 D10:D11 D5:D8 I5:O6 I7:I8 I10:K10 I11:J11 Q5:V10 Q11 A12:P12 R12">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A12">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S12 V11:V12">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T12:U12">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R11:U11">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q12">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V264"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U11" sqref="U11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="22" width="3.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>999</v>
+      </c>
+      <c r="B1">
+        <v>999</v>
+      </c>
+      <c r="C1">
+        <v>999</v>
+      </c>
+      <c r="D1">
+        <v>999</v>
+      </c>
+      <c r="E1">
+        <v>999</v>
+      </c>
+      <c r="F1">
+        <v>999</v>
+      </c>
+      <c r="G1">
+        <v>999</v>
+      </c>
+      <c r="H1">
+        <v>999</v>
+      </c>
+      <c r="I1">
+        <v>999</v>
+      </c>
+      <c r="J1">
+        <v>999</v>
+      </c>
+      <c r="K1">
+        <v>999</v>
+      </c>
+      <c r="L1">
+        <v>999</v>
+      </c>
+      <c r="M1">
+        <v>999</v>
+      </c>
+      <c r="N1">
+        <v>999</v>
+      </c>
+      <c r="O1">
+        <v>999</v>
+      </c>
+      <c r="P1">
+        <v>999</v>
+      </c>
+      <c r="Q1">
+        <v>999</v>
+      </c>
+      <c r="R1">
+        <v>800</v>
+      </c>
+      <c r="S1">
+        <v>800</v>
+      </c>
+      <c r="T1">
+        <v>800</v>
+      </c>
+      <c r="U1">
+        <v>800</v>
+      </c>
+      <c r="V1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>999</v>
+      </c>
+      <c r="B2">
+        <v>101</v>
+      </c>
+      <c r="C2">
+        <v>101</v>
+      </c>
+      <c r="D2">
+        <v>999</v>
+      </c>
+      <c r="E2">
+        <v>107</v>
+      </c>
+      <c r="F2">
+        <v>107</v>
+      </c>
+      <c r="G2">
+        <v>113</v>
+      </c>
+      <c r="H2">
+        <v>113</v>
+      </c>
+      <c r="I2">
+        <v>999</v>
+      </c>
+      <c r="J2">
+        <v>117</v>
+      </c>
+      <c r="K2">
+        <v>117</v>
+      </c>
+      <c r="L2">
+        <v>117</v>
+      </c>
+      <c r="M2">
+        <v>117</v>
+      </c>
+      <c r="N2">
+        <v>999</v>
+      </c>
+      <c r="O2">
+        <v>133</v>
+      </c>
+      <c r="P2">
+        <v>133</v>
+      </c>
+      <c r="Q2">
+        <v>999</v>
+      </c>
+      <c r="R2">
+        <v>801</v>
+      </c>
+      <c r="S2">
+        <v>801</v>
+      </c>
+      <c r="T2">
+        <v>801</v>
+      </c>
+      <c r="U2">
+        <v>801</v>
+      </c>
+      <c r="V2">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>999</v>
+      </c>
+      <c r="B3">
+        <v>101</v>
+      </c>
+      <c r="C3">
+        <v>101</v>
+      </c>
+      <c r="D3">
+        <v>999</v>
+      </c>
+      <c r="E3">
+        <v>107</v>
+      </c>
+      <c r="F3">
+        <v>107</v>
+      </c>
+      <c r="G3">
+        <v>113</v>
+      </c>
+      <c r="H3">
+        <v>113</v>
+      </c>
+      <c r="I3">
+        <v>999</v>
+      </c>
+      <c r="J3">
+        <v>117</v>
+      </c>
+      <c r="K3">
+        <v>117</v>
+      </c>
+      <c r="L3">
+        <v>117</v>
+      </c>
+      <c r="M3">
+        <v>117</v>
+      </c>
+      <c r="N3">
+        <v>999</v>
+      </c>
+      <c r="O3">
+        <v>133</v>
+      </c>
+      <c r="P3">
+        <v>133</v>
+      </c>
+      <c r="Q3">
+        <v>999</v>
+      </c>
+      <c r="R3">
+        <v>802</v>
+      </c>
+      <c r="S3">
+        <v>802</v>
+      </c>
+      <c r="T3">
+        <v>802</v>
+      </c>
+      <c r="U3">
+        <v>802</v>
+      </c>
+      <c r="V3">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>999</v>
+      </c>
+      <c r="B4">
+        <v>999</v>
+      </c>
+      <c r="C4">
+        <v>999</v>
+      </c>
+      <c r="D4">
+        <v>999</v>
+      </c>
+      <c r="E4">
+        <v>999</v>
+      </c>
+      <c r="F4">
+        <v>999</v>
+      </c>
+      <c r="G4">
+        <v>999</v>
+      </c>
+      <c r="H4">
+        <v>999</v>
+      </c>
+      <c r="I4">
+        <v>999</v>
+      </c>
+      <c r="J4">
+        <v>999</v>
+      </c>
+      <c r="K4">
+        <v>999</v>
+      </c>
+      <c r="L4">
+        <v>999</v>
+      </c>
+      <c r="M4">
+        <v>999</v>
+      </c>
+      <c r="N4">
+        <v>999</v>
+      </c>
+      <c r="O4">
+        <v>133</v>
+      </c>
+      <c r="P4">
+        <v>133</v>
+      </c>
+      <c r="Q4">
+        <v>999</v>
+      </c>
+      <c r="R4">
+        <v>803</v>
+      </c>
+      <c r="S4">
+        <v>803</v>
+      </c>
+      <c r="T4">
+        <v>803</v>
+      </c>
+      <c r="U4">
+        <v>803</v>
+      </c>
+      <c r="V4">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>999</v>
+      </c>
+      <c r="B5">
+        <v>102</v>
+      </c>
+      <c r="C5">
+        <v>102</v>
+      </c>
+      <c r="D5">
+        <v>999</v>
+      </c>
+      <c r="E5">
+        <v>108</v>
+      </c>
+      <c r="F5">
+        <v>108</v>
+      </c>
+      <c r="G5">
+        <v>114</v>
+      </c>
+      <c r="H5">
+        <v>114</v>
+      </c>
+      <c r="I5">
+        <v>999</v>
+      </c>
+      <c r="J5">
+        <v>118</v>
+      </c>
+      <c r="K5">
+        <v>118</v>
+      </c>
+      <c r="L5">
+        <v>118</v>
+      </c>
+      <c r="M5">
+        <v>118</v>
+      </c>
+      <c r="N5">
+        <v>999</v>
+      </c>
+      <c r="O5">
+        <v>133</v>
+      </c>
+      <c r="P5">
+        <v>133</v>
+      </c>
+      <c r="Q5">
+        <v>999</v>
+      </c>
+      <c r="R5">
+        <v>804</v>
+      </c>
+      <c r="S5">
+        <v>804</v>
+      </c>
+      <c r="T5">
+        <v>804</v>
+      </c>
+      <c r="U5">
+        <v>804</v>
+      </c>
+      <c r="V5">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>999</v>
+      </c>
+      <c r="B6">
+        <v>102</v>
+      </c>
+      <c r="C6">
+        <v>102</v>
+      </c>
+      <c r="D6">
+        <v>999</v>
+      </c>
+      <c r="E6">
+        <v>108</v>
+      </c>
+      <c r="F6">
+        <v>108</v>
+      </c>
+      <c r="G6">
+        <v>114</v>
+      </c>
+      <c r="H6">
+        <v>114</v>
+      </c>
+      <c r="I6">
+        <v>999</v>
+      </c>
+      <c r="J6">
+        <v>118</v>
+      </c>
+      <c r="K6">
+        <v>118</v>
+      </c>
+      <c r="L6">
+        <v>118</v>
+      </c>
+      <c r="M6">
+        <v>118</v>
+      </c>
+      <c r="N6">
+        <v>999</v>
+      </c>
+      <c r="O6">
+        <v>999</v>
+      </c>
+      <c r="P6">
+        <v>132</v>
+      </c>
+      <c r="Q6">
+        <v>999</v>
+      </c>
+      <c r="R6">
+        <v>999</v>
+      </c>
+      <c r="S6">
+        <v>999</v>
+      </c>
+      <c r="T6">
+        <v>999</v>
+      </c>
+      <c r="U6">
+        <v>999</v>
+      </c>
+      <c r="V6">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>999</v>
+      </c>
+      <c r="B7">
+        <v>103</v>
+      </c>
+      <c r="C7">
+        <v>104</v>
+      </c>
+      <c r="D7">
+        <v>999</v>
+      </c>
+      <c r="E7">
+        <v>109</v>
+      </c>
+      <c r="F7">
+        <v>110</v>
+      </c>
+      <c r="G7">
+        <v>115</v>
+      </c>
+      <c r="H7">
+        <v>115</v>
+      </c>
+      <c r="I7">
+        <v>999</v>
+      </c>
+      <c r="J7">
+        <v>119</v>
+      </c>
+      <c r="K7">
+        <v>119</v>
+      </c>
+      <c r="L7">
+        <v>120</v>
+      </c>
+      <c r="M7">
+        <v>120</v>
+      </c>
+      <c r="N7">
+        <v>999</v>
+      </c>
+      <c r="O7">
+        <v>999</v>
+      </c>
+      <c r="P7">
+        <v>131</v>
+      </c>
+      <c r="Q7">
+        <v>999</v>
+      </c>
+      <c r="R7">
+        <v>999</v>
+      </c>
+      <c r="S7">
+        <v>999</v>
+      </c>
+      <c r="T7">
+        <v>999</v>
+      </c>
+      <c r="U7">
+        <v>999</v>
+      </c>
+      <c r="V7">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>999</v>
+      </c>
+      <c r="B8">
+        <v>103</v>
+      </c>
+      <c r="C8">
+        <v>104</v>
+      </c>
+      <c r="D8">
+        <v>999</v>
+      </c>
+      <c r="E8">
+        <v>109</v>
+      </c>
+      <c r="F8">
+        <v>110</v>
+      </c>
+      <c r="G8">
+        <v>115</v>
+      </c>
+      <c r="H8">
+        <v>115</v>
+      </c>
+      <c r="I8">
+        <v>999</v>
+      </c>
+      <c r="J8">
+        <v>119</v>
+      </c>
+      <c r="K8">
+        <v>119</v>
+      </c>
+      <c r="L8">
+        <v>120</v>
+      </c>
+      <c r="M8">
+        <v>120</v>
+      </c>
+      <c r="N8">
+        <v>999</v>
+      </c>
+      <c r="O8">
+        <v>999</v>
+      </c>
+      <c r="P8">
+        <v>130</v>
+      </c>
+      <c r="Q8">
+        <v>999</v>
+      </c>
+      <c r="R8">
+        <v>999</v>
+      </c>
+      <c r="S8">
+        <v>999</v>
+      </c>
+      <c r="T8">
+        <v>999</v>
+      </c>
+      <c r="U8">
+        <v>999</v>
+      </c>
+      <c r="V8">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>999</v>
+      </c>
+      <c r="B9">
+        <v>999</v>
+      </c>
+      <c r="C9">
+        <v>999</v>
+      </c>
+      <c r="D9">
+        <v>999</v>
+      </c>
+      <c r="E9">
+        <v>999</v>
+      </c>
+      <c r="F9">
+        <v>999</v>
+      </c>
+      <c r="G9">
+        <v>999</v>
+      </c>
+      <c r="H9">
+        <v>999</v>
+      </c>
+      <c r="I9">
+        <v>999</v>
+      </c>
+      <c r="J9">
+        <v>999</v>
+      </c>
+      <c r="K9">
+        <v>999</v>
+      </c>
+      <c r="L9">
+        <v>999</v>
+      </c>
+      <c r="M9">
+        <v>999</v>
+      </c>
+      <c r="N9">
+        <v>999</v>
+      </c>
+      <c r="O9">
+        <v>999</v>
+      </c>
+      <c r="P9">
+        <v>129</v>
+      </c>
+      <c r="Q9">
+        <v>999</v>
+      </c>
+      <c r="R9">
+        <v>999</v>
+      </c>
+      <c r="S9">
+        <v>999</v>
+      </c>
+      <c r="T9">
+        <v>999</v>
+      </c>
+      <c r="U9">
+        <v>999</v>
+      </c>
+      <c r="V9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>999</v>
+      </c>
+      <c r="B10">
+        <v>105</v>
+      </c>
+      <c r="C10">
+        <v>106</v>
+      </c>
+      <c r="D10">
+        <v>999</v>
+      </c>
+      <c r="E10">
+        <v>111</v>
+      </c>
+      <c r="F10">
+        <v>112</v>
+      </c>
+      <c r="G10">
+        <v>116</v>
+      </c>
+      <c r="H10">
+        <v>116</v>
+      </c>
+      <c r="I10">
+        <v>999</v>
+      </c>
+      <c r="J10">
+        <v>121</v>
+      </c>
+      <c r="K10">
+        <v>121</v>
+      </c>
+      <c r="L10">
+        <v>122</v>
+      </c>
+      <c r="M10">
+        <v>999</v>
+      </c>
+      <c r="N10">
+        <v>999</v>
+      </c>
+      <c r="O10">
+        <v>999</v>
+      </c>
+      <c r="P10">
+        <v>128</v>
+      </c>
+      <c r="Q10">
+        <v>999</v>
+      </c>
+      <c r="R10">
+        <v>999</v>
+      </c>
+      <c r="S10">
+        <v>999</v>
+      </c>
+      <c r="T10">
+        <v>999</v>
+      </c>
+      <c r="U10">
+        <v>999</v>
+      </c>
+      <c r="V10">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>999</v>
+      </c>
+      <c r="B11">
+        <v>105</v>
+      </c>
+      <c r="C11">
+        <v>106</v>
+      </c>
+      <c r="D11">
+        <v>999</v>
+      </c>
+      <c r="E11">
+        <v>111</v>
+      </c>
+      <c r="F11">
+        <v>112</v>
+      </c>
+      <c r="G11">
+        <v>116</v>
+      </c>
+      <c r="H11">
+        <v>116</v>
+      </c>
+      <c r="I11">
+        <v>999</v>
+      </c>
+      <c r="J11">
+        <v>121</v>
+      </c>
+      <c r="K11">
+        <v>121</v>
+      </c>
+      <c r="L11">
+        <v>123</v>
+      </c>
+      <c r="M11">
+        <v>124</v>
+      </c>
+      <c r="N11">
+        <v>125</v>
+      </c>
+      <c r="O11">
+        <v>126</v>
+      </c>
+      <c r="P11">
+        <v>127</v>
+      </c>
+      <c r="Q11">
+        <v>999</v>
+      </c>
+      <c r="R11">
+        <v>999</v>
+      </c>
+      <c r="S11">
+        <v>999</v>
+      </c>
+      <c r="T11">
+        <v>999</v>
+      </c>
+      <c r="U11">
+        <v>999</v>
+      </c>
+      <c r="V11">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>999</v>
+      </c>
+      <c r="B12">
+        <v>999</v>
+      </c>
+      <c r="C12">
+        <v>999</v>
+      </c>
+      <c r="D12">
+        <v>999</v>
+      </c>
+      <c r="E12">
+        <v>999</v>
+      </c>
+      <c r="F12">
+        <v>999</v>
+      </c>
+      <c r="G12">
+        <v>999</v>
+      </c>
+      <c r="H12">
+        <v>999</v>
+      </c>
+      <c r="I12">
+        <v>999</v>
+      </c>
+      <c r="J12">
+        <v>999</v>
+      </c>
+      <c r="K12">
+        <v>999</v>
+      </c>
+      <c r="L12">
+        <v>999</v>
+      </c>
+      <c r="M12">
+        <v>999</v>
+      </c>
+      <c r="N12">
+        <v>999</v>
+      </c>
+      <c r="O12">
+        <v>999</v>
+      </c>
+      <c r="P12">
+        <v>999</v>
+      </c>
+      <c r="Q12">
+        <v>805</v>
+      </c>
+      <c r="R12">
+        <v>806</v>
+      </c>
+      <c r="S12">
+        <v>807</v>
+      </c>
+      <c r="T12">
+        <v>808</v>
+      </c>
+      <c r="U12">
+        <v>809</v>
+      </c>
+      <c r="V12">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f>B1</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f>B2</f>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" ref="A15:A24" si="0">B3</f>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f>C1</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f>C2</f>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" ref="A27:A36" si="1">C3</f>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" si="1"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="1"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="1"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="1"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" si="1"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" si="1"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="1"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f>D1</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f>D2</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f t="shared" ref="A39:A48" si="2">D3</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f t="shared" si="2"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f t="shared" si="2"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f t="shared" si="2"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f t="shared" si="2"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f t="shared" si="2"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f t="shared" si="2"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f t="shared" si="2"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f t="shared" si="2"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f t="shared" si="2"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f>E1</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f>E2</f>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f>E3</f>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f t="shared" ref="A52:A60" si="3">E4</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f t="shared" si="3"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <f t="shared" si="3"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <f t="shared" si="3"/>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <f t="shared" si="3"/>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f t="shared" si="3"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <f t="shared" si="3"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f t="shared" si="3"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <f t="shared" si="3"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <f>F1</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <f>F2</f>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <f t="shared" ref="A63:A72" si="4">F3</f>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <f t="shared" si="4"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <f t="shared" si="4"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <f t="shared" si="4"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <f t="shared" si="4"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <f t="shared" si="4"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <f t="shared" si="4"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <f t="shared" si="4"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <f t="shared" si="4"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <f t="shared" si="4"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <f>G1</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <f>G2</f>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <f t="shared" ref="A75:A84" si="5">G3</f>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <f t="shared" si="5"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <f t="shared" si="5"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <f t="shared" si="5"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <f t="shared" si="5"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <f t="shared" si="5"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <f t="shared" si="5"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <f t="shared" si="5"/>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <f t="shared" si="5"/>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <f t="shared" si="5"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <f>H1</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <f>H2</f>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <f t="shared" ref="A87:A96" si="6">H3</f>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <f t="shared" si="6"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <f t="shared" si="6"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <f t="shared" si="6"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <f t="shared" si="6"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <f t="shared" si="6"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <f t="shared" si="6"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <f t="shared" si="6"/>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <f t="shared" si="6"/>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <f t="shared" si="6"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <f>I1</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <f>I2</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <f t="shared" ref="A99:A108" si="7">I3</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <f t="shared" si="7"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <f t="shared" si="7"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <f t="shared" si="7"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <f t="shared" si="7"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <f t="shared" si="7"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <f t="shared" si="7"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <f t="shared" si="7"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <f t="shared" si="7"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <f t="shared" si="7"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <f>J1</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <f>J2</f>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <f t="shared" ref="A111:A120" si="8">J3</f>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <f t="shared" si="8"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <f t="shared" si="8"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <f t="shared" si="8"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <f t="shared" si="8"/>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <f t="shared" si="8"/>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <f t="shared" si="8"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <f t="shared" si="8"/>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <f t="shared" si="8"/>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <f t="shared" si="8"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <f>K1</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <f>K2</f>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <f t="shared" ref="A123:A132" si="9">K3</f>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <f t="shared" si="9"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <f t="shared" si="9"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <f t="shared" si="9"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <f t="shared" si="9"/>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <f t="shared" si="9"/>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <f t="shared" si="9"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <f t="shared" si="9"/>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <f t="shared" si="9"/>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <f t="shared" si="9"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <f>L1</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <f>L2</f>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <f t="shared" ref="A135:A144" si="10">L3</f>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <f t="shared" si="10"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <f t="shared" si="10"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <f t="shared" si="10"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <f t="shared" si="10"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <f t="shared" si="10"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <f t="shared" si="10"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <f t="shared" si="10"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <f t="shared" si="10"/>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <f t="shared" si="10"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <f>M1</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <f>M2</f>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <f t="shared" ref="A147:A156" si="11">M3</f>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <f t="shared" si="11"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <f t="shared" si="11"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <f t="shared" si="11"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <f t="shared" si="11"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <f t="shared" si="11"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <f t="shared" si="11"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <f t="shared" si="11"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <f t="shared" si="11"/>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <f t="shared" si="11"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <f>N1</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <f>N2</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <f t="shared" ref="A159:A168" si="12">N3</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <f t="shared" si="12"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <f t="shared" si="12"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <f t="shared" si="12"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <f t="shared" si="12"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <f t="shared" si="12"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <f t="shared" si="12"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <f t="shared" si="12"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <f t="shared" si="12"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <f t="shared" si="12"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <f>O1</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <f>O2</f>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <f t="shared" ref="A171:A180" si="13">O3</f>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <f t="shared" si="13"/>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <f t="shared" si="13"/>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <f t="shared" si="13"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <f t="shared" si="13"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <f t="shared" si="13"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <f t="shared" si="13"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <f t="shared" si="13"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <f t="shared" si="13"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <f t="shared" si="13"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <f>P1</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <f>P2</f>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <f t="shared" ref="A183:A192" si="14">P3</f>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <f t="shared" si="14"/>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <f t="shared" si="14"/>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <f t="shared" si="14"/>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <f t="shared" si="14"/>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <f t="shared" si="14"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <f t="shared" si="14"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <f t="shared" si="14"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <f t="shared" si="14"/>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <f t="shared" si="14"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <f>Q1</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <f>Q2</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <f t="shared" ref="A195:A203" si="15">Q3</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <f t="shared" si="15"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <f t="shared" si="15"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <f t="shared" si="15"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <f t="shared" si="15"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <f t="shared" si="15"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <f t="shared" si="15"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <f t="shared" si="15"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <f t="shared" si="15"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <f>Q12</f>
+        <v>805</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <f>R1</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <f>R2</f>
+        <v>801</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <f t="shared" ref="A207:A215" si="16">R3</f>
+        <v>802</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <f t="shared" si="16"/>
+        <v>803</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <f t="shared" si="16"/>
+        <v>804</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <f t="shared" si="16"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <f t="shared" si="16"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <f t="shared" si="16"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <f t="shared" si="16"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <f t="shared" si="16"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <f t="shared" si="16"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <f>R12</f>
+        <v>806</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <f>S1</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <f>S2</f>
+        <v>801</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <f t="shared" ref="A219:A228" si="17">S3</f>
+        <v>802</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <f t="shared" si="17"/>
+        <v>803</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <f t="shared" si="17"/>
+        <v>804</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <f t="shared" si="17"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <f t="shared" si="17"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <f t="shared" si="17"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <f t="shared" si="17"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <f t="shared" si="17"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <f t="shared" si="17"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <f t="shared" si="17"/>
+        <v>807</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <f>T1</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <f>T2</f>
+        <v>801</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <f t="shared" ref="A231:A240" si="18">T3</f>
+        <v>802</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <f t="shared" si="18"/>
+        <v>803</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <f t="shared" si="18"/>
+        <v>804</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <f t="shared" si="18"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <f t="shared" si="18"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <f t="shared" si="18"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <f t="shared" si="18"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <f t="shared" si="18"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <f t="shared" si="18"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <f t="shared" si="18"/>
+        <v>808</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <f>U1</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <f>U2</f>
+        <v>801</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <f t="shared" ref="A243:A252" si="19">U3</f>
+        <v>802</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <f t="shared" si="19"/>
+        <v>803</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <f t="shared" si="19"/>
+        <v>804</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <f t="shared" si="19"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <f t="shared" si="19"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <f t="shared" si="19"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <f t="shared" si="19"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <f t="shared" si="19"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <f t="shared" si="19"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <f t="shared" si="19"/>
+        <v>809</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <f>V1</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <f>V2</f>
+        <v>801</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <f t="shared" ref="A255:A264" si="20">V3</f>
+        <v>802</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <f t="shared" si="20"/>
+        <v>803</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <f t="shared" si="20"/>
+        <v>804</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <f t="shared" si="20"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <f t="shared" si="20"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <f t="shared" si="20"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <f t="shared" si="20"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <f t="shared" si="20"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <f t="shared" si="20"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <f t="shared" si="20"/>
+        <v>999</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:V1 A4:V4 A2:A3 D2:D3 I2:V3 L7:O8 A9:O9 A5:A8 A10:A11 M10:O10 D10:D11 D5:D8 I5:O6 I7:I8 I10:K10 I11:J11 Q5:V10 Q11 A12:P12 R12">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A264">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S12 V11:V12">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T12:U12">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R11:U11">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q12">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="K18" sqref="K4:T18"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="O17" sqref="N17:O18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="5" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="5" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -515,7 +3894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -619,7 +3998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -723,7 +4102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -827,7 +4206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -931,7 +4310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -1035,7 +4414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>0</v>
       </c>
@@ -1072,14 +4451,14 @@
       <c r="L7" s="2">
         <v>29</v>
       </c>
-      <c r="M7" s="4">
-        <v>26</v>
+      <c r="M7" s="1">
+        <v>0</v>
       </c>
       <c r="N7" s="4">
         <v>26</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
+      <c r="O7" s="4">
+        <v>26</v>
       </c>
       <c r="P7" s="2">
         <v>16</v>
@@ -1139,7 +4518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>0</v>
       </c>
@@ -1176,14 +4555,14 @@
       <c r="L8" s="2">
         <v>29</v>
       </c>
-      <c r="M8" s="4">
-        <v>26</v>
+      <c r="M8" s="1">
+        <v>0</v>
       </c>
       <c r="N8" s="4">
         <v>26</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
+      <c r="O8" s="4">
+        <v>26</v>
       </c>
       <c r="P8" s="2">
         <v>16</v>
@@ -1243,7 +4622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>0</v>
       </c>
@@ -1280,14 +4659,14 @@
       <c r="L9" s="2">
         <v>29</v>
       </c>
-      <c r="M9" s="4">
-        <v>26</v>
+      <c r="M9" s="1">
+        <v>0</v>
       </c>
       <c r="N9" s="4">
         <v>26</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
+      <c r="O9" s="4">
+        <v>26</v>
       </c>
       <c r="P9" s="4">
         <v>17</v>
@@ -1347,7 +4726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>0</v>
       </c>
@@ -1384,14 +4763,14 @@
       <c r="L10" s="2">
         <v>29</v>
       </c>
-      <c r="M10" s="4">
-        <v>26</v>
+      <c r="M10" s="1">
+        <v>0</v>
       </c>
       <c r="N10" s="4">
         <v>26</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
+      <c r="O10" s="4">
+        <v>26</v>
       </c>
       <c r="P10" s="4">
         <v>17</v>
@@ -1451,7 +4830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>0</v>
       </c>
@@ -1555,7 +4934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>0</v>
       </c>
@@ -1592,14 +4971,14 @@
       <c r="L12" s="4">
         <v>30</v>
       </c>
-      <c r="M12" s="5">
-        <v>25</v>
+      <c r="M12" s="1">
+        <v>0</v>
       </c>
       <c r="N12" s="5">
         <v>25</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
+      <c r="O12" s="5">
+        <v>25</v>
       </c>
       <c r="P12" s="4">
         <v>18</v>
@@ -1659,7 +5038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>0</v>
       </c>
@@ -1696,14 +5075,14 @@
       <c r="L13" s="4">
         <v>30</v>
       </c>
-      <c r="M13" s="5">
-        <v>25</v>
+      <c r="M13" s="1">
+        <v>0</v>
       </c>
       <c r="N13" s="5">
         <v>25</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
+      <c r="O13" s="5">
+        <v>25</v>
       </c>
       <c r="P13" s="4">
         <v>18</v>
@@ -1763,7 +5142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>0</v>
       </c>
@@ -1800,14 +5179,14 @@
       <c r="L14" s="5">
         <v>31</v>
       </c>
-      <c r="M14" s="4">
-        <v>24</v>
+      <c r="M14" s="1">
+        <v>0</v>
       </c>
       <c r="N14" s="4">
         <v>24</v>
       </c>
-      <c r="O14" s="1">
-        <v>0</v>
+      <c r="O14" s="4">
+        <v>24</v>
       </c>
       <c r="P14" s="5">
         <v>19</v>
@@ -1867,7 +5246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>0</v>
       </c>
@@ -1904,14 +5283,14 @@
       <c r="L15" s="5">
         <v>31</v>
       </c>
-      <c r="M15" s="4">
-        <v>24</v>
+      <c r="M15" s="1">
+        <v>0</v>
       </c>
       <c r="N15" s="4">
         <v>24</v>
       </c>
-      <c r="O15" s="1">
-        <v>0</v>
+      <c r="O15" s="4">
+        <v>24</v>
       </c>
       <c r="P15" s="4">
         <v>20</v>
@@ -1971,7 +5350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>0</v>
       </c>
@@ -2014,7 +5393,9 @@
       <c r="N16" s="1">
         <v>0</v>
       </c>
-      <c r="O16" s="1"/>
+      <c r="O16" s="1">
+        <v>0</v>
+      </c>
       <c r="P16" s="1">
         <v>0</v>
       </c>
@@ -2073,7 +5454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>0</v>
       </c>
@@ -2110,14 +5491,14 @@
       <c r="L17" s="4">
         <v>32</v>
       </c>
-      <c r="M17" s="4">
-        <v>32</v>
+      <c r="M17" s="1">
+        <v>0</v>
       </c>
       <c r="N17" s="4">
         <v>32</v>
       </c>
-      <c r="O17" s="1">
-        <v>0</v>
+      <c r="O17" s="4">
+        <v>32</v>
       </c>
       <c r="P17" s="4">
         <v>21</v>
@@ -2177,7 +5558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>0</v>
       </c>
@@ -2214,14 +5595,14 @@
       <c r="L18" s="4">
         <v>32</v>
       </c>
-      <c r="M18" s="4">
-        <v>32</v>
+      <c r="M18" s="1">
+        <v>0</v>
       </c>
       <c r="N18" s="4">
         <v>32</v>
       </c>
-      <c r="O18" s="1">
-        <v>0</v>
+      <c r="O18" s="4">
+        <v>32</v>
       </c>
       <c r="P18" s="5">
         <v>22</v>
@@ -2281,7 +5662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>0</v>
       </c>
@@ -2391,7 +5772,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T19"/>
   <sheetViews>
@@ -2399,9 +5780,9 @@
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="5" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="5" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -2463,7 +5844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2525,7 +5906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -2587,7 +5968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -2649,7 +6030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -2711,7 +6092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -2773,7 +6154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>1</v>
       </c>
@@ -2835,7 +6216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>1</v>
       </c>
@@ -2897,7 +6278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -2959,7 +6340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>1</v>
       </c>
@@ -3021,7 +6402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>1</v>
       </c>
@@ -3083,7 +6464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>1</v>
       </c>
@@ -3145,7 +6526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>1</v>
       </c>
@@ -3207,7 +6588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>1</v>
       </c>
@@ -3269,7 +6650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>1</v>
       </c>
@@ -3331,7 +6712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>1</v>
       </c>
@@ -3393,7 +6774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>1</v>
       </c>
@@ -3455,7 +6836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>1</v>
       </c>
@@ -3517,7 +6898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>0</v>
       </c>
@@ -3583,114 +6964,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Mall.xlsx
+++ b/Mall.xlsx
@@ -16,6 +16,7 @@
     <sheet name="Sheet3" sheetId="4" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
@@ -142,7 +143,87 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="20">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -542,7 +623,7 @@
   <dimension ref="A1:V12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1370,32 +1451,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:V1 A4:V4 A2:A3 D2:D3 I2:V3 L7:O8 A9:O9 A5:A8 A10:A11 M10:O10 D10:D11 D5:D8 I5:O6 I7:I8 I10:K10 I11:J11 Q5:V10 Q11 A12:P12 R12">
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="6" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A12">
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S12 V11:V12">
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T12:U12">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R11:U11">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q12">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1409,7 +1490,7 @@
   <dimension ref="A1:V264"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1419,16 +1500,16 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>999</v>
+        <v>800</v>
       </c>
       <c r="B1">
-        <v>999</v>
+        <v>800</v>
       </c>
       <c r="C1">
-        <v>999</v>
+        <v>800</v>
       </c>
       <c r="D1">
-        <v>999</v>
+        <v>800</v>
       </c>
       <c r="E1">
         <v>999</v>
@@ -1470,169 +1551,169 @@
         <v>999</v>
       </c>
       <c r="R1">
-        <v>800</v>
+        <v>999</v>
       </c>
       <c r="S1">
-        <v>800</v>
+        <v>999</v>
       </c>
       <c r="T1">
-        <v>800</v>
+        <v>999</v>
       </c>
       <c r="U1">
-        <v>800</v>
+        <v>999</v>
       </c>
       <c r="V1">
-        <v>800</v>
+        <v>999</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>999</v>
+        <v>801</v>
       </c>
       <c r="B2">
+        <v>801</v>
+      </c>
+      <c r="C2">
+        <v>801</v>
+      </c>
+      <c r="D2">
+        <v>801</v>
+      </c>
+      <c r="E2">
         <v>101</v>
       </c>
-      <c r="C2">
+      <c r="F2">
         <v>101</v>
       </c>
-      <c r="D2">
-        <v>999</v>
-      </c>
-      <c r="E2">
+      <c r="G2">
+        <v>999</v>
+      </c>
+      <c r="H2">
         <v>107</v>
       </c>
-      <c r="F2">
+      <c r="I2">
         <v>107</v>
       </c>
-      <c r="G2">
+      <c r="J2">
         <v>113</v>
       </c>
-      <c r="H2">
+      <c r="K2">
         <v>113</v>
       </c>
-      <c r="I2">
-        <v>999</v>
-      </c>
-      <c r="J2">
-        <v>117</v>
-      </c>
-      <c r="K2">
-        <v>117</v>
-      </c>
       <c r="L2">
-        <v>117</v>
+        <v>999</v>
       </c>
       <c r="M2">
         <v>117</v>
       </c>
       <c r="N2">
-        <v>999</v>
+        <v>117</v>
       </c>
       <c r="O2">
+        <v>117</v>
+      </c>
+      <c r="P2">
+        <v>117</v>
+      </c>
+      <c r="Q2">
+        <v>999</v>
+      </c>
+      <c r="R2">
         <v>133</v>
       </c>
-      <c r="P2">
+      <c r="S2">
         <v>133</v>
       </c>
-      <c r="Q2">
-        <v>999</v>
-      </c>
-      <c r="R2">
-        <v>801</v>
-      </c>
-      <c r="S2">
-        <v>801</v>
-      </c>
       <c r="T2">
-        <v>801</v>
+        <v>999</v>
       </c>
       <c r="U2">
-        <v>801</v>
+        <v>999</v>
       </c>
       <c r="V2">
-        <v>801</v>
+        <v>999</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>999</v>
+        <v>802</v>
       </c>
       <c r="B3">
+        <v>802</v>
+      </c>
+      <c r="C3">
+        <v>802</v>
+      </c>
+      <c r="D3">
+        <v>802</v>
+      </c>
+      <c r="E3">
         <v>101</v>
       </c>
-      <c r="C3">
+      <c r="F3">
         <v>101</v>
       </c>
-      <c r="D3">
-        <v>999</v>
-      </c>
-      <c r="E3">
+      <c r="G3">
+        <v>999</v>
+      </c>
+      <c r="H3">
         <v>107</v>
       </c>
-      <c r="F3">
+      <c r="I3">
         <v>107</v>
       </c>
-      <c r="G3">
+      <c r="J3">
         <v>113</v>
       </c>
-      <c r="H3">
+      <c r="K3">
         <v>113</v>
       </c>
-      <c r="I3">
-        <v>999</v>
-      </c>
-      <c r="J3">
-        <v>117</v>
-      </c>
-      <c r="K3">
-        <v>117</v>
-      </c>
       <c r="L3">
-        <v>117</v>
+        <v>999</v>
       </c>
       <c r="M3">
         <v>117</v>
       </c>
       <c r="N3">
-        <v>999</v>
+        <v>117</v>
       </c>
       <c r="O3">
+        <v>117</v>
+      </c>
+      <c r="P3">
+        <v>117</v>
+      </c>
+      <c r="Q3">
+        <v>999</v>
+      </c>
+      <c r="R3">
         <v>133</v>
       </c>
-      <c r="P3">
+      <c r="S3">
         <v>133</v>
       </c>
-      <c r="Q3">
-        <v>999</v>
-      </c>
-      <c r="R3">
-        <v>802</v>
-      </c>
-      <c r="S3">
-        <v>802</v>
-      </c>
       <c r="T3">
-        <v>802</v>
+        <v>999</v>
       </c>
       <c r="U3">
-        <v>802</v>
+        <v>999</v>
       </c>
       <c r="V3">
-        <v>802</v>
+        <v>999</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>999</v>
+        <v>803</v>
       </c>
       <c r="B4">
-        <v>999</v>
+        <v>803</v>
       </c>
       <c r="C4">
-        <v>999</v>
+        <v>803</v>
       </c>
       <c r="D4">
-        <v>999</v>
+        <v>803</v>
       </c>
       <c r="E4">
         <v>999</v>
@@ -1665,96 +1746,96 @@
         <v>999</v>
       </c>
       <c r="O4">
+        <v>999</v>
+      </c>
+      <c r="P4">
+        <v>999</v>
+      </c>
+      <c r="Q4">
+        <v>999</v>
+      </c>
+      <c r="R4">
         <v>133</v>
       </c>
-      <c r="P4">
+      <c r="S4">
         <v>133</v>
       </c>
-      <c r="Q4">
-        <v>999</v>
-      </c>
-      <c r="R4">
-        <v>803</v>
-      </c>
-      <c r="S4">
-        <v>803</v>
-      </c>
       <c r="T4">
-        <v>803</v>
+        <v>999</v>
       </c>
       <c r="U4">
-        <v>803</v>
+        <v>999</v>
       </c>
       <c r="V4">
-        <v>803</v>
+        <v>999</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>999</v>
+        <v>804</v>
       </c>
       <c r="B5">
+        <v>804</v>
+      </c>
+      <c r="C5">
+        <v>804</v>
+      </c>
+      <c r="D5">
+        <v>804</v>
+      </c>
+      <c r="E5">
         <v>102</v>
       </c>
-      <c r="C5">
+      <c r="F5">
         <v>102</v>
       </c>
-      <c r="D5">
-        <v>999</v>
-      </c>
-      <c r="E5">
+      <c r="G5">
+        <v>999</v>
+      </c>
+      <c r="H5">
         <v>108</v>
       </c>
-      <c r="F5">
+      <c r="I5">
         <v>108</v>
       </c>
-      <c r="G5">
+      <c r="J5">
         <v>114</v>
       </c>
-      <c r="H5">
+      <c r="K5">
         <v>114</v>
       </c>
-      <c r="I5">
-        <v>999</v>
-      </c>
-      <c r="J5">
-        <v>118</v>
-      </c>
-      <c r="K5">
-        <v>118</v>
-      </c>
       <c r="L5">
-        <v>118</v>
+        <v>999</v>
       </c>
       <c r="M5">
         <v>118</v>
       </c>
       <c r="N5">
-        <v>999</v>
+        <v>118</v>
       </c>
       <c r="O5">
+        <v>118</v>
+      </c>
+      <c r="P5">
+        <v>118</v>
+      </c>
+      <c r="Q5">
+        <v>999</v>
+      </c>
+      <c r="R5">
         <v>133</v>
       </c>
-      <c r="P5">
+      <c r="S5">
         <v>133</v>
       </c>
-      <c r="Q5">
-        <v>999</v>
-      </c>
-      <c r="R5">
-        <v>804</v>
-      </c>
-      <c r="S5">
-        <v>804</v>
-      </c>
       <c r="T5">
-        <v>804</v>
+        <v>999</v>
       </c>
       <c r="U5">
-        <v>804</v>
+        <v>999</v>
       </c>
       <c r="V5">
-        <v>804</v>
+        <v>999</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
@@ -1762,58 +1843,58 @@
         <v>999</v>
       </c>
       <c r="B6">
+        <v>999</v>
+      </c>
+      <c r="C6">
+        <v>999</v>
+      </c>
+      <c r="D6">
+        <v>999</v>
+      </c>
+      <c r="E6">
         <v>102</v>
       </c>
-      <c r="C6">
+      <c r="F6">
         <v>102</v>
       </c>
-      <c r="D6">
-        <v>999</v>
-      </c>
-      <c r="E6">
+      <c r="G6">
+        <v>999</v>
+      </c>
+      <c r="H6">
         <v>108</v>
       </c>
-      <c r="F6">
+      <c r="I6">
         <v>108</v>
       </c>
-      <c r="G6">
+      <c r="J6">
         <v>114</v>
       </c>
-      <c r="H6">
+      <c r="K6">
         <v>114</v>
       </c>
-      <c r="I6">
-        <v>999</v>
-      </c>
-      <c r="J6">
-        <v>118</v>
-      </c>
-      <c r="K6">
-        <v>118</v>
-      </c>
       <c r="L6">
-        <v>118</v>
+        <v>999</v>
       </c>
       <c r="M6">
         <v>118</v>
       </c>
       <c r="N6">
-        <v>999</v>
+        <v>118</v>
       </c>
       <c r="O6">
-        <v>999</v>
+        <v>118</v>
       </c>
       <c r="P6">
+        <v>118</v>
+      </c>
+      <c r="Q6">
+        <v>999</v>
+      </c>
+      <c r="R6">
+        <v>999</v>
+      </c>
+      <c r="S6">
         <v>132</v>
-      </c>
-      <c r="Q6">
-        <v>999</v>
-      </c>
-      <c r="R6">
-        <v>999</v>
-      </c>
-      <c r="S6">
-        <v>999</v>
       </c>
       <c r="T6">
         <v>999</v>
@@ -1830,58 +1911,58 @@
         <v>999</v>
       </c>
       <c r="B7">
+        <v>999</v>
+      </c>
+      <c r="C7">
+        <v>999</v>
+      </c>
+      <c r="D7">
+        <v>999</v>
+      </c>
+      <c r="E7">
         <v>103</v>
       </c>
-      <c r="C7">
+      <c r="F7">
         <v>104</v>
       </c>
-      <c r="D7">
-        <v>999</v>
-      </c>
-      <c r="E7">
+      <c r="G7">
+        <v>999</v>
+      </c>
+      <c r="H7">
         <v>109</v>
       </c>
-      <c r="F7">
+      <c r="I7">
         <v>110</v>
       </c>
-      <c r="G7">
+      <c r="J7">
         <v>115</v>
       </c>
-      <c r="H7">
+      <c r="K7">
         <v>115</v>
       </c>
-      <c r="I7">
-        <v>999</v>
-      </c>
-      <c r="J7">
+      <c r="L7">
+        <v>999</v>
+      </c>
+      <c r="M7">
         <v>119</v>
       </c>
-      <c r="K7">
+      <c r="N7">
         <v>119</v>
       </c>
-      <c r="L7">
+      <c r="O7">
         <v>120</v>
       </c>
-      <c r="M7">
+      <c r="P7">
         <v>120</v>
       </c>
-      <c r="N7">
-        <v>999</v>
-      </c>
-      <c r="O7">
-        <v>999</v>
-      </c>
-      <c r="P7">
+      <c r="Q7">
+        <v>999</v>
+      </c>
+      <c r="R7">
+        <v>999</v>
+      </c>
+      <c r="S7">
         <v>131</v>
-      </c>
-      <c r="Q7">
-        <v>999</v>
-      </c>
-      <c r="R7">
-        <v>999</v>
-      </c>
-      <c r="S7">
-        <v>999</v>
       </c>
       <c r="T7">
         <v>999</v>
@@ -1898,58 +1979,58 @@
         <v>999</v>
       </c>
       <c r="B8">
+        <v>999</v>
+      </c>
+      <c r="C8">
+        <v>999</v>
+      </c>
+      <c r="D8">
+        <v>999</v>
+      </c>
+      <c r="E8">
         <v>103</v>
       </c>
-      <c r="C8">
+      <c r="F8">
         <v>104</v>
       </c>
-      <c r="D8">
-        <v>999</v>
-      </c>
-      <c r="E8">
+      <c r="G8">
+        <v>999</v>
+      </c>
+      <c r="H8">
         <v>109</v>
       </c>
-      <c r="F8">
+      <c r="I8">
         <v>110</v>
       </c>
-      <c r="G8">
+      <c r="J8">
         <v>115</v>
       </c>
-      <c r="H8">
+      <c r="K8">
         <v>115</v>
       </c>
-      <c r="I8">
-        <v>999</v>
-      </c>
-      <c r="J8">
+      <c r="L8">
+        <v>999</v>
+      </c>
+      <c r="M8">
         <v>119</v>
       </c>
-      <c r="K8">
+      <c r="N8">
         <v>119</v>
       </c>
-      <c r="L8">
+      <c r="O8">
         <v>120</v>
       </c>
-      <c r="M8">
+      <c r="P8">
         <v>120</v>
       </c>
-      <c r="N8">
-        <v>999</v>
-      </c>
-      <c r="O8">
-        <v>999</v>
-      </c>
-      <c r="P8">
+      <c r="Q8">
+        <v>999</v>
+      </c>
+      <c r="R8">
+        <v>999</v>
+      </c>
+      <c r="S8">
         <v>130</v>
-      </c>
-      <c r="Q8">
-        <v>999</v>
-      </c>
-      <c r="R8">
-        <v>999</v>
-      </c>
-      <c r="S8">
-        <v>999</v>
       </c>
       <c r="T8">
         <v>999</v>
@@ -2008,16 +2089,16 @@
         <v>999</v>
       </c>
       <c r="P9">
+        <v>999</v>
+      </c>
+      <c r="Q9">
+        <v>999</v>
+      </c>
+      <c r="R9">
+        <v>999</v>
+      </c>
+      <c r="S9">
         <v>129</v>
-      </c>
-      <c r="Q9">
-        <v>999</v>
-      </c>
-      <c r="R9">
-        <v>999</v>
-      </c>
-      <c r="S9">
-        <v>999</v>
       </c>
       <c r="T9">
         <v>999</v>
@@ -2034,58 +2115,58 @@
         <v>999</v>
       </c>
       <c r="B10">
+        <v>999</v>
+      </c>
+      <c r="C10">
+        <v>999</v>
+      </c>
+      <c r="D10">
+        <v>999</v>
+      </c>
+      <c r="E10">
         <v>105</v>
       </c>
-      <c r="C10">
+      <c r="F10">
         <v>106</v>
       </c>
-      <c r="D10">
-        <v>999</v>
-      </c>
-      <c r="E10">
+      <c r="G10">
+        <v>999</v>
+      </c>
+      <c r="H10">
         <v>111</v>
       </c>
-      <c r="F10">
+      <c r="I10">
         <v>112</v>
       </c>
-      <c r="G10">
+      <c r="J10">
         <v>116</v>
       </c>
-      <c r="H10">
+      <c r="K10">
         <v>116</v>
       </c>
-      <c r="I10">
-        <v>999</v>
-      </c>
-      <c r="J10">
+      <c r="L10">
+        <v>999</v>
+      </c>
+      <c r="M10">
         <v>121</v>
       </c>
-      <c r="K10">
+      <c r="N10">
         <v>121</v>
       </c>
-      <c r="L10">
+      <c r="O10">
         <v>122</v>
       </c>
-      <c r="M10">
-        <v>999</v>
-      </c>
-      <c r="N10">
-        <v>999</v>
-      </c>
-      <c r="O10">
-        <v>999</v>
-      </c>
       <c r="P10">
+        <v>999</v>
+      </c>
+      <c r="Q10">
+        <v>999</v>
+      </c>
+      <c r="R10">
+        <v>999</v>
+      </c>
+      <c r="S10">
         <v>128</v>
-      </c>
-      <c r="Q10">
-        <v>999</v>
-      </c>
-      <c r="R10">
-        <v>999</v>
-      </c>
-      <c r="S10">
-        <v>999</v>
       </c>
       <c r="T10">
         <v>999</v>
@@ -2102,58 +2183,58 @@
         <v>999</v>
       </c>
       <c r="B11">
+        <v>999</v>
+      </c>
+      <c r="C11">
+        <v>999</v>
+      </c>
+      <c r="D11">
+        <v>999</v>
+      </c>
+      <c r="E11">
         <v>105</v>
       </c>
-      <c r="C11">
+      <c r="F11">
         <v>106</v>
       </c>
-      <c r="D11">
-        <v>999</v>
-      </c>
-      <c r="E11">
+      <c r="G11">
+        <v>999</v>
+      </c>
+      <c r="H11">
         <v>111</v>
       </c>
-      <c r="F11">
+      <c r="I11">
         <v>112</v>
       </c>
-      <c r="G11">
+      <c r="J11">
         <v>116</v>
       </c>
-      <c r="H11">
+      <c r="K11">
         <v>116</v>
       </c>
-      <c r="I11">
-        <v>999</v>
-      </c>
-      <c r="J11">
+      <c r="L11">
+        <v>999</v>
+      </c>
+      <c r="M11">
         <v>121</v>
       </c>
-      <c r="K11">
+      <c r="N11">
         <v>121</v>
       </c>
-      <c r="L11">
+      <c r="O11">
         <v>123</v>
       </c>
-      <c r="M11">
+      <c r="P11">
         <v>124</v>
       </c>
-      <c r="N11">
+      <c r="Q11">
         <v>125</v>
       </c>
-      <c r="O11">
+      <c r="R11">
         <v>126</v>
       </c>
-      <c r="P11">
+      <c r="S11">
         <v>127</v>
-      </c>
-      <c r="Q11">
-        <v>999</v>
-      </c>
-      <c r="R11">
-        <v>999</v>
-      </c>
-      <c r="S11">
-        <v>999</v>
       </c>
       <c r="T11">
         <v>999</v>
@@ -2167,19 +2248,19 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>999</v>
+        <v>805</v>
       </c>
       <c r="B12">
-        <v>999</v>
+        <v>806</v>
       </c>
       <c r="C12">
-        <v>999</v>
+        <v>807</v>
       </c>
       <c r="D12">
-        <v>999</v>
+        <v>808</v>
       </c>
       <c r="E12">
-        <v>999</v>
+        <v>809</v>
       </c>
       <c r="F12">
         <v>999</v>
@@ -2215,19 +2296,19 @@
         <v>999</v>
       </c>
       <c r="Q12">
-        <v>805</v>
+        <v>999</v>
       </c>
       <c r="R12">
-        <v>806</v>
+        <v>999</v>
       </c>
       <c r="S12">
-        <v>807</v>
+        <v>999</v>
       </c>
       <c r="T12">
-        <v>808</v>
+        <v>999</v>
       </c>
       <c r="U12">
-        <v>809</v>
+        <v>999</v>
       </c>
       <c r="V12">
         <v>999</v>
@@ -2235,50 +2316,50 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f>B1</f>
-        <v>999</v>
+        <f t="shared" ref="A13:A24" si="0">B1</f>
+        <v>800</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f>B2</f>
-        <v>101</v>
+        <f t="shared" si="0"/>
+        <v>801</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f t="shared" ref="A15:A24" si="0">B3</f>
-        <v>101</v>
+        <f t="shared" si="0"/>
+        <v>802</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
-        <v>999</v>
+        <v>803</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
-        <v>102</v>
+        <v>804</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
-        <v>102</v>
+        <v>999</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
-        <v>103</v>
+        <v>999</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
-        <v>103</v>
+        <v>999</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
@@ -2290,67 +2371,67 @@
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
-        <v>105</v>
+        <v>999</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
-        <v>105</v>
+        <v>999</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
-        <v>999</v>
+        <v>806</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25">
-        <f>C1</f>
-        <v>999</v>
+        <f t="shared" ref="A25:A36" si="1">C1</f>
+        <v>800</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26">
-        <f>C2</f>
-        <v>101</v>
+        <f t="shared" si="1"/>
+        <v>801</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27">
-        <f t="shared" ref="A27:A36" si="1">C3</f>
-        <v>101</v>
+        <f t="shared" si="1"/>
+        <v>802</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="1"/>
-        <v>999</v>
+        <v>803</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="1"/>
-        <v>102</v>
+        <v>804</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="1"/>
-        <v>102</v>
+        <v>999</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="1"/>
-        <v>104</v>
+        <v>999</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="1"/>
-        <v>104</v>
+        <v>999</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
@@ -2362,49 +2443,49 @@
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="1"/>
-        <v>106</v>
+        <v>999</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="1"/>
-        <v>106</v>
+        <v>999</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="1"/>
-        <v>999</v>
+        <v>807</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37">
-        <f>D1</f>
-        <v>999</v>
+        <f t="shared" ref="A37:A48" si="2">D1</f>
+        <v>800</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38">
-        <f>D2</f>
-        <v>999</v>
+        <f t="shared" si="2"/>
+        <v>801</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39">
-        <f t="shared" ref="A39:A48" si="2">D3</f>
-        <v>999</v>
+        <f t="shared" si="2"/>
+        <v>802</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="2"/>
-        <v>999</v>
+        <v>803</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="2"/>
-        <v>999</v>
+        <v>804</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
@@ -2446,55 +2527,55 @@
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="2"/>
-        <v>999</v>
+        <v>808</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49">
-        <f>E1</f>
+        <f t="shared" ref="A49:A60" si="3">E1</f>
         <v>999</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50">
-        <f>E2</f>
-        <v>107</v>
+        <f t="shared" si="3"/>
+        <v>101</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51">
-        <f>E3</f>
-        <v>107</v>
+        <f t="shared" si="3"/>
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52">
-        <f t="shared" ref="A52:A60" si="3">E4</f>
+        <f t="shared" si="3"/>
         <v>999</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" si="3"/>
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" si="3"/>
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55">
         <f t="shared" si="3"/>
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56">
         <f t="shared" si="3"/>
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
@@ -2506,37 +2587,37 @@
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58">
         <f t="shared" si="3"/>
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59">
         <f t="shared" si="3"/>
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60">
         <f t="shared" si="3"/>
-        <v>999</v>
+        <v>809</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61">
-        <f>F1</f>
+        <f t="shared" ref="A61:A71" si="4">F1</f>
         <v>999</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62">
-        <f>F2</f>
-        <v>107</v>
+        <f t="shared" si="4"/>
+        <v>101</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63">
-        <f t="shared" ref="A63:A72" si="4">F3</f>
-        <v>107</v>
+        <f t="shared" si="4"/>
+        <v>101</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
@@ -2548,25 +2629,25 @@
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65">
         <f t="shared" si="4"/>
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66">
         <f t="shared" si="4"/>
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67">
         <f t="shared" si="4"/>
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68">
         <f t="shared" si="4"/>
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
@@ -2578,1200 +2659,1240 @@
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70">
         <f t="shared" si="4"/>
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71">
         <f t="shared" si="4"/>
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="A72" si="5">F12</f>
         <v>999</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73">
-        <f>G1</f>
+        <f t="shared" ref="A73:A83" si="6">G1</f>
         <v>999</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74">
-        <f>G2</f>
-        <v>113</v>
+        <f t="shared" si="6"/>
+        <v>999</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75">
-        <f t="shared" ref="A75:A84" si="5">G3</f>
-        <v>113</v>
+        <f t="shared" si="6"/>
+        <v>999</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>999</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77">
-        <f t="shared" si="5"/>
-        <v>114</v>
+        <f t="shared" si="6"/>
+        <v>999</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78">
-        <f t="shared" si="5"/>
-        <v>114</v>
+        <f t="shared" si="6"/>
+        <v>999</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79">
-        <f t="shared" si="5"/>
-        <v>115</v>
+        <f t="shared" si="6"/>
+        <v>999</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80">
-        <f t="shared" si="5"/>
-        <v>115</v>
+        <f t="shared" si="6"/>
+        <v>999</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>999</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82">
-        <f t="shared" si="5"/>
-        <v>116</v>
+        <f t="shared" si="6"/>
+        <v>999</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83">
-        <f t="shared" si="5"/>
-        <v>116</v>
+        <f t="shared" si="6"/>
+        <v>999</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="A84" si="7">G12</f>
         <v>999</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85">
-        <f>H1</f>
+        <f t="shared" ref="A85:A95" si="8">H1</f>
         <v>999</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86">
-        <f>H2</f>
-        <v>113</v>
+        <f t="shared" si="8"/>
+        <v>107</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87">
-        <f t="shared" ref="A87:A96" si="6">H3</f>
-        <v>113</v>
+        <f t="shared" si="8"/>
+        <v>107</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>999</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89">
-        <f t="shared" si="6"/>
-        <v>114</v>
+        <f t="shared" si="8"/>
+        <v>108</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90">
-        <f t="shared" si="6"/>
-        <v>114</v>
+        <f t="shared" si="8"/>
+        <v>108</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91">
-        <f t="shared" si="6"/>
-        <v>115</v>
+        <f t="shared" si="8"/>
+        <v>109</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92">
-        <f t="shared" si="6"/>
-        <v>115</v>
+        <f t="shared" si="8"/>
+        <v>109</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>999</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94">
-        <f t="shared" si="6"/>
-        <v>116</v>
+        <f t="shared" si="8"/>
+        <v>111</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95">
-        <f t="shared" si="6"/>
-        <v>116</v>
+        <f t="shared" si="8"/>
+        <v>111</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="A96" si="9">H12</f>
         <v>999</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97">
-        <f>I1</f>
+        <f t="shared" ref="A97:A107" si="10">I1</f>
         <v>999</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98">
-        <f>I2</f>
-        <v>999</v>
+        <f t="shared" si="10"/>
+        <v>107</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99">
-        <f t="shared" ref="A99:A108" si="7">I3</f>
-        <v>999</v>
+        <f t="shared" si="10"/>
+        <v>107</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>999</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101">
-        <f t="shared" si="7"/>
-        <v>999</v>
+        <f t="shared" si="10"/>
+        <v>108</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102">
-        <f t="shared" si="7"/>
-        <v>999</v>
+        <f t="shared" si="10"/>
+        <v>108</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103">
-        <f t="shared" si="7"/>
-        <v>999</v>
+        <f t="shared" si="10"/>
+        <v>110</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104">
-        <f t="shared" si="7"/>
-        <v>999</v>
+        <f t="shared" si="10"/>
+        <v>110</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>999</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106">
-        <f t="shared" si="7"/>
-        <v>999</v>
+        <f t="shared" si="10"/>
+        <v>112</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107">
-        <f t="shared" si="7"/>
-        <v>999</v>
+        <f t="shared" si="10"/>
+        <v>112</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="A108" si="11">I12</f>
         <v>999</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109">
-        <f>J1</f>
+        <f t="shared" ref="A109:A119" si="12">J1</f>
         <v>999</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110">
-        <f>J2</f>
-        <v>117</v>
+        <f t="shared" si="12"/>
+        <v>113</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111">
-        <f t="shared" ref="A111:A120" si="8">J3</f>
-        <v>117</v>
+        <f t="shared" si="12"/>
+        <v>113</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>999</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113">
-        <f t="shared" si="8"/>
-        <v>118</v>
+        <f t="shared" si="12"/>
+        <v>114</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114">
-        <f t="shared" si="8"/>
-        <v>118</v>
+        <f t="shared" si="12"/>
+        <v>114</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115">
-        <f t="shared" si="8"/>
-        <v>119</v>
+        <f t="shared" si="12"/>
+        <v>115</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116">
-        <f t="shared" si="8"/>
-        <v>119</v>
+        <f t="shared" si="12"/>
+        <v>115</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>999</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118">
-        <f t="shared" si="8"/>
-        <v>121</v>
+        <f t="shared" si="12"/>
+        <v>116</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119">
-        <f t="shared" si="8"/>
-        <v>121</v>
+        <f t="shared" si="12"/>
+        <v>116</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="A120" si="13">J12</f>
         <v>999</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121">
-        <f>K1</f>
+        <f t="shared" ref="A121:A131" si="14">K1</f>
         <v>999</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122">
-        <f>K2</f>
-        <v>117</v>
+        <f t="shared" si="14"/>
+        <v>113</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123">
-        <f t="shared" ref="A123:A132" si="9">K3</f>
-        <v>117</v>
+        <f t="shared" si="14"/>
+        <v>113</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>999</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125">
-        <f t="shared" si="9"/>
-        <v>118</v>
+        <f t="shared" si="14"/>
+        <v>114</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126">
-        <f t="shared" si="9"/>
-        <v>118</v>
+        <f t="shared" si="14"/>
+        <v>114</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127">
-        <f t="shared" si="9"/>
-        <v>119</v>
+        <f t="shared" si="14"/>
+        <v>115</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128">
-        <f t="shared" si="9"/>
-        <v>119</v>
+        <f t="shared" si="14"/>
+        <v>115</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>999</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130">
-        <f t="shared" si="9"/>
-        <v>121</v>
+        <f t="shared" si="14"/>
+        <v>116</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131">
-        <f t="shared" si="9"/>
-        <v>121</v>
+        <f t="shared" si="14"/>
+        <v>116</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="A132" si="15">K12</f>
         <v>999</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133">
-        <f>L1</f>
+        <f t="shared" ref="A133:A143" si="16">L1</f>
         <v>999</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134">
-        <f>L2</f>
-        <v>117</v>
+        <f t="shared" si="16"/>
+        <v>999</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135">
-        <f t="shared" ref="A135:A144" si="10">L3</f>
-        <v>117</v>
+        <f t="shared" si="16"/>
+        <v>999</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>999</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137">
-        <f t="shared" si="10"/>
-        <v>118</v>
+        <f t="shared" si="16"/>
+        <v>999</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138">
-        <f t="shared" si="10"/>
-        <v>118</v>
+        <f t="shared" si="16"/>
+        <v>999</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139">
-        <f t="shared" si="10"/>
-        <v>120</v>
+        <f t="shared" si="16"/>
+        <v>999</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140">
-        <f t="shared" si="10"/>
-        <v>120</v>
+        <f t="shared" si="16"/>
+        <v>999</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>999</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142">
-        <f t="shared" si="10"/>
-        <v>122</v>
+        <f t="shared" si="16"/>
+        <v>999</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143">
-        <f t="shared" si="10"/>
-        <v>123</v>
+        <f t="shared" si="16"/>
+        <v>999</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="A144" si="17">L12</f>
         <v>999</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145">
-        <f>M1</f>
+        <f t="shared" ref="A145:A155" si="18">M1</f>
         <v>999</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146">
-        <f>M2</f>
+        <f t="shared" si="18"/>
         <v>117</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147">
-        <f t="shared" ref="A147:A156" si="11">M3</f>
+        <f t="shared" si="18"/>
         <v>117</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>999</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>118</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>118</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151">
-        <f t="shared" si="11"/>
-        <v>120</v>
+        <f t="shared" si="18"/>
+        <v>119</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152">
-        <f t="shared" si="11"/>
-        <v>120</v>
+        <f t="shared" si="18"/>
+        <v>119</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>999</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154">
-        <f t="shared" si="11"/>
-        <v>999</v>
+        <f t="shared" si="18"/>
+        <v>121</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155">
-        <f t="shared" si="11"/>
-        <v>124</v>
+        <f t="shared" si="18"/>
+        <v>121</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="A156" si="19">M12</f>
         <v>999</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157">
-        <f>N1</f>
+        <f t="shared" ref="A157:A167" si="20">N1</f>
         <v>999</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158">
-        <f>N2</f>
-        <v>999</v>
+        <f t="shared" si="20"/>
+        <v>117</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159">
-        <f t="shared" ref="A159:A168" si="12">N3</f>
-        <v>999</v>
+        <f t="shared" si="20"/>
+        <v>117</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>999</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161">
-        <f t="shared" si="12"/>
-        <v>999</v>
+        <f t="shared" si="20"/>
+        <v>118</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162">
-        <f t="shared" si="12"/>
-        <v>999</v>
+        <f t="shared" si="20"/>
+        <v>118</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163">
-        <f t="shared" si="12"/>
-        <v>999</v>
+        <f t="shared" si="20"/>
+        <v>119</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164">
-        <f t="shared" si="12"/>
-        <v>999</v>
+        <f t="shared" si="20"/>
+        <v>119</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>999</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166">
-        <f t="shared" si="12"/>
-        <v>999</v>
+        <f t="shared" si="20"/>
+        <v>121</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167">
-        <f t="shared" si="12"/>
-        <v>125</v>
+        <f t="shared" si="20"/>
+        <v>121</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="A168" si="21">N12</f>
         <v>999</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169">
-        <f>O1</f>
+        <f t="shared" ref="A169:A179" si="22">O1</f>
         <v>999</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170">
-        <f>O2</f>
-        <v>133</v>
+        <f t="shared" si="22"/>
+        <v>117</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171">
-        <f t="shared" ref="A171:A180" si="13">O3</f>
-        <v>133</v>
+        <f t="shared" si="22"/>
+        <v>117</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172">
-        <f t="shared" si="13"/>
-        <v>133</v>
+        <f t="shared" si="22"/>
+        <v>999</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173">
-        <f t="shared" si="13"/>
-        <v>133</v>
+        <f t="shared" si="22"/>
+        <v>118</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174">
-        <f t="shared" si="13"/>
-        <v>999</v>
+        <f t="shared" si="22"/>
+        <v>118</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175">
-        <f t="shared" si="13"/>
-        <v>999</v>
+        <f t="shared" si="22"/>
+        <v>120</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176">
-        <f t="shared" si="13"/>
-        <v>999</v>
+        <f t="shared" si="22"/>
+        <v>120</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>999</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178">
-        <f t="shared" si="13"/>
-        <v>999</v>
+        <f t="shared" si="22"/>
+        <v>122</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179">
-        <f t="shared" si="13"/>
-        <v>126</v>
+        <f t="shared" si="22"/>
+        <v>123</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="A180" si="23">O12</f>
         <v>999</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181">
-        <f>P1</f>
+        <f t="shared" ref="A181:A191" si="24">P1</f>
         <v>999</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182">
-        <f>P2</f>
-        <v>133</v>
+        <f t="shared" si="24"/>
+        <v>117</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183">
-        <f t="shared" ref="A183:A192" si="14">P3</f>
-        <v>133</v>
+        <f t="shared" si="24"/>
+        <v>117</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184">
-        <f t="shared" si="14"/>
-        <v>133</v>
+        <f t="shared" si="24"/>
+        <v>999</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185">
-        <f t="shared" si="14"/>
-        <v>133</v>
+        <f t="shared" si="24"/>
+        <v>118</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186">
-        <f t="shared" si="14"/>
-        <v>132</v>
+        <f t="shared" si="24"/>
+        <v>118</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187">
-        <f t="shared" si="14"/>
-        <v>131</v>
+        <f t="shared" si="24"/>
+        <v>120</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188">
-        <f t="shared" si="14"/>
-        <v>130</v>
+        <f t="shared" si="24"/>
+        <v>120</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189">
-        <f t="shared" si="14"/>
-        <v>129</v>
+        <f t="shared" si="24"/>
+        <v>999</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190">
-        <f t="shared" si="14"/>
-        <v>128</v>
+        <f t="shared" si="24"/>
+        <v>999</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191">
-        <f t="shared" si="14"/>
-        <v>127</v>
+        <f t="shared" si="24"/>
+        <v>124</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="A192" si="25">P12</f>
         <v>999</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193">
-        <f>Q1</f>
+        <f t="shared" ref="A193:A204" si="26">Q1</f>
         <v>999</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194">
-        <f>Q2</f>
+        <f t="shared" si="26"/>
         <v>999</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195">
-        <f t="shared" ref="A195:A203" si="15">Q3</f>
+        <f t="shared" si="26"/>
         <v>999</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196">
-        <f t="shared" si="15"/>
+        <f t="shared" si="26"/>
         <v>999</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197">
-        <f t="shared" si="15"/>
+        <f t="shared" si="26"/>
         <v>999</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198">
-        <f t="shared" si="15"/>
+        <f t="shared" si="26"/>
         <v>999</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199">
-        <f t="shared" si="15"/>
+        <f t="shared" si="26"/>
         <v>999</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200">
-        <f t="shared" si="15"/>
+        <f t="shared" si="26"/>
         <v>999</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201">
-        <f t="shared" si="15"/>
+        <f t="shared" si="26"/>
         <v>999</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202">
-        <f t="shared" si="15"/>
+        <f t="shared" si="26"/>
         <v>999</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203">
-        <f t="shared" si="15"/>
-        <v>999</v>
+        <f t="shared" si="26"/>
+        <v>125</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204">
-        <f>Q12</f>
-        <v>805</v>
+        <f t="shared" si="26"/>
+        <v>999</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205">
-        <f>R1</f>
-        <v>800</v>
+        <f t="shared" ref="A205:A216" si="27">R1</f>
+        <v>999</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206">
-        <f>R2</f>
-        <v>801</v>
+        <f t="shared" si="27"/>
+        <v>133</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207">
-        <f t="shared" ref="A207:A215" si="16">R3</f>
-        <v>802</v>
+        <f t="shared" si="27"/>
+        <v>133</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208">
-        <f t="shared" si="16"/>
-        <v>803</v>
+        <f t="shared" si="27"/>
+        <v>133</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209">
-        <f t="shared" si="16"/>
-        <v>804</v>
+        <f t="shared" si="27"/>
+        <v>133</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210">
-        <f t="shared" si="16"/>
+        <f t="shared" si="27"/>
         <v>999</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211">
-        <f t="shared" si="16"/>
+        <f t="shared" si="27"/>
         <v>999</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212">
-        <f t="shared" si="16"/>
+        <f t="shared" si="27"/>
         <v>999</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213">
-        <f t="shared" si="16"/>
+        <f t="shared" si="27"/>
         <v>999</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214">
-        <f t="shared" si="16"/>
+        <f t="shared" si="27"/>
         <v>999</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215">
-        <f t="shared" si="16"/>
-        <v>999</v>
+        <f t="shared" si="27"/>
+        <v>126</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216">
-        <f>R12</f>
-        <v>806</v>
+        <f t="shared" si="27"/>
+        <v>999</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217">
-        <f>S1</f>
-        <v>800</v>
+        <f t="shared" ref="A217:A228" si="28">S1</f>
+        <v>999</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218">
-        <f>S2</f>
-        <v>801</v>
+        <f t="shared" si="28"/>
+        <v>133</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219">
-        <f t="shared" ref="A219:A228" si="17">S3</f>
-        <v>802</v>
+        <f t="shared" si="28"/>
+        <v>133</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220">
-        <f t="shared" si="17"/>
-        <v>803</v>
+        <f t="shared" si="28"/>
+        <v>133</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221">
-        <f t="shared" si="17"/>
-        <v>804</v>
+        <f t="shared" si="28"/>
+        <v>133</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222">
-        <f t="shared" si="17"/>
-        <v>999</v>
+        <f t="shared" si="28"/>
+        <v>132</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223">
-        <f t="shared" si="17"/>
-        <v>999</v>
+        <f t="shared" si="28"/>
+        <v>131</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224">
-        <f t="shared" si="17"/>
-        <v>999</v>
+        <f t="shared" si="28"/>
+        <v>130</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225">
-        <f t="shared" si="17"/>
-        <v>999</v>
+        <f t="shared" si="28"/>
+        <v>129</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226">
-        <f t="shared" si="17"/>
-        <v>999</v>
+        <f t="shared" si="28"/>
+        <v>128</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227">
-        <f t="shared" si="17"/>
-        <v>999</v>
+        <f t="shared" si="28"/>
+        <v>127</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228">
-        <f t="shared" si="17"/>
-        <v>807</v>
+        <f t="shared" si="28"/>
+        <v>999</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229">
-        <f>T1</f>
-        <v>800</v>
+        <f t="shared" ref="A229:A240" si="29">T1</f>
+        <v>999</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230">
-        <f>T2</f>
-        <v>801</v>
+        <f t="shared" si="29"/>
+        <v>999</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231">
-        <f t="shared" ref="A231:A240" si="18">T3</f>
-        <v>802</v>
+        <f t="shared" si="29"/>
+        <v>999</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232">
-        <f t="shared" si="18"/>
-        <v>803</v>
+        <f t="shared" si="29"/>
+        <v>999</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233">
-        <f t="shared" si="18"/>
-        <v>804</v>
+        <f t="shared" si="29"/>
+        <v>999</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v>999</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v>999</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v>999</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v>999</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v>999</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v>999</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240">
-        <f t="shared" si="18"/>
-        <v>808</v>
+        <f t="shared" si="29"/>
+        <v>999</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241">
         <f>U1</f>
-        <v>800</v>
+        <v>999</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242">
         <f>U2</f>
-        <v>801</v>
+        <v>999</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243">
-        <f t="shared" ref="A243:A252" si="19">U3</f>
-        <v>802</v>
+        <f>U3</f>
+        <v>999</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244">
-        <f t="shared" si="19"/>
-        <v>803</v>
+        <f>U4</f>
+        <v>999</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245">
-        <f t="shared" si="19"/>
-        <v>804</v>
+        <f>U5</f>
+        <v>999</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="A246:A251" si="30">U6</f>
         <v>999</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247">
-        <f t="shared" si="19"/>
+        <f t="shared" si="30"/>
         <v>999</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248">
-        <f t="shared" si="19"/>
+        <f t="shared" si="30"/>
         <v>999</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249">
-        <f t="shared" si="19"/>
+        <f t="shared" si="30"/>
         <v>999</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250">
-        <f t="shared" si="19"/>
+        <f t="shared" si="30"/>
         <v>999</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251">
-        <f t="shared" si="19"/>
+        <f t="shared" si="30"/>
         <v>999</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252">
-        <f t="shared" si="19"/>
-        <v>809</v>
+        <f>U12</f>
+        <v>999</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253">
         <f>V1</f>
-        <v>800</v>
+        <v>999</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254">
         <f>V2</f>
-        <v>801</v>
+        <v>999</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255">
-        <f t="shared" ref="A255:A264" si="20">V3</f>
-        <v>802</v>
+        <f>V3</f>
+        <v>999</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256">
-        <f t="shared" si="20"/>
-        <v>803</v>
+        <f>V4</f>
+        <v>999</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257">
-        <f t="shared" si="20"/>
-        <v>804</v>
+        <f>V5</f>
+        <v>999</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="A258:A264" si="31">V6</f>
         <v>999</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259">
-        <f t="shared" si="20"/>
+        <f t="shared" si="31"/>
         <v>999</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260">
-        <f t="shared" si="20"/>
+        <f t="shared" si="31"/>
         <v>999</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261">
-        <f t="shared" si="20"/>
+        <f t="shared" si="31"/>
         <v>999</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262">
-        <f t="shared" si="20"/>
+        <f t="shared" si="31"/>
         <v>999</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263">
-        <f t="shared" si="20"/>
+        <f t="shared" si="31"/>
         <v>999</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264">
-        <f t="shared" si="20"/>
+        <f t="shared" si="31"/>
         <v>999</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:V1 A4:V4 A2:A3 D2:D3 I2:V3 L7:O8 A9:O9 A5:A8 A10:A11 M10:O10 D10:D11 D5:D8 I5:O6 I7:I8 I10:K10 I11:J11 Q5:V10 Q11 A12:P12 R12">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+  <conditionalFormatting sqref="G2:G3 O7:R8 P10:R10 G10:G11 G5:G8 L5:R6 L7:L8 L10:N10 L11:M11 B12 V6 F12:P12 L2:S3 T1:V5 B1:D5 E9:R9 E4:S4 V12 T7:V11 E1:S1">
+    <cfRule type="cellIs" dxfId="13" priority="16" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A264">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+  <conditionalFormatting sqref="A13:A264">
+    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S12 V11:V12">
+  <conditionalFormatting sqref="C12">
+    <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12:E12">
+    <cfRule type="cellIs" dxfId="10" priority="13" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T6:U6 T12:U12">
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12">
+    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:D6">
+    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11 B7:D10">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:C11">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q12:S17">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A5">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T12:U12">
+  <conditionalFormatting sqref="A6">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R11:U11">
+  <conditionalFormatting sqref="A7:A10">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q12">
+  <conditionalFormatting sqref="A11">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>999</formula>
     </cfRule>
@@ -6964,4 +7085,1531 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A13:A264"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" ref="A13:A24" si="0">B1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" ref="A25:A36" si="1">C1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" ref="A37:A48" si="2">D1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f t="shared" ref="A49:A60" si="3">E1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <f t="shared" ref="A61:A71" si="4">F1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <f t="shared" ref="A72" si="5">F12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <f t="shared" ref="A73:A83" si="6">G1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <f t="shared" ref="A84" si="7">G12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <f t="shared" ref="A85:A95" si="8">H1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <f t="shared" ref="A96" si="9">H12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <f t="shared" ref="A97:A107" si="10">I1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <f t="shared" ref="A108" si="11">I12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <f t="shared" ref="A109:A119" si="12">J1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <f t="shared" ref="A120" si="13">J12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <f t="shared" ref="A121:A131" si="14">K1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <f t="shared" ref="A132" si="15">K12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <f t="shared" ref="A133:A143" si="16">L1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <f t="shared" ref="A144" si="17">L12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <f t="shared" ref="A145:A155" si="18">M1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <f t="shared" ref="A156" si="19">M12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <f t="shared" ref="A157:A167" si="20">N1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <f t="shared" ref="A168" si="21">N12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <f t="shared" ref="A169:A179" si="22">O1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <f t="shared" ref="A180" si="23">O12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <f t="shared" ref="A181:A191" si="24">P1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <f t="shared" ref="A192" si="25">P12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <f t="shared" ref="A193:A204" si="26">Q1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <f t="shared" ref="A205:A216" si="27">R1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <f t="shared" ref="A217:A228" si="28">S1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <f t="shared" ref="A229:A240" si="29">T1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <f>U1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <f>U2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <f>U3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <f>U4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <f>U5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <f t="shared" ref="A246:A251" si="30">U6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <f>U12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <f>V1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <f>V2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <f>V3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <f>V4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <f>V5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <f t="shared" ref="A258:A264" si="31">V6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Mall.xlsx
+++ b/Mall.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27106"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevh9\Desktop\MallSim\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kevin/Desktop/MallSim/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9495" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="21580" windowHeight="9500" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="NEW MALL" sheetId="3" r:id="rId1"/>
@@ -18,8 +18,11 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
     <sheet name="Sheet4" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -143,7 +146,37 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="23">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -626,11 +659,11 @@
       <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.75" customWidth="1"/>
-    <col min="4" max="4" width="3.75" customWidth="1"/>
-    <col min="9" max="9" width="3.75" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="4" max="4" width="3.6640625" customWidth="1"/>
+    <col min="9" max="9" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
@@ -1451,32 +1484,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:V1 A4:V4 A2:A3 D2:D3 I2:V3 L7:O8 A9:O9 A5:A8 A10:A11 M10:O10 D10:D11 D5:D8 I5:O6 I7:I8 I10:K10 I11:J11 Q5:V10 Q11 A12:P12 R12">
-    <cfRule type="cellIs" dxfId="19" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="6" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A12">
-    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="5" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S12 V11:V12">
-    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T12:U12">
-    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R11:U11">
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q12">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1490,12 +1523,13 @@
   <dimension ref="A1:V264"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="22" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="22" width="3.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
@@ -1908,7 +1942,7 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>999</v>
+        <v>805</v>
       </c>
       <c r="B7">
         <v>999</v>
@@ -1976,7 +2010,7 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>999</v>
+        <v>806</v>
       </c>
       <c r="B8">
         <v>999</v>
@@ -2044,7 +2078,7 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>999</v>
+        <v>807</v>
       </c>
       <c r="B9">
         <v>999</v>
@@ -2112,7 +2146,7 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>999</v>
+        <v>808</v>
       </c>
       <c r="B10">
         <v>999</v>
@@ -2180,7 +2214,7 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>999</v>
+        <v>809</v>
       </c>
       <c r="B11">
         <v>999</v>
@@ -2248,19 +2282,19 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>805</v>
+        <v>810</v>
       </c>
       <c r="B12">
-        <v>806</v>
+        <v>999</v>
       </c>
       <c r="C12">
-        <v>807</v>
+        <v>999</v>
       </c>
       <c r="D12">
-        <v>808</v>
+        <v>999</v>
       </c>
       <c r="E12">
-        <v>809</v>
+        <v>999</v>
       </c>
       <c r="F12">
         <v>999</v>
@@ -2374,1526 +2408,1521 @@
         <v>999</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>999</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24">
         <f t="shared" si="0"/>
-        <v>806</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25">
         <f t="shared" ref="A25:A36" si="1">C1</f>
         <v>800</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26">
         <f t="shared" si="1"/>
         <v>801</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27">
         <f t="shared" si="1"/>
         <v>802</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28">
         <f t="shared" si="1"/>
         <v>803</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29">
         <f t="shared" si="1"/>
         <v>804</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30">
         <f t="shared" si="1"/>
         <v>999</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31">
         <f t="shared" si="1"/>
         <v>999</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32">
         <f t="shared" si="1"/>
         <v>999</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33">
         <f t="shared" si="1"/>
         <v>999</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34">
         <f t="shared" si="1"/>
         <v>999</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35">
         <f t="shared" si="1"/>
         <v>999</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36">
         <f t="shared" si="1"/>
-        <v>807</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37">
         <f t="shared" ref="A37:A48" si="2">D1</f>
         <v>800</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38">
         <f t="shared" si="2"/>
         <v>801</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39">
         <f t="shared" si="2"/>
         <v>802</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40">
         <f t="shared" si="2"/>
         <v>803</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41">
         <f t="shared" si="2"/>
         <v>804</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42">
         <f t="shared" si="2"/>
         <v>999</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43">
         <f t="shared" si="2"/>
         <v>999</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44">
         <f t="shared" si="2"/>
         <v>999</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45">
         <f t="shared" si="2"/>
         <v>999</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46">
         <f t="shared" si="2"/>
         <v>999</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47">
         <f t="shared" si="2"/>
         <v>999</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48">
         <f t="shared" si="2"/>
-        <v>808</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49">
         <f t="shared" ref="A49:A60" si="3">E1</f>
         <v>999</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50">
         <f t="shared" si="3"/>
         <v>101</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51">
         <f t="shared" si="3"/>
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52">
         <f t="shared" si="3"/>
         <v>999</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53">
         <f t="shared" si="3"/>
         <v>102</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54">
         <f t="shared" si="3"/>
         <v>102</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55">
         <f t="shared" si="3"/>
         <v>103</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56">
         <f t="shared" si="3"/>
         <v>103</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57">
         <f t="shared" si="3"/>
         <v>999</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58">
         <f t="shared" si="3"/>
         <v>105</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59">
         <f t="shared" si="3"/>
         <v>105</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60">
         <f t="shared" si="3"/>
-        <v>809</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61">
         <f t="shared" ref="A61:A71" si="4">F1</f>
         <v>999</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62">
         <f t="shared" si="4"/>
         <v>101</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63">
         <f t="shared" si="4"/>
         <v>101</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64">
         <f t="shared" si="4"/>
         <v>999</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65">
         <f t="shared" si="4"/>
         <v>102</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66">
         <f t="shared" si="4"/>
         <v>102</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67">
         <f t="shared" si="4"/>
         <v>104</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68">
         <f t="shared" si="4"/>
         <v>104</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69">
         <f t="shared" si="4"/>
         <v>999</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70">
         <f t="shared" si="4"/>
         <v>106</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71">
         <f t="shared" si="4"/>
         <v>106</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72">
         <f t="shared" ref="A72" si="5">F12</f>
         <v>999</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73">
         <f t="shared" ref="A73:A83" si="6">G1</f>
         <v>999</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74">
         <f t="shared" si="6"/>
         <v>999</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75">
         <f t="shared" si="6"/>
         <v>999</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76">
         <f t="shared" si="6"/>
         <v>999</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77">
         <f t="shared" si="6"/>
         <v>999</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78">
         <f t="shared" si="6"/>
         <v>999</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79">
         <f t="shared" si="6"/>
         <v>999</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80">
         <f t="shared" si="6"/>
         <v>999</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81">
         <f t="shared" si="6"/>
         <v>999</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82">
         <f t="shared" si="6"/>
         <v>999</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83">
         <f t="shared" si="6"/>
         <v>999</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84">
         <f t="shared" ref="A84" si="7">G12</f>
         <v>999</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85">
         <f t="shared" ref="A85:A95" si="8">H1</f>
         <v>999</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86">
         <f t="shared" si="8"/>
         <v>107</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87">
         <f t="shared" si="8"/>
         <v>107</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88">
         <f t="shared" si="8"/>
         <v>999</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89">
         <f t="shared" si="8"/>
         <v>108</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90">
         <f t="shared" si="8"/>
         <v>108</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91">
         <f t="shared" si="8"/>
         <v>109</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92">
         <f t="shared" si="8"/>
         <v>109</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93">
         <f t="shared" si="8"/>
         <v>999</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94">
         <f t="shared" si="8"/>
         <v>111</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95">
         <f t="shared" si="8"/>
         <v>111</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96">
         <f t="shared" ref="A96" si="9">H12</f>
         <v>999</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97">
         <f t="shared" ref="A97:A107" si="10">I1</f>
         <v>999</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98">
         <f t="shared" si="10"/>
         <v>107</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99">
         <f t="shared" si="10"/>
         <v>107</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100">
         <f t="shared" si="10"/>
         <v>999</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101">
         <f t="shared" si="10"/>
         <v>108</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102">
         <f t="shared" si="10"/>
         <v>108</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103">
         <f t="shared" si="10"/>
         <v>110</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104">
         <f t="shared" si="10"/>
         <v>110</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105">
         <f t="shared" si="10"/>
         <v>999</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106">
         <f t="shared" si="10"/>
         <v>112</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107">
         <f t="shared" si="10"/>
         <v>112</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108">
         <f t="shared" ref="A108" si="11">I12</f>
         <v>999</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109">
         <f t="shared" ref="A109:A119" si="12">J1</f>
         <v>999</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110">
         <f t="shared" si="12"/>
         <v>113</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111">
         <f t="shared" si="12"/>
         <v>113</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112">
         <f t="shared" si="12"/>
         <v>999</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113">
         <f t="shared" si="12"/>
         <v>114</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114">
         <f t="shared" si="12"/>
         <v>114</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115">
         <f t="shared" si="12"/>
         <v>115</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116">
         <f t="shared" si="12"/>
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117">
         <f t="shared" si="12"/>
         <v>999</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118">
         <f t="shared" si="12"/>
         <v>116</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119">
         <f t="shared" si="12"/>
         <v>116</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120">
         <f t="shared" ref="A120" si="13">J12</f>
         <v>999</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121">
         <f t="shared" ref="A121:A131" si="14">K1</f>
         <v>999</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122">
         <f t="shared" si="14"/>
         <v>113</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123">
         <f t="shared" si="14"/>
         <v>113</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124">
         <f t="shared" si="14"/>
         <v>999</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125">
         <f t="shared" si="14"/>
         <v>114</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126">
         <f t="shared" si="14"/>
         <v>114</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127">
         <f t="shared" si="14"/>
         <v>115</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128">
         <f t="shared" si="14"/>
         <v>115</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129">
         <f t="shared" si="14"/>
         <v>999</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130">
         <f t="shared" si="14"/>
         <v>116</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131">
         <f t="shared" si="14"/>
         <v>116</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132">
         <f t="shared" ref="A132" si="15">K12</f>
         <v>999</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133">
         <f t="shared" ref="A133:A143" si="16">L1</f>
         <v>999</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134">
         <f t="shared" si="16"/>
         <v>999</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135">
         <f t="shared" si="16"/>
         <v>999</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136">
         <f t="shared" si="16"/>
         <v>999</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137">
         <f t="shared" si="16"/>
         <v>999</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138">
         <f t="shared" si="16"/>
         <v>999</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139">
         <f t="shared" si="16"/>
         <v>999</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140">
         <f t="shared" si="16"/>
         <v>999</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141">
         <f t="shared" si="16"/>
         <v>999</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142">
         <f t="shared" si="16"/>
         <v>999</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143">
         <f t="shared" si="16"/>
         <v>999</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144">
         <f t="shared" ref="A144" si="17">L12</f>
         <v>999</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145">
         <f t="shared" ref="A145:A155" si="18">M1</f>
         <v>999</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146">
         <f t="shared" si="18"/>
         <v>117</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147">
         <f t="shared" si="18"/>
         <v>117</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148">
         <f t="shared" si="18"/>
         <v>999</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149">
         <f t="shared" si="18"/>
         <v>118</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150">
         <f t="shared" si="18"/>
         <v>118</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151">
         <f t="shared" si="18"/>
         <v>119</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152">
         <f t="shared" si="18"/>
         <v>119</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153">
         <f t="shared" si="18"/>
         <v>999</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154">
         <f t="shared" si="18"/>
         <v>121</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155">
         <f t="shared" si="18"/>
         <v>121</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156">
         <f t="shared" ref="A156" si="19">M12</f>
         <v>999</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157">
         <f t="shared" ref="A157:A167" si="20">N1</f>
         <v>999</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158">
         <f t="shared" si="20"/>
         <v>117</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159">
         <f t="shared" si="20"/>
         <v>117</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160">
         <f t="shared" si="20"/>
         <v>999</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161">
         <f t="shared" si="20"/>
         <v>118</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162">
         <f t="shared" si="20"/>
         <v>118</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163">
         <f t="shared" si="20"/>
         <v>119</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164">
         <f t="shared" si="20"/>
         <v>119</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165">
         <f t="shared" si="20"/>
         <v>999</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166">
         <f t="shared" si="20"/>
         <v>121</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167">
         <f t="shared" si="20"/>
         <v>121</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168">
         <f t="shared" ref="A168" si="21">N12</f>
         <v>999</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169">
         <f t="shared" ref="A169:A179" si="22">O1</f>
         <v>999</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170">
         <f t="shared" si="22"/>
         <v>117</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171">
         <f t="shared" si="22"/>
         <v>117</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172">
         <f t="shared" si="22"/>
         <v>999</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173">
         <f t="shared" si="22"/>
         <v>118</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174">
         <f t="shared" si="22"/>
         <v>118</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175">
         <f t="shared" si="22"/>
         <v>120</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176">
         <f t="shared" si="22"/>
         <v>120</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177">
         <f t="shared" si="22"/>
         <v>999</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178">
         <f t="shared" si="22"/>
         <v>122</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179">
         <f t="shared" si="22"/>
         <v>123</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180">
         <f t="shared" ref="A180" si="23">O12</f>
         <v>999</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181">
         <f t="shared" ref="A181:A191" si="24">P1</f>
         <v>999</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182">
         <f t="shared" si="24"/>
         <v>117</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183">
         <f t="shared" si="24"/>
         <v>117</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184">
         <f t="shared" si="24"/>
         <v>999</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185">
         <f t="shared" si="24"/>
         <v>118</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186">
         <f t="shared" si="24"/>
         <v>118</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187">
         <f t="shared" si="24"/>
         <v>120</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188">
         <f t="shared" si="24"/>
         <v>120</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189">
         <f t="shared" si="24"/>
         <v>999</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190">
         <f t="shared" si="24"/>
         <v>999</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191">
         <f t="shared" si="24"/>
         <v>124</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192">
         <f t="shared" ref="A192" si="25">P12</f>
         <v>999</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193">
         <f t="shared" ref="A193:A204" si="26">Q1</f>
         <v>999</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194">
         <f t="shared" si="26"/>
         <v>999</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195">
         <f t="shared" si="26"/>
         <v>999</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196">
         <f t="shared" si="26"/>
         <v>999</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197">
         <f t="shared" si="26"/>
         <v>999</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198">
         <f t="shared" si="26"/>
         <v>999</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199">
         <f t="shared" si="26"/>
         <v>999</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200">
         <f t="shared" si="26"/>
         <v>999</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201">
         <f t="shared" si="26"/>
         <v>999</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202">
         <f t="shared" si="26"/>
         <v>999</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203">
         <f t="shared" si="26"/>
         <v>125</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204">
         <f t="shared" si="26"/>
         <v>999</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205">
         <f t="shared" ref="A205:A216" si="27">R1</f>
         <v>999</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206">
         <f t="shared" si="27"/>
         <v>133</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207">
         <f t="shared" si="27"/>
         <v>133</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208">
         <f t="shared" si="27"/>
         <v>133</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209">
         <f t="shared" si="27"/>
         <v>133</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210">
         <f t="shared" si="27"/>
         <v>999</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211">
         <f t="shared" si="27"/>
         <v>999</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212">
         <f t="shared" si="27"/>
         <v>999</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213">
         <f t="shared" si="27"/>
         <v>999</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214">
         <f t="shared" si="27"/>
         <v>999</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215">
         <f t="shared" si="27"/>
         <v>126</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A216">
         <f t="shared" si="27"/>
         <v>999</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217">
         <f t="shared" ref="A217:A228" si="28">S1</f>
         <v>999</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A218">
         <f t="shared" si="28"/>
         <v>133</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A219">
         <f t="shared" si="28"/>
         <v>133</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A220">
         <f t="shared" si="28"/>
         <v>133</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A221">
         <f t="shared" si="28"/>
         <v>133</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A222">
         <f t="shared" si="28"/>
         <v>132</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A223">
         <f t="shared" si="28"/>
         <v>131</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A224">
         <f t="shared" si="28"/>
         <v>130</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225">
         <f t="shared" si="28"/>
         <v>129</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226">
         <f t="shared" si="28"/>
         <v>128</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227">
         <f t="shared" si="28"/>
         <v>127</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A228">
         <f t="shared" si="28"/>
         <v>999</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A229">
         <f t="shared" ref="A229:A240" si="29">T1</f>
         <v>999</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A230">
         <f t="shared" si="29"/>
         <v>999</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A231">
         <f t="shared" si="29"/>
         <v>999</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A232">
         <f t="shared" si="29"/>
         <v>999</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A233">
         <f t="shared" si="29"/>
         <v>999</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A234">
         <f t="shared" si="29"/>
         <v>999</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A235">
         <f t="shared" si="29"/>
         <v>999</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A236">
         <f t="shared" si="29"/>
         <v>999</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A237">
         <f t="shared" si="29"/>
         <v>999</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A238">
         <f t="shared" si="29"/>
         <v>999</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A239">
         <f t="shared" si="29"/>
         <v>999</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A240">
         <f t="shared" si="29"/>
         <v>999</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A241">
         <f>U1</f>
         <v>999</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A242">
         <f>U2</f>
         <v>999</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A243">
         <f>U3</f>
         <v>999</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A244">
         <f>U4</f>
         <v>999</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A245">
         <f>U5</f>
         <v>999</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A246">
         <f t="shared" ref="A246:A251" si="30">U6</f>
         <v>999</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A247">
         <f t="shared" si="30"/>
         <v>999</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A248">
         <f t="shared" si="30"/>
         <v>999</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A249">
         <f t="shared" si="30"/>
         <v>999</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A250">
         <f t="shared" si="30"/>
         <v>999</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A251">
         <f t="shared" si="30"/>
         <v>999</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A252">
         <f>U12</f>
         <v>999</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A253">
         <f>V1</f>
         <v>999</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A254">
         <f>V2</f>
         <v>999</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A255">
         <f>V3</f>
         <v>999</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A256">
         <f>V4</f>
         <v>999</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A257">
         <f>V5</f>
         <v>999</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A258">
         <f t="shared" ref="A258:A264" si="31">V6</f>
         <v>999</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A259">
         <f t="shared" si="31"/>
         <v>999</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A260">
         <f t="shared" si="31"/>
         <v>999</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A261">
         <f t="shared" si="31"/>
         <v>999</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A262">
         <f t="shared" si="31"/>
         <v>999</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A263">
         <f t="shared" si="31"/>
         <v>999</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A264">
         <f t="shared" si="31"/>
         <v>999</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G2:G3 O7:R8 P10:R10 G10:G11 G5:G8 L5:R6 L7:L8 L10:N10 L11:M11 B12 V6 F12:P12 L2:S3 T1:V5 B1:D5 E9:R9 E4:S4 V12 T7:V11 E1:S1">
-    <cfRule type="cellIs" dxfId="13" priority="16" operator="equal">
+  <conditionalFormatting sqref="G2:G3 O7:R8 P10:R10 G10:G11 G5:G8 L5:R6 L7:L8 L10:N10 L11:M11 V6 F12:P12 L2:S3 T1:V5 B1:D5 E9:R9 E4:S4 V12 T7:V11 E1:S1">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:A264">
-    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
-      <formula>999</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
-      <formula>999</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12:E12">
-    <cfRule type="cellIs" dxfId="10" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:U6 T12:U12">
-    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A12">
-    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
+  <conditionalFormatting sqref="A7">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:D6">
-    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11 B7:D10">
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:C11">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q12:S17">
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A5">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7:A10">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+  <conditionalFormatting sqref="A8:A10 A12">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12:E12">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3909,7 +3938,7 @@
       <selection activeCell="O17" sqref="N17:O18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="5" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
@@ -5471,7 +5500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>0</v>
       </c>
@@ -5575,7 +5604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>0</v>
       </c>
@@ -5679,7 +5708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>0</v>
       </c>
@@ -5783,7 +5812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>0</v>
       </c>
@@ -5901,7 +5930,7 @@
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="5" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
@@ -6647,7 +6676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>1</v>
       </c>
@@ -6709,7 +6738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>1</v>
       </c>
@@ -6771,7 +6800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>1</v>
       </c>
@@ -6833,7 +6862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>1</v>
       </c>
@@ -6895,7 +6924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>1</v>
       </c>
@@ -6957,7 +6986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>1</v>
       </c>
@@ -7019,7 +7048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>0</v>
       </c>
@@ -7095,7 +7124,7 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -7157,1453 +7186,1453 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25">
         <f t="shared" ref="A25:A36" si="1">C1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37">
         <f t="shared" ref="A37:A48" si="2">D1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49">
         <f t="shared" ref="A49:A60" si="3">E1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61">
         <f t="shared" ref="A61:A71" si="4">F1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72">
         <f t="shared" ref="A72" si="5">F12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73">
         <f t="shared" ref="A73:A83" si="6">G1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84">
         <f t="shared" ref="A84" si="7">G12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85">
         <f t="shared" ref="A85:A95" si="8">H1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96">
         <f t="shared" ref="A96" si="9">H12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97">
         <f t="shared" ref="A97:A107" si="10">I1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108">
         <f t="shared" ref="A108" si="11">I12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109">
         <f t="shared" ref="A109:A119" si="12">J1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120">
         <f t="shared" ref="A120" si="13">J12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121">
         <f t="shared" ref="A121:A131" si="14">K1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132">
         <f t="shared" ref="A132" si="15">K12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133">
         <f t="shared" ref="A133:A143" si="16">L1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144">
         <f t="shared" ref="A144" si="17">L12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145">
         <f t="shared" ref="A145:A155" si="18">M1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156">
         <f t="shared" ref="A156" si="19">M12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157">
         <f t="shared" ref="A157:A167" si="20">N1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168">
         <f t="shared" ref="A168" si="21">N12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169">
         <f t="shared" ref="A169:A179" si="22">O1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180">
         <f t="shared" ref="A180" si="23">O12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181">
         <f t="shared" ref="A181:A191" si="24">P1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192">
         <f t="shared" ref="A192" si="25">P12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193">
         <f t="shared" ref="A193:A204" si="26">Q1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205">
         <f t="shared" ref="A205:A216" si="27">R1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A216">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217">
         <f t="shared" ref="A217:A228" si="28">S1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A218">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A219">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A220">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A221">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A222">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A223">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A224">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A228">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A229">
         <f t="shared" ref="A229:A240" si="29">T1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A230">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A231">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A232">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A233">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A234">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A235">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A236">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A237">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A238">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A239">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A240">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A241">
         <f>U1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A242">
         <f>U2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A243">
         <f>U3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A244">
         <f>U4</f>
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A245">
         <f>U5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A246">
         <f t="shared" ref="A246:A251" si="30">U6</f>
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A247">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A248">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A249">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A250">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A251">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A252">
         <f>U12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A253">
         <f>V1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A254">
         <f>V2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A255">
         <f>V3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A256">
         <f>V4</f>
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A257">
         <f>V5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A258">
         <f t="shared" ref="A258:A264" si="31">V6</f>
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A259">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A260">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A261">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A262">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A263">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A264">
         <f t="shared" si="31"/>
         <v>0</v>

--- a/Mall.xlsx
+++ b/Mall.xlsx
@@ -146,7 +146,17 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="24">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1484,32 +1494,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:V1 A4:V4 A2:A3 D2:D3 I2:V3 L7:O8 A9:O9 A5:A8 A10:A11 M10:O10 D10:D11 D5:D8 I5:O6 I7:I8 I10:K10 I11:J11 Q5:V10 Q11 A12:P12 R12">
-    <cfRule type="cellIs" dxfId="22" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="6" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A12">
-    <cfRule type="cellIs" dxfId="21" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="5" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S12 V11:V12">
-    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="4" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T12:U12">
-    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="3" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R11:U11">
-    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q12">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1523,7 +1533,7 @@
   <dimension ref="A1:V264"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1614,31 +1624,31 @@
         <v>801</v>
       </c>
       <c r="E2">
-        <v>101</v>
+        <v>999</v>
       </c>
       <c r="F2">
         <v>101</v>
       </c>
       <c r="G2">
-        <v>999</v>
+        <v>101</v>
       </c>
       <c r="H2">
-        <v>107</v>
+        <v>999</v>
       </c>
       <c r="I2">
         <v>107</v>
       </c>
       <c r="J2">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="K2">
         <v>113</v>
       </c>
       <c r="L2">
-        <v>999</v>
+        <v>113</v>
       </c>
       <c r="M2">
-        <v>117</v>
+        <v>999</v>
       </c>
       <c r="N2">
         <v>117</v>
@@ -1650,16 +1660,16 @@
         <v>117</v>
       </c>
       <c r="Q2">
-        <v>999</v>
+        <v>117</v>
       </c>
       <c r="R2">
-        <v>133</v>
+        <v>999</v>
       </c>
       <c r="S2">
         <v>133</v>
       </c>
       <c r="T2">
-        <v>999</v>
+        <v>133</v>
       </c>
       <c r="U2">
         <v>999</v>
@@ -1682,31 +1692,31 @@
         <v>802</v>
       </c>
       <c r="E3">
-        <v>101</v>
+        <v>999</v>
       </c>
       <c r="F3">
         <v>101</v>
       </c>
       <c r="G3">
-        <v>999</v>
+        <v>101</v>
       </c>
       <c r="H3">
-        <v>107</v>
+        <v>999</v>
       </c>
       <c r="I3">
         <v>107</v>
       </c>
       <c r="J3">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="K3">
         <v>113</v>
       </c>
       <c r="L3">
-        <v>999</v>
+        <v>113</v>
       </c>
       <c r="M3">
-        <v>117</v>
+        <v>999</v>
       </c>
       <c r="N3">
         <v>117</v>
@@ -1718,16 +1728,16 @@
         <v>117</v>
       </c>
       <c r="Q3">
-        <v>999</v>
+        <v>117</v>
       </c>
       <c r="R3">
-        <v>133</v>
+        <v>999</v>
       </c>
       <c r="S3">
         <v>133</v>
       </c>
       <c r="T3">
-        <v>999</v>
+        <v>133</v>
       </c>
       <c r="U3">
         <v>999</v>
@@ -1789,13 +1799,13 @@
         <v>999</v>
       </c>
       <c r="R4">
-        <v>133</v>
+        <v>999</v>
       </c>
       <c r="S4">
         <v>133</v>
       </c>
       <c r="T4">
-        <v>999</v>
+        <v>133</v>
       </c>
       <c r="U4">
         <v>999</v>
@@ -1818,31 +1828,31 @@
         <v>804</v>
       </c>
       <c r="E5">
-        <v>102</v>
+        <v>999</v>
       </c>
       <c r="F5">
         <v>102</v>
       </c>
       <c r="G5">
-        <v>999</v>
+        <v>102</v>
       </c>
       <c r="H5">
-        <v>108</v>
+        <v>999</v>
       </c>
       <c r="I5">
         <v>108</v>
       </c>
       <c r="J5">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="K5">
         <v>114</v>
       </c>
       <c r="L5">
-        <v>999</v>
+        <v>114</v>
       </c>
       <c r="M5">
-        <v>118</v>
+        <v>999</v>
       </c>
       <c r="N5">
         <v>118</v>
@@ -1854,16 +1864,16 @@
         <v>118</v>
       </c>
       <c r="Q5">
-        <v>999</v>
+        <v>118</v>
       </c>
       <c r="R5">
-        <v>133</v>
+        <v>999</v>
       </c>
       <c r="S5">
         <v>133</v>
       </c>
       <c r="T5">
-        <v>999</v>
+        <v>133</v>
       </c>
       <c r="U5">
         <v>999</v>
@@ -1886,31 +1896,31 @@
         <v>999</v>
       </c>
       <c r="E6">
-        <v>102</v>
+        <v>999</v>
       </c>
       <c r="F6">
         <v>102</v>
       </c>
       <c r="G6">
-        <v>999</v>
+        <v>102</v>
       </c>
       <c r="H6">
-        <v>108</v>
+        <v>999</v>
       </c>
       <c r="I6">
         <v>108</v>
       </c>
       <c r="J6">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="K6">
         <v>114</v>
       </c>
       <c r="L6">
-        <v>999</v>
+        <v>114</v>
       </c>
       <c r="M6">
-        <v>118</v>
+        <v>999</v>
       </c>
       <c r="N6">
         <v>118</v>
@@ -1922,16 +1932,16 @@
         <v>118</v>
       </c>
       <c r="Q6">
-        <v>999</v>
+        <v>118</v>
       </c>
       <c r="R6">
         <v>999</v>
       </c>
       <c r="S6">
+        <v>999</v>
+      </c>
+      <c r="T6">
         <v>132</v>
-      </c>
-      <c r="T6">
-        <v>999</v>
       </c>
       <c r="U6">
         <v>999</v>
@@ -1954,52 +1964,52 @@
         <v>999</v>
       </c>
       <c r="E7">
+        <v>999</v>
+      </c>
+      <c r="F7">
         <v>103</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>104</v>
       </c>
-      <c r="G7">
-        <v>999</v>
-      </c>
       <c r="H7">
+        <v>999</v>
+      </c>
+      <c r="I7">
         <v>109</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>110</v>
-      </c>
-      <c r="J7">
-        <v>115</v>
       </c>
       <c r="K7">
         <v>115</v>
       </c>
       <c r="L7">
-        <v>999</v>
+        <v>115</v>
       </c>
       <c r="M7">
-        <v>119</v>
+        <v>999</v>
       </c>
       <c r="N7">
         <v>119</v>
       </c>
       <c r="O7">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P7">
         <v>120</v>
       </c>
       <c r="Q7">
-        <v>999</v>
+        <v>120</v>
       </c>
       <c r="R7">
         <v>999</v>
       </c>
       <c r="S7">
+        <v>999</v>
+      </c>
+      <c r="T7">
         <v>131</v>
-      </c>
-      <c r="T7">
-        <v>999</v>
       </c>
       <c r="U7">
         <v>999</v>
@@ -2022,52 +2032,52 @@
         <v>999</v>
       </c>
       <c r="E8">
+        <v>999</v>
+      </c>
+      <c r="F8">
         <v>103</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>104</v>
       </c>
-      <c r="G8">
-        <v>999</v>
-      </c>
       <c r="H8">
+        <v>999</v>
+      </c>
+      <c r="I8">
         <v>109</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>110</v>
-      </c>
-      <c r="J8">
-        <v>115</v>
       </c>
       <c r="K8">
         <v>115</v>
       </c>
       <c r="L8">
-        <v>999</v>
+        <v>115</v>
       </c>
       <c r="M8">
-        <v>119</v>
+        <v>999</v>
       </c>
       <c r="N8">
         <v>119</v>
       </c>
       <c r="O8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P8">
         <v>120</v>
       </c>
       <c r="Q8">
-        <v>999</v>
+        <v>120</v>
       </c>
       <c r="R8">
         <v>999</v>
       </c>
       <c r="S8">
+        <v>999</v>
+      </c>
+      <c r="T8">
         <v>130</v>
-      </c>
-      <c r="T8">
-        <v>999</v>
       </c>
       <c r="U8">
         <v>999</v>
@@ -2132,10 +2142,10 @@
         <v>999</v>
       </c>
       <c r="S9">
+        <v>999</v>
+      </c>
+      <c r="T9">
         <v>129</v>
-      </c>
-      <c r="T9">
-        <v>999</v>
       </c>
       <c r="U9">
         <v>999</v>
@@ -2158,41 +2168,41 @@
         <v>999</v>
       </c>
       <c r="E10">
+        <v>999</v>
+      </c>
+      <c r="F10">
         <v>105</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>106</v>
       </c>
-      <c r="G10">
-        <v>999</v>
-      </c>
       <c r="H10">
+        <v>999</v>
+      </c>
+      <c r="I10">
         <v>111</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>112</v>
-      </c>
-      <c r="J10">
-        <v>116</v>
       </c>
       <c r="K10">
         <v>116</v>
       </c>
       <c r="L10">
-        <v>999</v>
+        <v>116</v>
       </c>
       <c r="M10">
-        <v>121</v>
+        <v>999</v>
       </c>
       <c r="N10">
         <v>121</v>
       </c>
       <c r="O10">
+        <v>121</v>
+      </c>
+      <c r="P10">
         <v>122</v>
       </c>
-      <c r="P10">
-        <v>999</v>
-      </c>
       <c r="Q10">
         <v>999</v>
       </c>
@@ -2200,10 +2210,10 @@
         <v>999</v>
       </c>
       <c r="S10">
+        <v>999</v>
+      </c>
+      <c r="T10">
         <v>128</v>
-      </c>
-      <c r="T10">
-        <v>999</v>
       </c>
       <c r="U10">
         <v>999</v>
@@ -2226,52 +2236,52 @@
         <v>999</v>
       </c>
       <c r="E11">
+        <v>999</v>
+      </c>
+      <c r="F11">
         <v>105</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>106</v>
       </c>
-      <c r="G11">
-        <v>999</v>
-      </c>
       <c r="H11">
+        <v>999</v>
+      </c>
+      <c r="I11">
         <v>111</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>112</v>
-      </c>
-      <c r="J11">
-        <v>116</v>
       </c>
       <c r="K11">
         <v>116</v>
       </c>
       <c r="L11">
-        <v>999</v>
+        <v>116</v>
       </c>
       <c r="M11">
-        <v>121</v>
+        <v>999</v>
       </c>
       <c r="N11">
         <v>121</v>
       </c>
       <c r="O11">
+        <v>121</v>
+      </c>
+      <c r="P11">
         <v>123</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>124</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>125</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>126</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>127</v>
-      </c>
-      <c r="T11">
-        <v>999</v>
       </c>
       <c r="U11">
         <v>999</v>
@@ -2573,13 +2583,13 @@
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50">
         <f t="shared" si="3"/>
-        <v>101</v>
+        <v>999</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51">
         <f t="shared" si="3"/>
-        <v>101</v>
+        <v>999</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
@@ -2591,25 +2601,25 @@
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53">
         <f t="shared" si="3"/>
-        <v>102</v>
+        <v>999</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54">
         <f t="shared" si="3"/>
-        <v>102</v>
+        <v>999</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55">
         <f t="shared" si="3"/>
-        <v>103</v>
+        <v>999</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56">
         <f t="shared" si="3"/>
-        <v>103</v>
+        <v>999</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
@@ -2621,13 +2631,13 @@
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58">
         <f t="shared" si="3"/>
-        <v>105</v>
+        <v>999</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59">
         <f t="shared" si="3"/>
-        <v>105</v>
+        <v>999</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
@@ -2675,13 +2685,13 @@
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67">
         <f t="shared" si="4"/>
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68">
         <f t="shared" si="4"/>
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
@@ -2693,13 +2703,13 @@
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70">
         <f t="shared" si="4"/>
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71">
         <f t="shared" si="4"/>
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
@@ -2717,13 +2727,13 @@
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74">
         <f t="shared" si="6"/>
-        <v>999</v>
+        <v>101</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75">
         <f t="shared" si="6"/>
-        <v>999</v>
+        <v>101</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
@@ -2735,25 +2745,25 @@
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77">
         <f t="shared" si="6"/>
-        <v>999</v>
+        <v>102</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78">
         <f t="shared" si="6"/>
-        <v>999</v>
+        <v>102</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79">
         <f t="shared" si="6"/>
-        <v>999</v>
+        <v>104</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80">
         <f t="shared" si="6"/>
-        <v>999</v>
+        <v>104</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
@@ -2765,13 +2775,13 @@
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82">
         <f t="shared" si="6"/>
-        <v>999</v>
+        <v>106</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83">
         <f t="shared" si="6"/>
-        <v>999</v>
+        <v>106</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
@@ -2789,13 +2799,13 @@
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86">
         <f t="shared" si="8"/>
-        <v>107</v>
+        <v>999</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87">
         <f t="shared" si="8"/>
-        <v>107</v>
+        <v>999</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
@@ -2807,25 +2817,25 @@
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89">
         <f t="shared" si="8"/>
-        <v>108</v>
+        <v>999</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90">
         <f t="shared" si="8"/>
-        <v>108</v>
+        <v>999</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91">
         <f t="shared" si="8"/>
-        <v>109</v>
+        <v>999</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92">
         <f t="shared" si="8"/>
-        <v>109</v>
+        <v>999</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
@@ -2837,13 +2847,13 @@
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94">
         <f t="shared" si="8"/>
-        <v>111</v>
+        <v>999</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95">
         <f t="shared" si="8"/>
-        <v>111</v>
+        <v>999</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
@@ -2891,13 +2901,13 @@
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103">
         <f t="shared" si="10"/>
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104">
         <f t="shared" si="10"/>
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
@@ -2909,13 +2919,13 @@
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106">
         <f t="shared" si="10"/>
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107">
         <f t="shared" si="10"/>
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
@@ -2933,13 +2943,13 @@
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110">
         <f t="shared" si="12"/>
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111">
         <f t="shared" si="12"/>
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
@@ -2951,25 +2961,25 @@
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113">
         <f t="shared" si="12"/>
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114">
         <f t="shared" si="12"/>
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115">
         <f t="shared" si="12"/>
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116">
         <f t="shared" si="12"/>
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
@@ -2981,13 +2991,13 @@
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118">
         <f t="shared" si="12"/>
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119">
         <f t="shared" si="12"/>
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
@@ -3077,13 +3087,13 @@
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134">
         <f t="shared" si="16"/>
-        <v>999</v>
+        <v>113</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135">
         <f t="shared" si="16"/>
-        <v>999</v>
+        <v>113</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
@@ -3095,25 +3105,25 @@
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137">
         <f t="shared" si="16"/>
-        <v>999</v>
+        <v>114</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138">
         <f t="shared" si="16"/>
-        <v>999</v>
+        <v>114</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139">
         <f t="shared" si="16"/>
-        <v>999</v>
+        <v>115</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140">
         <f t="shared" si="16"/>
-        <v>999</v>
+        <v>115</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
@@ -3125,13 +3135,13 @@
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142">
         <f t="shared" si="16"/>
-        <v>999</v>
+        <v>116</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143">
         <f t="shared" si="16"/>
-        <v>999</v>
+        <v>116</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
@@ -3149,13 +3159,13 @@
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146">
         <f t="shared" si="18"/>
-        <v>117</v>
+        <v>999</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147">
         <f t="shared" si="18"/>
-        <v>117</v>
+        <v>999</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
@@ -3167,25 +3177,25 @@
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149">
         <f t="shared" si="18"/>
-        <v>118</v>
+        <v>999</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150">
         <f t="shared" si="18"/>
-        <v>118</v>
+        <v>999</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151">
         <f t="shared" si="18"/>
-        <v>119</v>
+        <v>999</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152">
         <f t="shared" si="18"/>
-        <v>119</v>
+        <v>999</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
@@ -3197,13 +3207,13 @@
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154">
         <f t="shared" si="18"/>
-        <v>121</v>
+        <v>999</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155">
         <f t="shared" si="18"/>
-        <v>121</v>
+        <v>999</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
@@ -3323,13 +3333,13 @@
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175">
         <f t="shared" si="22"/>
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176">
         <f t="shared" si="22"/>
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.2">
@@ -3341,13 +3351,13 @@
     <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178">
         <f t="shared" si="22"/>
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179">
         <f t="shared" si="22"/>
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.2">
@@ -3413,13 +3423,13 @@
     <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190">
         <f t="shared" si="24"/>
-        <v>999</v>
+        <v>122</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191">
         <f t="shared" si="24"/>
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
@@ -3437,13 +3447,13 @@
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194">
         <f t="shared" si="26"/>
-        <v>999</v>
+        <v>117</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195">
         <f t="shared" si="26"/>
-        <v>999</v>
+        <v>117</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.2">
@@ -3455,25 +3465,25 @@
     <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197">
         <f t="shared" si="26"/>
-        <v>999</v>
+        <v>118</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198">
         <f t="shared" si="26"/>
-        <v>999</v>
+        <v>118</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199">
         <f t="shared" si="26"/>
-        <v>999</v>
+        <v>120</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200">
         <f t="shared" si="26"/>
-        <v>999</v>
+        <v>120</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.2">
@@ -3491,7 +3501,7 @@
     <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203">
         <f t="shared" si="26"/>
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.2">
@@ -3509,25 +3519,25 @@
     <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206">
         <f t="shared" si="27"/>
-        <v>133</v>
+        <v>999</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207">
         <f t="shared" si="27"/>
-        <v>133</v>
+        <v>999</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208">
         <f t="shared" si="27"/>
-        <v>133</v>
+        <v>999</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209">
         <f t="shared" si="27"/>
-        <v>133</v>
+        <v>999</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.2">
@@ -3563,7 +3573,7 @@
     <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215">
         <f t="shared" si="27"/>
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.2">
@@ -3605,37 +3615,37 @@
     <row r="222" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A222">
         <f t="shared" si="28"/>
-        <v>132</v>
+        <v>999</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A223">
         <f t="shared" si="28"/>
-        <v>131</v>
+        <v>999</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A224">
         <f t="shared" si="28"/>
-        <v>130</v>
+        <v>999</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225">
         <f t="shared" si="28"/>
-        <v>129</v>
+        <v>999</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226">
         <f t="shared" si="28"/>
-        <v>128</v>
+        <v>999</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227">
         <f t="shared" si="28"/>
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.2">
@@ -3653,61 +3663,61 @@
     <row r="230" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A230">
         <f t="shared" si="29"/>
-        <v>999</v>
+        <v>133</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A231">
         <f t="shared" si="29"/>
-        <v>999</v>
+        <v>133</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A232">
         <f t="shared" si="29"/>
-        <v>999</v>
+        <v>133</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A233">
         <f t="shared" si="29"/>
-        <v>999</v>
+        <v>133</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A234">
         <f t="shared" si="29"/>
-        <v>999</v>
+        <v>132</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A235">
         <f t="shared" si="29"/>
-        <v>999</v>
+        <v>131</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A236">
         <f t="shared" si="29"/>
-        <v>999</v>
+        <v>130</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A237">
         <f t="shared" si="29"/>
-        <v>999</v>
+        <v>129</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A238">
         <f t="shared" si="29"/>
-        <v>999</v>
+        <v>128</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A239">
         <f t="shared" si="29"/>
-        <v>999</v>
+        <v>127</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.2">
@@ -3861,67 +3871,77 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G2:G3 O7:R8 P10:R10 G10:G11 G5:G8 L5:R6 L7:L8 L10:N10 L11:M11 V6 F12:P12 L2:S3 T1:V5 B1:D5 E9:R9 E4:S4 V12 T7:V11 E1:S1">
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+  <conditionalFormatting sqref="V6 F12:P12 T1:V5 B1:D5 V12 T7:V11 F1:S1 G2:H3 O7:S8 G10:H11 G5:H8 L5:S6 L7:M8 M10:S10 L10:N11 L2:T3 F9:S9 F4:T4">
+    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:A264">
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:U6 T12:U12">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:D6">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11 B7:D10">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="11" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:C11">
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q12:S17">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A5">
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:A10 A12">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12:D12">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E5 E7:E11">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B12:E12">
+  <conditionalFormatting sqref="E6 E12">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>999</formula>
     </cfRule>

--- a/Mall.xlsx
+++ b/Mall.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="21580" windowHeight="9500" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="7880" yWindow="460" windowWidth="21580" windowHeight="9500" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="NEW MALL" sheetId="3" r:id="rId1"/>
@@ -146,7 +146,157 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="39">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1494,32 +1644,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:V1 A4:V4 A2:A3 D2:D3 I2:V3 L7:O8 A9:O9 A5:A8 A10:A11 M10:O10 D10:D11 D5:D8 I5:O6 I7:I8 I10:K10 I11:J11 Q5:V10 Q11 A12:P12 R12">
-    <cfRule type="cellIs" dxfId="23" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="6" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A12">
-    <cfRule type="cellIs" dxfId="22" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="5" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S12 V11:V12">
-    <cfRule type="cellIs" dxfId="21" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="4" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T12:U12">
-    <cfRule type="cellIs" dxfId="20" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="3" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R11:U11">
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="2" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q12">
-    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="1" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1533,13 +1683,13 @@
   <dimension ref="A1:V264"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="22" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="5" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="22" width="3.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
@@ -1680,19 +1830,19 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>802</v>
+        <v>999</v>
       </c>
       <c r="B3">
-        <v>802</v>
+        <v>999</v>
       </c>
       <c r="C3">
-        <v>802</v>
+        <v>999</v>
       </c>
       <c r="D3">
-        <v>802</v>
+        <v>999</v>
       </c>
       <c r="E3">
-        <v>999</v>
+        <v>811</v>
       </c>
       <c r="F3">
         <v>101</v>
@@ -1748,16 +1898,16 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>803</v>
+        <v>999</v>
       </c>
       <c r="B4">
-        <v>803</v>
+        <v>999</v>
       </c>
       <c r="C4">
-        <v>803</v>
+        <v>999</v>
       </c>
       <c r="D4">
-        <v>803</v>
+        <v>999</v>
       </c>
       <c r="E4">
         <v>999</v>
@@ -1816,19 +1966,19 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>804</v>
+        <v>812</v>
       </c>
       <c r="B5">
-        <v>804</v>
+        <v>812</v>
       </c>
       <c r="C5">
-        <v>804</v>
+        <v>812</v>
       </c>
       <c r="D5">
-        <v>804</v>
+        <v>812</v>
       </c>
       <c r="E5">
-        <v>999</v>
+        <v>812</v>
       </c>
       <c r="F5">
         <v>102</v>
@@ -1884,19 +2034,19 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>999</v>
+        <v>813</v>
       </c>
       <c r="B6">
-        <v>999</v>
+        <v>813</v>
       </c>
       <c r="C6">
-        <v>999</v>
+        <v>813</v>
       </c>
       <c r="D6">
-        <v>999</v>
+        <v>813</v>
       </c>
       <c r="E6">
-        <v>999</v>
+        <v>813</v>
       </c>
       <c r="F6">
         <v>102</v>
@@ -2373,25 +2523,25 @@
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
-        <v>802</v>
+        <v>999</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
-        <v>803</v>
+        <v>999</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
-        <v>804</v>
+        <v>812</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
-        <v>999</v>
+        <v>813</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
@@ -2445,25 +2595,25 @@
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27">
         <f t="shared" si="1"/>
-        <v>802</v>
+        <v>999</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28">
         <f t="shared" si="1"/>
-        <v>803</v>
+        <v>999</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29">
         <f t="shared" si="1"/>
-        <v>804</v>
+        <v>812</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30">
         <f t="shared" si="1"/>
-        <v>999</v>
+        <v>813</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
@@ -2517,25 +2667,25 @@
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39">
         <f t="shared" si="2"/>
-        <v>802</v>
+        <v>999</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40">
         <f t="shared" si="2"/>
-        <v>803</v>
+        <v>999</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41">
         <f t="shared" si="2"/>
-        <v>804</v>
+        <v>812</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42">
         <f t="shared" si="2"/>
-        <v>999</v>
+        <v>813</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
@@ -2589,7 +2739,7 @@
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51">
         <f t="shared" si="3"/>
-        <v>999</v>
+        <v>811</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
@@ -2601,13 +2751,13 @@
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53">
         <f t="shared" si="3"/>
-        <v>999</v>
+        <v>812</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54">
         <f t="shared" si="3"/>
-        <v>999</v>
+        <v>813</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
@@ -3871,77 +4021,122 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="V6 F12:P12 T1:V5 B1:D5 V12 T7:V11 F1:S1 G2:H3 O7:S8 G10:H11 G5:H8 L5:S6 L7:M8 M10:S10 L10:N11 L2:T3 F9:S9 F4:T4">
-    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
+  <conditionalFormatting sqref="V6 F12:P12 T1:V5 B1:D2 V12 T7:V11 F1:S1 G2:H3 O7:S8 G10:H11 G5:H8 L5:S6 L7:M8 M10:S10 L10:N11 L2:T3 F9:S9 F4:T4">
+    <cfRule type="cellIs" dxfId="32" priority="28" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:A264">
-    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="27" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:U6 T12:U12">
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="24" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="23" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:D6">
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="22" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11 B7:D10">
-    <cfRule type="cellIs" dxfId="12" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="20" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:C11">
-    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="19" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q12:S17">
-    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="18" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A5">
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
+  <conditionalFormatting sqref="A1:A2">
+    <cfRule type="cellIs" dxfId="24" priority="16" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="15" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:A10 A12">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="14" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="13" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:D12">
+    <cfRule type="cellIs" dxfId="20" priority="12" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E2 E7:E11">
+    <cfRule type="cellIs" dxfId="19" priority="11" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6 E12">
+    <cfRule type="cellIs" dxfId="18" priority="10" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:D5">
+    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5">
+    <cfRule type="cellIs" dxfId="15" priority="8" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:D4">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:D3">
     <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E5 E7:E11">
+  <conditionalFormatting sqref="A3">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6 E12">
+  <conditionalFormatting sqref="E3">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>999</formula>
     </cfRule>

--- a/Mall.xlsx
+++ b/Mall.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27106"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kevin/Desktop/MallSim/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevh9\Desktop\MallSim\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7880" yWindow="460" windowWidth="21580" windowHeight="9500" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="7875" yWindow="465" windowWidth="21585" windowHeight="9495" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="NEW MALL" sheetId="3" r:id="rId1"/>
@@ -18,11 +18,8 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
     <sheet name="Sheet4" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -146,97 +143,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="39">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="30">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -819,11 +726,11 @@
       <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="3.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" customWidth="1"/>
-    <col min="4" max="4" width="3.6640625" customWidth="1"/>
-    <col min="9" max="9" width="3.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3.625" customWidth="1"/>
+    <col min="4" max="4" width="3.625" customWidth="1"/>
+    <col min="9" max="9" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
@@ -1644,32 +1551,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:V1 A4:V4 A2:A3 D2:D3 I2:V3 L7:O8 A9:O9 A5:A8 A10:A11 M10:O10 D10:D11 D5:D8 I5:O6 I7:I8 I10:K10 I11:J11 Q5:V10 Q11 A12:P12 R12">
-    <cfRule type="cellIs" dxfId="38" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="6" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A12">
-    <cfRule type="cellIs" dxfId="37" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="5" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S12 V11:V12">
-    <cfRule type="cellIs" dxfId="36" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="4" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T12:U12">
-    <cfRule type="cellIs" dxfId="35" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="3" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R11:U11">
-    <cfRule type="cellIs" dxfId="34" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="2" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q12">
-    <cfRule type="cellIs" dxfId="33" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1683,16 +1590,16 @@
   <dimension ref="A1:V264"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="22" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="5" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="22" width="3.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>800</v>
       </c>
@@ -1760,7 +1667,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>801</v>
       </c>
@@ -1828,7 +1735,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>999</v>
       </c>
@@ -1896,7 +1803,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>999</v>
       </c>
@@ -1964,7 +1871,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>812</v>
       </c>
@@ -2032,7 +1939,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>813</v>
       </c>
@@ -2100,18 +2007,18 @@
         <v>999</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>805</v>
       </c>
       <c r="B7">
-        <v>999</v>
+        <v>814</v>
       </c>
       <c r="C7">
-        <v>999</v>
+        <v>815</v>
       </c>
       <c r="D7">
-        <v>999</v>
+        <v>816</v>
       </c>
       <c r="E7">
         <v>999</v>
@@ -2168,7 +2075,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>806</v>
       </c>
@@ -2236,7 +2143,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>807</v>
       </c>
@@ -2304,7 +2211,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>808</v>
       </c>
@@ -2372,7 +2279,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>809</v>
       </c>
@@ -2440,7 +2347,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>810</v>
       </c>
@@ -2508,1513 +2415,1513 @@
         <v>999</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" ref="A13:A24" si="0">B1</f>
         <v>800</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>801</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>999</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>999</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>812</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>813</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
-        <v>999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>999</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>999</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>999</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>999</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>999</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" ref="A25:A36" si="1">C1</f>
         <v>800</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="1"/>
         <v>801</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="1"/>
         <v>999</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="1"/>
         <v>999</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="1"/>
         <v>812</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="1"/>
         <v>813</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="1"/>
-        <v>999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="1"/>
         <v>999</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="1"/>
         <v>999</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="1"/>
         <v>999</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="1"/>
         <v>999</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="1"/>
         <v>999</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" ref="A37:A48" si="2">D1</f>
         <v>800</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="2"/>
         <v>801</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="2"/>
         <v>999</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="2"/>
         <v>999</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="2"/>
         <v>812</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="2"/>
         <v>813</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="2"/>
-        <v>999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="2"/>
         <v>999</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="2"/>
         <v>999</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="2"/>
         <v>999</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="2"/>
         <v>999</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="2"/>
         <v>999</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" ref="A49:A60" si="3">E1</f>
         <v>999</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" si="3"/>
         <v>999</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" si="3"/>
         <v>811</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" si="3"/>
         <v>999</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" si="3"/>
         <v>812</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" si="3"/>
         <v>813</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55">
         <f t="shared" si="3"/>
         <v>999</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56">
         <f t="shared" si="3"/>
         <v>999</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57">
         <f t="shared" si="3"/>
         <v>999</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58">
         <f t="shared" si="3"/>
         <v>999</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59">
         <f t="shared" si="3"/>
         <v>999</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60">
         <f t="shared" si="3"/>
         <v>999</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61">
         <f t="shared" ref="A61:A71" si="4">F1</f>
         <v>999</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62">
         <f t="shared" si="4"/>
         <v>101</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63">
         <f t="shared" si="4"/>
         <v>101</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64">
         <f t="shared" si="4"/>
         <v>999</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65">
         <f t="shared" si="4"/>
         <v>102</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66">
         <f t="shared" si="4"/>
         <v>102</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67">
         <f t="shared" si="4"/>
         <v>103</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68">
         <f t="shared" si="4"/>
         <v>103</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69">
         <f t="shared" si="4"/>
         <v>999</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70">
         <f t="shared" si="4"/>
         <v>105</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71">
         <f t="shared" si="4"/>
         <v>105</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72">
         <f t="shared" ref="A72" si="5">F12</f>
         <v>999</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73">
         <f t="shared" ref="A73:A83" si="6">G1</f>
         <v>999</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74">
         <f t="shared" si="6"/>
         <v>101</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75">
         <f t="shared" si="6"/>
         <v>101</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76">
         <f t="shared" si="6"/>
         <v>999</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77">
         <f t="shared" si="6"/>
         <v>102</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78">
         <f t="shared" si="6"/>
         <v>102</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79">
         <f t="shared" si="6"/>
         <v>104</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80">
         <f t="shared" si="6"/>
         <v>104</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81">
         <f t="shared" si="6"/>
         <v>999</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82">
         <f t="shared" si="6"/>
         <v>106</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83">
         <f t="shared" si="6"/>
         <v>106</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84">
         <f t="shared" ref="A84" si="7">G12</f>
         <v>999</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85">
         <f t="shared" ref="A85:A95" si="8">H1</f>
         <v>999</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86">
         <f t="shared" si="8"/>
         <v>999</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87">
         <f t="shared" si="8"/>
         <v>999</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88">
         <f t="shared" si="8"/>
         <v>999</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89">
         <f t="shared" si="8"/>
         <v>999</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90">
         <f t="shared" si="8"/>
         <v>999</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91">
         <f t="shared" si="8"/>
         <v>999</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92">
         <f t="shared" si="8"/>
         <v>999</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93">
         <f t="shared" si="8"/>
         <v>999</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94">
         <f t="shared" si="8"/>
         <v>999</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95">
         <f t="shared" si="8"/>
         <v>999</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96">
         <f t="shared" ref="A96" si="9">H12</f>
         <v>999</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97">
         <f t="shared" ref="A97:A107" si="10">I1</f>
         <v>999</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98">
         <f t="shared" si="10"/>
         <v>107</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99">
         <f t="shared" si="10"/>
         <v>107</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100">
         <f t="shared" si="10"/>
         <v>999</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101">
         <f t="shared" si="10"/>
         <v>108</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102">
         <f t="shared" si="10"/>
         <v>108</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103">
         <f t="shared" si="10"/>
         <v>109</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104">
         <f t="shared" si="10"/>
         <v>109</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105">
         <f t="shared" si="10"/>
         <v>999</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106">
         <f t="shared" si="10"/>
         <v>111</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107">
         <f t="shared" si="10"/>
         <v>111</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108">
         <f t="shared" ref="A108" si="11">I12</f>
         <v>999</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109">
         <f t="shared" ref="A109:A119" si="12">J1</f>
         <v>999</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110">
         <f t="shared" si="12"/>
         <v>107</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111">
         <f t="shared" si="12"/>
         <v>107</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112">
         <f t="shared" si="12"/>
         <v>999</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113">
         <f t="shared" si="12"/>
         <v>108</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114">
         <f t="shared" si="12"/>
         <v>108</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115">
         <f t="shared" si="12"/>
         <v>110</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116">
         <f t="shared" si="12"/>
         <v>110</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117">
         <f t="shared" si="12"/>
         <v>999</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118">
         <f t="shared" si="12"/>
         <v>112</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119">
         <f t="shared" si="12"/>
         <v>112</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120">
         <f t="shared" ref="A120" si="13">J12</f>
         <v>999</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121">
         <f t="shared" ref="A121:A131" si="14">K1</f>
         <v>999</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122">
         <f t="shared" si="14"/>
         <v>113</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123">
         <f t="shared" si="14"/>
         <v>113</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124">
         <f t="shared" si="14"/>
         <v>999</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125">
         <f t="shared" si="14"/>
         <v>114</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126">
         <f t="shared" si="14"/>
         <v>114</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127">
         <f t="shared" si="14"/>
         <v>115</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128">
         <f t="shared" si="14"/>
         <v>115</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129">
         <f t="shared" si="14"/>
         <v>999</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130">
         <f t="shared" si="14"/>
         <v>116</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131">
         <f t="shared" si="14"/>
         <v>116</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132">
         <f t="shared" ref="A132" si="15">K12</f>
         <v>999</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133">
         <f t="shared" ref="A133:A143" si="16">L1</f>
         <v>999</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134">
         <f t="shared" si="16"/>
         <v>113</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135">
         <f t="shared" si="16"/>
         <v>113</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136">
         <f t="shared" si="16"/>
         <v>999</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137">
         <f t="shared" si="16"/>
         <v>114</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138">
         <f t="shared" si="16"/>
         <v>114</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139">
         <f t="shared" si="16"/>
         <v>115</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140">
         <f t="shared" si="16"/>
         <v>115</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141">
         <f t="shared" si="16"/>
         <v>999</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142">
         <f t="shared" si="16"/>
         <v>116</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143">
         <f t="shared" si="16"/>
         <v>116</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144">
         <f t="shared" ref="A144" si="17">L12</f>
         <v>999</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145">
         <f t="shared" ref="A145:A155" si="18">M1</f>
         <v>999</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146">
         <f t="shared" si="18"/>
         <v>999</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147">
         <f t="shared" si="18"/>
         <v>999</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148">
         <f t="shared" si="18"/>
         <v>999</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149">
         <f t="shared" si="18"/>
         <v>999</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150">
         <f t="shared" si="18"/>
         <v>999</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151">
         <f t="shared" si="18"/>
         <v>999</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152">
         <f t="shared" si="18"/>
         <v>999</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153">
         <f t="shared" si="18"/>
         <v>999</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154">
         <f t="shared" si="18"/>
         <v>999</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155">
         <f t="shared" si="18"/>
         <v>999</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156">
         <f t="shared" ref="A156" si="19">M12</f>
         <v>999</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157">
         <f t="shared" ref="A157:A167" si="20">N1</f>
         <v>999</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158">
         <f t="shared" si="20"/>
         <v>117</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159">
         <f t="shared" si="20"/>
         <v>117</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160">
         <f t="shared" si="20"/>
         <v>999</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161">
         <f t="shared" si="20"/>
         <v>118</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162">
         <f t="shared" si="20"/>
         <v>118</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163">
         <f t="shared" si="20"/>
         <v>119</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164">
         <f t="shared" si="20"/>
         <v>119</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165">
         <f t="shared" si="20"/>
         <v>999</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166">
         <f t="shared" si="20"/>
         <v>121</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167">
         <f t="shared" si="20"/>
         <v>121</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168">
         <f t="shared" ref="A168" si="21">N12</f>
         <v>999</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169">
         <f t="shared" ref="A169:A179" si="22">O1</f>
         <v>999</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170">
         <f t="shared" si="22"/>
         <v>117</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171">
         <f t="shared" si="22"/>
         <v>117</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172">
         <f t="shared" si="22"/>
         <v>999</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173">
         <f t="shared" si="22"/>
         <v>118</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174">
         <f t="shared" si="22"/>
         <v>118</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175">
         <f t="shared" si="22"/>
         <v>119</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176">
         <f t="shared" si="22"/>
         <v>119</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177">
         <f t="shared" si="22"/>
         <v>999</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178">
         <f t="shared" si="22"/>
         <v>121</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179">
         <f t="shared" si="22"/>
         <v>121</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180">
         <f t="shared" ref="A180" si="23">O12</f>
         <v>999</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181">
         <f t="shared" ref="A181:A191" si="24">P1</f>
         <v>999</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182">
         <f t="shared" si="24"/>
         <v>117</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183">
         <f t="shared" si="24"/>
         <v>117</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184">
         <f t="shared" si="24"/>
         <v>999</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185">
         <f t="shared" si="24"/>
         <v>118</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186">
         <f t="shared" si="24"/>
         <v>118</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187">
         <f t="shared" si="24"/>
         <v>120</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188">
         <f t="shared" si="24"/>
         <v>120</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189">
         <f t="shared" si="24"/>
         <v>999</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190">
         <f t="shared" si="24"/>
         <v>122</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191">
         <f t="shared" si="24"/>
         <v>123</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192">
         <f t="shared" ref="A192" si="25">P12</f>
         <v>999</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193">
         <f t="shared" ref="A193:A204" si="26">Q1</f>
         <v>999</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194">
         <f t="shared" si="26"/>
         <v>117</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195">
         <f t="shared" si="26"/>
         <v>117</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196">
         <f t="shared" si="26"/>
         <v>999</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197">
         <f t="shared" si="26"/>
         <v>118</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198">
         <f t="shared" si="26"/>
         <v>118</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199">
         <f t="shared" si="26"/>
         <v>120</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200">
         <f t="shared" si="26"/>
         <v>120</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201">
         <f t="shared" si="26"/>
         <v>999</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202">
         <f t="shared" si="26"/>
         <v>999</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203">
         <f t="shared" si="26"/>
         <v>124</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204">
         <f t="shared" si="26"/>
         <v>999</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205">
         <f t="shared" ref="A205:A216" si="27">R1</f>
         <v>999</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206">
         <f t="shared" si="27"/>
         <v>999</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207">
         <f t="shared" si="27"/>
         <v>999</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208">
         <f t="shared" si="27"/>
         <v>999</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209">
         <f t="shared" si="27"/>
         <v>999</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210">
         <f t="shared" si="27"/>
         <v>999</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211">
         <f t="shared" si="27"/>
         <v>999</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212">
         <f t="shared" si="27"/>
         <v>999</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213">
         <f t="shared" si="27"/>
         <v>999</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214">
         <f t="shared" si="27"/>
         <v>999</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215">
         <f t="shared" si="27"/>
         <v>125</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216">
         <f t="shared" si="27"/>
         <v>999</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217">
         <f t="shared" ref="A217:A228" si="28">S1</f>
         <v>999</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218">
         <f t="shared" si="28"/>
         <v>133</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219">
         <f t="shared" si="28"/>
         <v>133</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220">
         <f t="shared" si="28"/>
         <v>133</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221">
         <f t="shared" si="28"/>
         <v>133</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222">
         <f t="shared" si="28"/>
         <v>999</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223">
         <f t="shared" si="28"/>
         <v>999</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224">
         <f t="shared" si="28"/>
         <v>999</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225">
         <f t="shared" si="28"/>
         <v>999</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226">
         <f t="shared" si="28"/>
         <v>999</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227">
         <f t="shared" si="28"/>
         <v>126</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228">
         <f t="shared" si="28"/>
         <v>999</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229">
         <f t="shared" ref="A229:A240" si="29">T1</f>
         <v>999</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230">
         <f t="shared" si="29"/>
         <v>133</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231">
         <f t="shared" si="29"/>
         <v>133</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232">
         <f t="shared" si="29"/>
         <v>133</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233">
         <f t="shared" si="29"/>
         <v>133</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234">
         <f t="shared" si="29"/>
         <v>132</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235">
         <f t="shared" si="29"/>
         <v>131</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236">
         <f t="shared" si="29"/>
         <v>130</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237">
         <f t="shared" si="29"/>
         <v>129</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238">
         <f t="shared" si="29"/>
         <v>128</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239">
         <f t="shared" si="29"/>
         <v>127</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240">
         <f t="shared" si="29"/>
         <v>999</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241">
         <f>U1</f>
         <v>999</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242">
         <f>U2</f>
         <v>999</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243">
         <f>U3</f>
         <v>999</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244">
         <f>U4</f>
         <v>999</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245">
         <f>U5</f>
         <v>999</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246">
         <f t="shared" ref="A246:A251" si="30">U6</f>
         <v>999</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247">
         <f t="shared" si="30"/>
         <v>999</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248">
         <f t="shared" si="30"/>
         <v>999</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249">
         <f t="shared" si="30"/>
         <v>999</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250">
         <f t="shared" si="30"/>
         <v>999</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251">
         <f t="shared" si="30"/>
         <v>999</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252">
         <f>U12</f>
         <v>999</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253">
         <f>V1</f>
         <v>999</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254">
         <f>V2</f>
         <v>999</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255">
         <f>V3</f>
         <v>999</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256">
         <f>V4</f>
         <v>999</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257">
         <f>V5</f>
         <v>999</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258">
         <f t="shared" ref="A258:A264" si="31">V6</f>
         <v>999</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259">
         <f t="shared" si="31"/>
         <v>999</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260">
         <f t="shared" si="31"/>
         <v>999</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261">
         <f t="shared" si="31"/>
         <v>999</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262">
         <f t="shared" si="31"/>
         <v>999</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263">
         <f t="shared" si="31"/>
         <v>999</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264">
         <f t="shared" si="31"/>
         <v>999</v>
@@ -4022,122 +3929,122 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="V6 F12:P12 T1:V5 B1:D2 V12 T7:V11 F1:S1 G2:H3 O7:S8 G10:H11 G5:H8 L5:S6 L7:M8 M10:S10 L10:N11 L2:T3 F9:S9 F4:T4">
-    <cfRule type="cellIs" dxfId="32" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="28" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:A264">
-    <cfRule type="cellIs" dxfId="31" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="27" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:U6 T12:U12">
-    <cfRule type="cellIs" dxfId="30" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="24" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="cellIs" dxfId="29" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="23" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:D6">
-    <cfRule type="cellIs" dxfId="28" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="22" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11 B7:D10">
-    <cfRule type="cellIs" dxfId="27" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:C11">
-    <cfRule type="cellIs" dxfId="26" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q12:S17">
-    <cfRule type="cellIs" dxfId="25" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A2">
-    <cfRule type="cellIs" dxfId="24" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="cellIs" dxfId="23" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:A10 A12">
-    <cfRule type="cellIs" dxfId="22" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="cellIs" dxfId="21" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:D12">
-    <cfRule type="cellIs" dxfId="20" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E2 E7:E11">
-    <cfRule type="cellIs" dxfId="19" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6 E12">
-    <cfRule type="cellIs" dxfId="18" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:D5">
-    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" dxfId="15" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:D4">
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:D3">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4153,7 +4060,7 @@
       <selection activeCell="O17" sqref="N17:O18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="5" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="5" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
@@ -5715,7 +5622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>0</v>
       </c>
@@ -5819,7 +5726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>0</v>
       </c>
@@ -5923,7 +5830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>0</v>
       </c>
@@ -6027,7 +5934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>0</v>
       </c>
@@ -6145,7 +6052,7 @@
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="5" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="5" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
@@ -6891,7 +6798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>1</v>
       </c>
@@ -6953,7 +6860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>1</v>
       </c>
@@ -7015,7 +6922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>1</v>
       </c>
@@ -7077,7 +6984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>1</v>
       </c>
@@ -7139,7 +7046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>1</v>
       </c>
@@ -7201,7 +7108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>1</v>
       </c>
@@ -7263,7 +7170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>0</v>
       </c>
@@ -7339,1515 +7246,1515 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" ref="A13:A24" si="0">B1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" ref="A25:A36" si="1">C1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" ref="A37:A48" si="2">D1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" ref="A49:A60" si="3">E1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61">
         <f t="shared" ref="A61:A71" si="4">F1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72">
         <f t="shared" ref="A72" si="5">F12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73">
         <f t="shared" ref="A73:A83" si="6">G1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84">
         <f t="shared" ref="A84" si="7">G12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85">
         <f t="shared" ref="A85:A95" si="8">H1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96">
         <f t="shared" ref="A96" si="9">H12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97">
         <f t="shared" ref="A97:A107" si="10">I1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108">
         <f t="shared" ref="A108" si="11">I12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109">
         <f t="shared" ref="A109:A119" si="12">J1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120">
         <f t="shared" ref="A120" si="13">J12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121">
         <f t="shared" ref="A121:A131" si="14">K1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132">
         <f t="shared" ref="A132" si="15">K12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133">
         <f t="shared" ref="A133:A143" si="16">L1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144">
         <f t="shared" ref="A144" si="17">L12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145">
         <f t="shared" ref="A145:A155" si="18">M1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156">
         <f t="shared" ref="A156" si="19">M12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157">
         <f t="shared" ref="A157:A167" si="20">N1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168">
         <f t="shared" ref="A168" si="21">N12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169">
         <f t="shared" ref="A169:A179" si="22">O1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180">
         <f t="shared" ref="A180" si="23">O12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181">
         <f t="shared" ref="A181:A191" si="24">P1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192">
         <f t="shared" ref="A192" si="25">P12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193">
         <f t="shared" ref="A193:A204" si="26">Q1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205">
         <f t="shared" ref="A205:A216" si="27">R1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217">
         <f t="shared" ref="A217:A228" si="28">S1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229">
         <f t="shared" ref="A229:A240" si="29">T1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241">
         <f>U1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242">
         <f>U2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243">
         <f>U3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244">
         <f>U4</f>
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245">
         <f>U5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246">
         <f t="shared" ref="A246:A251" si="30">U6</f>
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252">
         <f>U12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253">
         <f>V1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254">
         <f>V2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255">
         <f>V3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256">
         <f>V4</f>
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257">
         <f>V5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258">
         <f t="shared" ref="A258:A264" si="31">V6</f>
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264">
         <f t="shared" si="31"/>
         <v>0</v>

--- a/Mall.xlsx
+++ b/Mall.xlsx
@@ -9,14 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7875" yWindow="465" windowWidth="21585" windowHeight="9495" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="7875" yWindow="465" windowWidth="21585" windowHeight="9495" tabRatio="500" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="NEW MALL" sheetId="3" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="6" r:id="rId3"/>
+    <sheet name="Sheet6" sheetId="7" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId6"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
@@ -143,7 +145,4017 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="431">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1551,32 +5563,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:V1 A4:V4 A2:A3 D2:D3 I2:V3 L7:O8 A9:O9 A5:A8 A10:A11 M10:O10 D10:D11 D5:D8 I5:O6 I7:I8 I10:K10 I11:J11 Q5:V10 Q11 A12:P12 R12">
-    <cfRule type="cellIs" dxfId="29" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="430" priority="6" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A12">
-    <cfRule type="cellIs" dxfId="28" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="429" priority="5" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S12 V11:V12">
-    <cfRule type="cellIs" dxfId="27" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="428" priority="4" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T12:U12">
-    <cfRule type="cellIs" dxfId="26" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="427" priority="3" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R11:U11">
-    <cfRule type="cellIs" dxfId="25" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="426" priority="2" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q12">
-    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="425" priority="1" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1589,8 +5601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V264"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:V264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1599,18 +5611,18 @@
     <col min="6" max="22" width="3.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>800</v>
       </c>
       <c r="B1">
-        <v>800</v>
+        <v>999</v>
       </c>
       <c r="C1">
-        <v>800</v>
+        <v>999</v>
       </c>
       <c r="D1">
-        <v>800</v>
+        <v>999</v>
       </c>
       <c r="E1">
         <v>999</v>
@@ -1667,18 +5679,18 @@
         <v>999</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>801</v>
       </c>
       <c r="B2">
-        <v>801</v>
+        <v>999</v>
       </c>
       <c r="C2">
-        <v>801</v>
+        <v>817</v>
       </c>
       <c r="D2">
-        <v>801</v>
+        <v>999</v>
       </c>
       <c r="E2">
         <v>999</v>
@@ -1735,7 +5747,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>999</v>
       </c>
@@ -1803,7 +5815,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>999</v>
       </c>
@@ -1871,7 +5883,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>812</v>
       </c>
@@ -1939,7 +5951,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>813</v>
       </c>
@@ -2007,7 +6019,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>805</v>
       </c>
@@ -2075,7 +6087,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>806</v>
       </c>
@@ -2143,7 +6155,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>807</v>
       </c>
@@ -2211,7 +6223,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>808</v>
       </c>
@@ -2279,7 +6291,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>809</v>
       </c>
@@ -2347,7 +6359,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>810</v>
       </c>
@@ -2415,61 +6427,61 @@
         <v>999</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" ref="A13:A24" si="0">B1</f>
-        <v>800</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" ht="15.95" x14ac:dyDescent="0.25">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
-        <v>801</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" ht="15.95" x14ac:dyDescent="0.25">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>999</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>999</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>812</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>813</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>814</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>999</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>999</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>999</v>
@@ -2490,13 +6502,13 @@
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" ref="A25:A36" si="1">C1</f>
-        <v>800</v>
+        <v>999</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="1"/>
-        <v>801</v>
+        <v>817</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
@@ -2562,13 +6574,13 @@
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" ref="A37:A48" si="2">D1</f>
-        <v>800</v>
+        <v>999</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="2"/>
-        <v>801</v>
+        <v>999</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
@@ -3928,123 +7940,143 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="V6 F12:P12 T1:V5 B1:D2 V12 T7:V11 F1:S1 G2:H3 O7:S8 G10:H11 G5:H8 L5:S6 L7:M8 M10:S10 L10:N11 L2:T3 F9:S9 F4:T4">
-    <cfRule type="cellIs" dxfId="23" priority="28" operator="equal">
+  <conditionalFormatting sqref="V6 F12:P12 T1:V5 V12 T7:V11 F1:S1 G2:H3 O7:S8 G10:H11 G5:H8 L5:S6 L7:M8 M10:S10 L10:N11 L2:T3 F9:S9 F4:T4">
+    <cfRule type="cellIs" dxfId="424" priority="52" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:A264">
-    <cfRule type="cellIs" dxfId="22" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="423" priority="51" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:U6 T12:U12">
-    <cfRule type="cellIs" dxfId="21" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="422" priority="48" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q12:S17">
+    <cfRule type="cellIs" dxfId="417" priority="42" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="cellIs" dxfId="20" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="372" priority="24" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6:D6">
-    <cfRule type="cellIs" dxfId="19" priority="22" operator="equal">
+  <conditionalFormatting sqref="B6">
+    <cfRule type="cellIs" dxfId="370" priority="23" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11 B7:D10">
-    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="368" priority="22" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:C11">
-    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
-      <formula>999</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q12:S17">
-    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="366" priority="21" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A2">
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="364" priority="20" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="362" priority="19" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:A10 A12">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="360" priority="18" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="358" priority="17" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:D12">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="356" priority="16" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E2 E7:E11">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="354" priority="15" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6 E12">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="352" priority="14" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:D5">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="350" priority="13" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="348" priority="12" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="346" priority="11" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:D4">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="344" priority="10" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="9" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="340" priority="8" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:D3">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="338" priority="7" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="6" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="334" priority="5" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:D2">
+    <cfRule type="cellIs" dxfId="332" priority="4" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:D1">
+    <cfRule type="cellIs" dxfId="330" priority="3" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="cellIs" dxfId="328" priority="2" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6">
+    <cfRule type="cellIs" dxfId="326" priority="1" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4053,6 +8085,5138 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V264"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="22" width="3.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>800</v>
+      </c>
+      <c r="B1">
+        <v>999</v>
+      </c>
+      <c r="C1">
+        <v>999</v>
+      </c>
+      <c r="D1">
+        <v>999</v>
+      </c>
+      <c r="E1">
+        <v>999</v>
+      </c>
+      <c r="F1">
+        <v>999</v>
+      </c>
+      <c r="G1">
+        <v>999</v>
+      </c>
+      <c r="H1">
+        <v>999</v>
+      </c>
+      <c r="I1">
+        <v>999</v>
+      </c>
+      <c r="J1">
+        <v>999</v>
+      </c>
+      <c r="K1">
+        <v>999</v>
+      </c>
+      <c r="L1">
+        <v>999</v>
+      </c>
+      <c r="M1">
+        <v>999</v>
+      </c>
+      <c r="N1">
+        <v>999</v>
+      </c>
+      <c r="O1">
+        <v>999</v>
+      </c>
+      <c r="P1">
+        <v>999</v>
+      </c>
+      <c r="Q1">
+        <v>999</v>
+      </c>
+      <c r="R1">
+        <v>999</v>
+      </c>
+      <c r="S1">
+        <v>999</v>
+      </c>
+      <c r="T1">
+        <v>999</v>
+      </c>
+      <c r="U1">
+        <v>999</v>
+      </c>
+      <c r="V1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>801</v>
+      </c>
+      <c r="B2">
+        <v>999</v>
+      </c>
+      <c r="C2">
+        <v>817</v>
+      </c>
+      <c r="D2">
+        <v>999</v>
+      </c>
+      <c r="E2">
+        <v>999</v>
+      </c>
+      <c r="F2">
+        <v>9</v>
+      </c>
+      <c r="G2">
+        <v>9</v>
+      </c>
+      <c r="H2">
+        <v>999</v>
+      </c>
+      <c r="I2">
+        <v>107</v>
+      </c>
+      <c r="J2">
+        <v>107</v>
+      </c>
+      <c r="K2">
+        <v>113</v>
+      </c>
+      <c r="L2">
+        <v>113</v>
+      </c>
+      <c r="M2">
+        <v>999</v>
+      </c>
+      <c r="N2">
+        <v>117</v>
+      </c>
+      <c r="O2">
+        <v>117</v>
+      </c>
+      <c r="P2">
+        <v>117</v>
+      </c>
+      <c r="Q2">
+        <v>117</v>
+      </c>
+      <c r="R2">
+        <v>999</v>
+      </c>
+      <c r="S2">
+        <v>133</v>
+      </c>
+      <c r="T2">
+        <v>133</v>
+      </c>
+      <c r="U2">
+        <v>999</v>
+      </c>
+      <c r="V2">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>999</v>
+      </c>
+      <c r="B3">
+        <v>999</v>
+      </c>
+      <c r="C3">
+        <v>999</v>
+      </c>
+      <c r="D3">
+        <v>999</v>
+      </c>
+      <c r="E3">
+        <v>811</v>
+      </c>
+      <c r="F3">
+        <v>9</v>
+      </c>
+      <c r="G3">
+        <v>9</v>
+      </c>
+      <c r="H3">
+        <v>999</v>
+      </c>
+      <c r="I3">
+        <v>107</v>
+      </c>
+      <c r="J3">
+        <v>107</v>
+      </c>
+      <c r="K3">
+        <v>113</v>
+      </c>
+      <c r="L3">
+        <v>113</v>
+      </c>
+      <c r="M3">
+        <v>999</v>
+      </c>
+      <c r="N3">
+        <v>117</v>
+      </c>
+      <c r="O3">
+        <v>117</v>
+      </c>
+      <c r="P3">
+        <v>117</v>
+      </c>
+      <c r="Q3">
+        <v>117</v>
+      </c>
+      <c r="R3">
+        <v>999</v>
+      </c>
+      <c r="S3">
+        <v>133</v>
+      </c>
+      <c r="T3">
+        <v>133</v>
+      </c>
+      <c r="U3">
+        <v>999</v>
+      </c>
+      <c r="V3">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>999</v>
+      </c>
+      <c r="B4">
+        <v>999</v>
+      </c>
+      <c r="C4">
+        <v>999</v>
+      </c>
+      <c r="D4">
+        <v>999</v>
+      </c>
+      <c r="E4">
+        <v>999</v>
+      </c>
+      <c r="F4">
+        <v>999</v>
+      </c>
+      <c r="G4">
+        <v>999</v>
+      </c>
+      <c r="H4">
+        <v>999</v>
+      </c>
+      <c r="I4">
+        <v>999</v>
+      </c>
+      <c r="J4">
+        <v>999</v>
+      </c>
+      <c r="K4">
+        <v>999</v>
+      </c>
+      <c r="L4">
+        <v>999</v>
+      </c>
+      <c r="M4">
+        <v>999</v>
+      </c>
+      <c r="N4">
+        <v>999</v>
+      </c>
+      <c r="O4">
+        <v>999</v>
+      </c>
+      <c r="P4">
+        <v>999</v>
+      </c>
+      <c r="Q4">
+        <v>999</v>
+      </c>
+      <c r="R4">
+        <v>999</v>
+      </c>
+      <c r="S4">
+        <v>133</v>
+      </c>
+      <c r="T4">
+        <v>133</v>
+      </c>
+      <c r="U4">
+        <v>999</v>
+      </c>
+      <c r="V4">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>812</v>
+      </c>
+      <c r="B5">
+        <v>812</v>
+      </c>
+      <c r="C5">
+        <v>812</v>
+      </c>
+      <c r="D5">
+        <v>812</v>
+      </c>
+      <c r="E5">
+        <v>812</v>
+      </c>
+      <c r="F5">
+        <v>32</v>
+      </c>
+      <c r="G5">
+        <v>32</v>
+      </c>
+      <c r="H5">
+        <v>999</v>
+      </c>
+      <c r="I5">
+        <v>108</v>
+      </c>
+      <c r="J5">
+        <v>108</v>
+      </c>
+      <c r="K5">
+        <v>114</v>
+      </c>
+      <c r="L5">
+        <v>114</v>
+      </c>
+      <c r="M5">
+        <v>999</v>
+      </c>
+      <c r="N5">
+        <v>118</v>
+      </c>
+      <c r="O5">
+        <v>118</v>
+      </c>
+      <c r="P5">
+        <v>118</v>
+      </c>
+      <c r="Q5">
+        <v>118</v>
+      </c>
+      <c r="R5">
+        <v>999</v>
+      </c>
+      <c r="S5">
+        <v>133</v>
+      </c>
+      <c r="T5">
+        <v>133</v>
+      </c>
+      <c r="U5">
+        <v>999</v>
+      </c>
+      <c r="V5">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>813</v>
+      </c>
+      <c r="B6">
+        <v>813</v>
+      </c>
+      <c r="C6">
+        <v>813</v>
+      </c>
+      <c r="D6">
+        <v>813</v>
+      </c>
+      <c r="E6">
+        <v>813</v>
+      </c>
+      <c r="F6">
+        <v>32</v>
+      </c>
+      <c r="G6">
+        <v>32</v>
+      </c>
+      <c r="H6">
+        <v>999</v>
+      </c>
+      <c r="I6">
+        <v>108</v>
+      </c>
+      <c r="J6">
+        <v>108</v>
+      </c>
+      <c r="K6">
+        <v>114</v>
+      </c>
+      <c r="L6">
+        <v>114</v>
+      </c>
+      <c r="M6">
+        <v>999</v>
+      </c>
+      <c r="N6">
+        <v>118</v>
+      </c>
+      <c r="O6">
+        <v>118</v>
+      </c>
+      <c r="P6">
+        <v>118</v>
+      </c>
+      <c r="Q6">
+        <v>118</v>
+      </c>
+      <c r="R6">
+        <v>999</v>
+      </c>
+      <c r="S6">
+        <v>999</v>
+      </c>
+      <c r="T6">
+        <v>132</v>
+      </c>
+      <c r="U6">
+        <v>999</v>
+      </c>
+      <c r="V6">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>805</v>
+      </c>
+      <c r="B7">
+        <v>814</v>
+      </c>
+      <c r="C7">
+        <v>815</v>
+      </c>
+      <c r="D7">
+        <v>816</v>
+      </c>
+      <c r="E7">
+        <v>999</v>
+      </c>
+      <c r="F7">
+        <v>27</v>
+      </c>
+      <c r="G7">
+        <v>34</v>
+      </c>
+      <c r="H7">
+        <v>999</v>
+      </c>
+      <c r="I7">
+        <v>109</v>
+      </c>
+      <c r="J7">
+        <v>110</v>
+      </c>
+      <c r="K7">
+        <v>115</v>
+      </c>
+      <c r="L7">
+        <v>115</v>
+      </c>
+      <c r="M7">
+        <v>999</v>
+      </c>
+      <c r="N7">
+        <v>119</v>
+      </c>
+      <c r="O7">
+        <v>119</v>
+      </c>
+      <c r="P7">
+        <v>120</v>
+      </c>
+      <c r="Q7">
+        <v>120</v>
+      </c>
+      <c r="R7">
+        <v>999</v>
+      </c>
+      <c r="S7">
+        <v>999</v>
+      </c>
+      <c r="T7">
+        <v>131</v>
+      </c>
+      <c r="U7">
+        <v>999</v>
+      </c>
+      <c r="V7">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>806</v>
+      </c>
+      <c r="B8">
+        <v>999</v>
+      </c>
+      <c r="C8">
+        <v>999</v>
+      </c>
+      <c r="D8">
+        <v>999</v>
+      </c>
+      <c r="E8">
+        <v>999</v>
+      </c>
+      <c r="F8">
+        <v>27</v>
+      </c>
+      <c r="G8">
+        <v>34</v>
+      </c>
+      <c r="H8">
+        <v>999</v>
+      </c>
+      <c r="I8">
+        <v>109</v>
+      </c>
+      <c r="J8">
+        <v>110</v>
+      </c>
+      <c r="K8">
+        <v>115</v>
+      </c>
+      <c r="L8">
+        <v>115</v>
+      </c>
+      <c r="M8">
+        <v>999</v>
+      </c>
+      <c r="N8">
+        <v>119</v>
+      </c>
+      <c r="O8">
+        <v>119</v>
+      </c>
+      <c r="P8">
+        <v>120</v>
+      </c>
+      <c r="Q8">
+        <v>120</v>
+      </c>
+      <c r="R8">
+        <v>999</v>
+      </c>
+      <c r="S8">
+        <v>999</v>
+      </c>
+      <c r="T8">
+        <v>130</v>
+      </c>
+      <c r="U8">
+        <v>999</v>
+      </c>
+      <c r="V8">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>807</v>
+      </c>
+      <c r="B9">
+        <v>999</v>
+      </c>
+      <c r="C9">
+        <v>999</v>
+      </c>
+      <c r="D9">
+        <v>999</v>
+      </c>
+      <c r="E9">
+        <v>999</v>
+      </c>
+      <c r="F9">
+        <v>999</v>
+      </c>
+      <c r="G9">
+        <v>999</v>
+      </c>
+      <c r="H9">
+        <v>999</v>
+      </c>
+      <c r="I9">
+        <v>999</v>
+      </c>
+      <c r="J9">
+        <v>999</v>
+      </c>
+      <c r="K9">
+        <v>999</v>
+      </c>
+      <c r="L9">
+        <v>999</v>
+      </c>
+      <c r="M9">
+        <v>999</v>
+      </c>
+      <c r="N9">
+        <v>999</v>
+      </c>
+      <c r="O9">
+        <v>999</v>
+      </c>
+      <c r="P9">
+        <v>999</v>
+      </c>
+      <c r="Q9">
+        <v>999</v>
+      </c>
+      <c r="R9">
+        <v>999</v>
+      </c>
+      <c r="S9">
+        <v>999</v>
+      </c>
+      <c r="T9">
+        <v>129</v>
+      </c>
+      <c r="U9">
+        <v>999</v>
+      </c>
+      <c r="V9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>808</v>
+      </c>
+      <c r="B10">
+        <v>999</v>
+      </c>
+      <c r="C10">
+        <v>999</v>
+      </c>
+      <c r="D10">
+        <v>999</v>
+      </c>
+      <c r="E10">
+        <v>999</v>
+      </c>
+      <c r="F10">
+        <v>105</v>
+      </c>
+      <c r="G10">
+        <v>106</v>
+      </c>
+      <c r="H10">
+        <v>999</v>
+      </c>
+      <c r="I10">
+        <v>111</v>
+      </c>
+      <c r="J10">
+        <v>112</v>
+      </c>
+      <c r="K10">
+        <v>116</v>
+      </c>
+      <c r="L10">
+        <v>116</v>
+      </c>
+      <c r="M10">
+        <v>999</v>
+      </c>
+      <c r="N10">
+        <v>121</v>
+      </c>
+      <c r="O10">
+        <v>121</v>
+      </c>
+      <c r="P10">
+        <v>122</v>
+      </c>
+      <c r="Q10">
+        <v>999</v>
+      </c>
+      <c r="R10">
+        <v>999</v>
+      </c>
+      <c r="S10">
+        <v>999</v>
+      </c>
+      <c r="T10">
+        <v>128</v>
+      </c>
+      <c r="U10">
+        <v>999</v>
+      </c>
+      <c r="V10">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>809</v>
+      </c>
+      <c r="B11">
+        <v>999</v>
+      </c>
+      <c r="C11">
+        <v>999</v>
+      </c>
+      <c r="D11">
+        <v>999</v>
+      </c>
+      <c r="E11">
+        <v>999</v>
+      </c>
+      <c r="F11">
+        <v>105</v>
+      </c>
+      <c r="G11">
+        <v>106</v>
+      </c>
+      <c r="H11">
+        <v>999</v>
+      </c>
+      <c r="I11">
+        <v>111</v>
+      </c>
+      <c r="J11">
+        <v>112</v>
+      </c>
+      <c r="K11">
+        <v>116</v>
+      </c>
+      <c r="L11">
+        <v>116</v>
+      </c>
+      <c r="M11">
+        <v>999</v>
+      </c>
+      <c r="N11">
+        <v>121</v>
+      </c>
+      <c r="O11">
+        <v>121</v>
+      </c>
+      <c r="P11">
+        <v>123</v>
+      </c>
+      <c r="Q11">
+        <v>124</v>
+      </c>
+      <c r="R11">
+        <v>125</v>
+      </c>
+      <c r="S11">
+        <v>126</v>
+      </c>
+      <c r="T11">
+        <v>127</v>
+      </c>
+      <c r="U11">
+        <v>999</v>
+      </c>
+      <c r="V11">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>810</v>
+      </c>
+      <c r="B12">
+        <v>999</v>
+      </c>
+      <c r="C12">
+        <v>999</v>
+      </c>
+      <c r="D12">
+        <v>999</v>
+      </c>
+      <c r="E12">
+        <v>999</v>
+      </c>
+      <c r="F12">
+        <v>999</v>
+      </c>
+      <c r="G12">
+        <v>999</v>
+      </c>
+      <c r="H12">
+        <v>999</v>
+      </c>
+      <c r="I12">
+        <v>999</v>
+      </c>
+      <c r="J12">
+        <v>999</v>
+      </c>
+      <c r="K12">
+        <v>999</v>
+      </c>
+      <c r="L12">
+        <v>999</v>
+      </c>
+      <c r="M12">
+        <v>999</v>
+      </c>
+      <c r="N12">
+        <v>999</v>
+      </c>
+      <c r="O12">
+        <v>999</v>
+      </c>
+      <c r="P12">
+        <v>999</v>
+      </c>
+      <c r="Q12">
+        <v>999</v>
+      </c>
+      <c r="R12">
+        <v>999</v>
+      </c>
+      <c r="S12">
+        <v>999</v>
+      </c>
+      <c r="T12">
+        <v>999</v>
+      </c>
+      <c r="U12">
+        <v>999</v>
+      </c>
+      <c r="V12">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" ref="A13:A24" si="0">B1</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>812</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>813</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>814</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" ref="A25:A36" si="1">C1</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="1"/>
+        <v>817</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" si="1"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" si="1"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="1"/>
+        <v>812</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="1"/>
+        <v>813</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="1"/>
+        <v>815</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" si="1"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" si="1"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" si="1"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" si="1"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="1"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" ref="A37:A48" si="2">D1</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" si="2"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f t="shared" si="2"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f t="shared" si="2"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f t="shared" si="2"/>
+        <v>812</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f t="shared" si="2"/>
+        <v>813</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f t="shared" si="2"/>
+        <v>816</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f t="shared" si="2"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f t="shared" si="2"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f t="shared" si="2"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f t="shared" si="2"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f t="shared" si="2"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f t="shared" ref="A49:A60" si="3">E1</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f t="shared" si="3"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f t="shared" si="3"/>
+        <v>811</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f t="shared" si="3"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f t="shared" si="3"/>
+        <v>812</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <f t="shared" si="3"/>
+        <v>813</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <f t="shared" si="3"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <f t="shared" si="3"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f t="shared" si="3"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <f t="shared" si="3"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f t="shared" si="3"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <f t="shared" si="3"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <f t="shared" ref="A61:A72" si="4">F1</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <f t="shared" si="4"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <f t="shared" si="4"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <f t="shared" si="4"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <f t="shared" si="4"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <f t="shared" si="4"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <f t="shared" ref="A73:A84" si="5">G1</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <f t="shared" si="5"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <f t="shared" si="5"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <f t="shared" si="5"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <f t="shared" si="5"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <f t="shared" si="5"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <f t="shared" si="5"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <f t="shared" si="5"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <f t="shared" si="5"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <f t="shared" si="5"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <f t="shared" ref="A85:A96" si="6">H1</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <f t="shared" si="6"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <f t="shared" si="6"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <f t="shared" si="6"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <f t="shared" si="6"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <f t="shared" si="6"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <f t="shared" si="6"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <f t="shared" si="6"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <f t="shared" si="6"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <f t="shared" si="6"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <f t="shared" si="6"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <f t="shared" si="6"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <f t="shared" ref="A97:A108" si="7">I1</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <f t="shared" si="7"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <f t="shared" si="7"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <f t="shared" si="7"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <f t="shared" si="7"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <f t="shared" si="7"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <f t="shared" si="7"/>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <f t="shared" si="7"/>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <f t="shared" si="7"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <f t="shared" si="7"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <f t="shared" si="7"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <f t="shared" si="7"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <f t="shared" ref="A109:A120" si="8">J1</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <f t="shared" si="8"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <f t="shared" si="8"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <f t="shared" si="8"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <f t="shared" si="8"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <f t="shared" si="8"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <f t="shared" si="8"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <f t="shared" si="8"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <f t="shared" si="8"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <f t="shared" si="8"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <f t="shared" si="8"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <f t="shared" si="8"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <f t="shared" ref="A121:A132" si="9">K1</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <f t="shared" si="9"/>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <f t="shared" si="9"/>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <f t="shared" si="9"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <f t="shared" si="9"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <f t="shared" si="9"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <f t="shared" si="9"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <f t="shared" si="9"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <f t="shared" si="9"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <f t="shared" si="9"/>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <f t="shared" si="9"/>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <f t="shared" si="9"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <f t="shared" ref="A133:A144" si="10">L1</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <f t="shared" si="10"/>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <f t="shared" si="10"/>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <f t="shared" si="10"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <f t="shared" si="10"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <f t="shared" si="10"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <f t="shared" si="10"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <f t="shared" si="10"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <f t="shared" si="10"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <f t="shared" si="10"/>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <f t="shared" si="10"/>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <f t="shared" si="10"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <f t="shared" ref="A145:A156" si="11">M1</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <f t="shared" si="11"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <f t="shared" si="11"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <f t="shared" si="11"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <f t="shared" si="11"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <f t="shared" si="11"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <f t="shared" si="11"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <f t="shared" si="11"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <f t="shared" si="11"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <f t="shared" si="11"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <f t="shared" si="11"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <f t="shared" si="11"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <f t="shared" ref="A157:A168" si="12">N1</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <f t="shared" si="12"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <f t="shared" si="12"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <f t="shared" si="12"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <f t="shared" si="12"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <f t="shared" si="12"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <f t="shared" si="12"/>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <f t="shared" si="12"/>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <f t="shared" si="12"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <f t="shared" si="12"/>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <f t="shared" si="12"/>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <f t="shared" si="12"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <f t="shared" ref="A169:A180" si="13">O1</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <f t="shared" si="13"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <f t="shared" si="13"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <f t="shared" si="13"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <f t="shared" si="13"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <f t="shared" si="13"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <f t="shared" si="13"/>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <f t="shared" si="13"/>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <f t="shared" si="13"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <f t="shared" si="13"/>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <f t="shared" si="13"/>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <f t="shared" si="13"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <f t="shared" ref="A181:A192" si="14">P1</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <f t="shared" si="14"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <f t="shared" si="14"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <f t="shared" si="14"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <f t="shared" si="14"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <f t="shared" si="14"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <f t="shared" si="14"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <f t="shared" si="14"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <f t="shared" si="14"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <f t="shared" si="14"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <f t="shared" si="14"/>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <f t="shared" si="14"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <f t="shared" ref="A193:A204" si="15">Q1</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <f t="shared" si="15"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <f t="shared" si="15"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <f t="shared" si="15"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <f t="shared" si="15"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <f t="shared" si="15"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <f t="shared" si="15"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <f t="shared" si="15"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <f t="shared" si="15"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <f t="shared" si="15"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <f t="shared" si="15"/>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <f t="shared" si="15"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <f t="shared" ref="A205:A216" si="16">R1</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <f t="shared" si="16"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <f t="shared" si="16"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <f t="shared" si="16"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <f t="shared" si="16"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <f t="shared" si="16"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <f t="shared" si="16"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <f t="shared" si="16"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <f t="shared" si="16"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <f t="shared" si="16"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <f t="shared" si="16"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <f t="shared" si="16"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <f t="shared" ref="A217:A228" si="17">S1</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <f t="shared" si="17"/>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <f t="shared" si="17"/>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <f t="shared" si="17"/>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <f t="shared" si="17"/>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <f t="shared" si="17"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <f t="shared" si="17"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <f t="shared" si="17"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <f t="shared" si="17"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <f t="shared" si="17"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <f t="shared" si="17"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <f t="shared" si="17"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <f t="shared" ref="A229:A240" si="18">T1</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <f t="shared" si="18"/>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <f t="shared" si="18"/>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <f t="shared" si="18"/>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <f t="shared" si="18"/>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <f t="shared" si="18"/>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <f t="shared" si="18"/>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <f t="shared" si="18"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <f t="shared" si="18"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <f t="shared" si="18"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <f t="shared" si="18"/>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <f t="shared" si="18"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <f>U1</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <f>U2</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <f>U3</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <f>U4</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <f>U5</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <f t="shared" ref="A246:A251" si="19">U6</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <f t="shared" si="19"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <f t="shared" si="19"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <f t="shared" si="19"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <f t="shared" si="19"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <f t="shared" si="19"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <f>U12</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <f>V1</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <f>V2</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <f>V3</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <f>V4</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <f>V5</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <f t="shared" ref="A258:A264" si="20">V6</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <f t="shared" si="20"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <f t="shared" si="20"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <f t="shared" si="20"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <f t="shared" si="20"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <f t="shared" si="20"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <f t="shared" si="20"/>
+        <v>999</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="V6 F12:P12 T1:V5 V12 T7:V11 F1:S1 G2:H3 O7:S8 G10:H11 G5:H8 L5:S6 L7:M8 M10:S10 M11:N11 L10:L11 L2:S3 F9:S9 F4:S4">
+    <cfRule type="cellIs" dxfId="400" priority="50" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:A264">
+    <cfRule type="cellIs" dxfId="399" priority="49" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T6:U6 T12:U12">
+    <cfRule type="cellIs" dxfId="398" priority="48" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q12:S17">
+    <cfRule type="cellIs" dxfId="393" priority="43" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7">
+    <cfRule type="cellIs" dxfId="324" priority="24" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6">
+    <cfRule type="cellIs" dxfId="322" priority="23" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11 B7:D10">
+    <cfRule type="cellIs" dxfId="320" priority="22" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:C11">
+    <cfRule type="cellIs" dxfId="318" priority="21" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A2">
+    <cfRule type="cellIs" dxfId="316" priority="20" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6">
+    <cfRule type="cellIs" dxfId="314" priority="19" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8:A10 A12">
+    <cfRule type="cellIs" dxfId="312" priority="18" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11">
+    <cfRule type="cellIs" dxfId="310" priority="17" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12:D12">
+    <cfRule type="cellIs" dxfId="308" priority="16" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E2 E7:E11">
+    <cfRule type="cellIs" dxfId="306" priority="15" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6 E12">
+    <cfRule type="cellIs" dxfId="304" priority="14" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:D5">
+    <cfRule type="cellIs" dxfId="302" priority="13" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5">
+    <cfRule type="cellIs" dxfId="300" priority="12" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="cellIs" dxfId="298" priority="11" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:D4">
+    <cfRule type="cellIs" dxfId="296" priority="10" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="cellIs" dxfId="294" priority="9" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="cellIs" dxfId="292" priority="8" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:D3">
+    <cfRule type="cellIs" dxfId="290" priority="7" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3">
+    <cfRule type="cellIs" dxfId="288" priority="6" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="cellIs" dxfId="286" priority="5" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:D2">
+    <cfRule type="cellIs" dxfId="284" priority="4" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:D1">
+    <cfRule type="cellIs" dxfId="282" priority="3" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="cellIs" dxfId="280" priority="2" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6">
+    <cfRule type="cellIs" dxfId="278" priority="1" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V264"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1:T12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="22" width="3.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>800</v>
+      </c>
+      <c r="B1">
+        <v>999</v>
+      </c>
+      <c r="C1">
+        <v>999</v>
+      </c>
+      <c r="D1">
+        <v>999</v>
+      </c>
+      <c r="E1">
+        <v>999</v>
+      </c>
+      <c r="F1">
+        <v>999</v>
+      </c>
+      <c r="G1">
+        <v>999</v>
+      </c>
+      <c r="H1">
+        <v>999</v>
+      </c>
+      <c r="I1">
+        <v>999</v>
+      </c>
+      <c r="J1">
+        <v>999</v>
+      </c>
+      <c r="K1">
+        <v>999</v>
+      </c>
+      <c r="L1">
+        <v>999</v>
+      </c>
+      <c r="M1">
+        <v>999</v>
+      </c>
+      <c r="N1">
+        <v>999</v>
+      </c>
+      <c r="O1">
+        <v>999</v>
+      </c>
+      <c r="P1">
+        <v>999</v>
+      </c>
+      <c r="Q1">
+        <v>999</v>
+      </c>
+      <c r="R1">
+        <v>999</v>
+      </c>
+      <c r="S1">
+        <v>999</v>
+      </c>
+      <c r="T1">
+        <v>999</v>
+      </c>
+      <c r="U1">
+        <v>999</v>
+      </c>
+      <c r="V1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>801</v>
+      </c>
+      <c r="B2">
+        <v>999</v>
+      </c>
+      <c r="C2">
+        <v>817</v>
+      </c>
+      <c r="D2">
+        <v>999</v>
+      </c>
+      <c r="E2">
+        <v>999</v>
+      </c>
+      <c r="F2">
+        <v>999</v>
+      </c>
+      <c r="G2">
+        <v>999</v>
+      </c>
+      <c r="H2">
+        <v>999</v>
+      </c>
+      <c r="I2">
+        <v>999</v>
+      </c>
+      <c r="J2">
+        <v>999</v>
+      </c>
+      <c r="K2">
+        <v>999</v>
+      </c>
+      <c r="L2">
+        <v>999</v>
+      </c>
+      <c r="M2">
+        <v>999</v>
+      </c>
+      <c r="N2">
+        <v>999</v>
+      </c>
+      <c r="O2">
+        <v>999</v>
+      </c>
+      <c r="P2">
+        <v>999</v>
+      </c>
+      <c r="Q2">
+        <v>999</v>
+      </c>
+      <c r="R2">
+        <v>999</v>
+      </c>
+      <c r="S2">
+        <v>999</v>
+      </c>
+      <c r="T2">
+        <v>999</v>
+      </c>
+      <c r="U2">
+        <v>999</v>
+      </c>
+      <c r="V2">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>999</v>
+      </c>
+      <c r="B3">
+        <v>999</v>
+      </c>
+      <c r="C3">
+        <v>901</v>
+      </c>
+      <c r="D3">
+        <v>901</v>
+      </c>
+      <c r="E3">
+        <v>901</v>
+      </c>
+      <c r="F3">
+        <v>901</v>
+      </c>
+      <c r="G3">
+        <v>901</v>
+      </c>
+      <c r="H3">
+        <v>901</v>
+      </c>
+      <c r="I3">
+        <v>901</v>
+      </c>
+      <c r="J3">
+        <v>901</v>
+      </c>
+      <c r="K3">
+        <v>901</v>
+      </c>
+      <c r="L3">
+        <v>901</v>
+      </c>
+      <c r="M3">
+        <v>901</v>
+      </c>
+      <c r="N3">
+        <v>901</v>
+      </c>
+      <c r="O3">
+        <v>901</v>
+      </c>
+      <c r="P3">
+        <v>901</v>
+      </c>
+      <c r="Q3">
+        <v>901</v>
+      </c>
+      <c r="R3">
+        <v>901</v>
+      </c>
+      <c r="S3">
+        <v>901</v>
+      </c>
+      <c r="T3">
+        <v>999</v>
+      </c>
+      <c r="U3">
+        <v>999</v>
+      </c>
+      <c r="V3">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>999</v>
+      </c>
+      <c r="B4">
+        <v>999</v>
+      </c>
+      <c r="C4">
+        <v>902</v>
+      </c>
+      <c r="D4">
+        <v>902</v>
+      </c>
+      <c r="E4">
+        <v>902</v>
+      </c>
+      <c r="F4">
+        <v>902</v>
+      </c>
+      <c r="G4">
+        <v>902</v>
+      </c>
+      <c r="H4">
+        <v>902</v>
+      </c>
+      <c r="I4">
+        <v>902</v>
+      </c>
+      <c r="J4">
+        <v>902</v>
+      </c>
+      <c r="K4">
+        <v>902</v>
+      </c>
+      <c r="L4">
+        <v>902</v>
+      </c>
+      <c r="M4">
+        <v>902</v>
+      </c>
+      <c r="N4">
+        <v>902</v>
+      </c>
+      <c r="O4">
+        <v>902</v>
+      </c>
+      <c r="P4">
+        <v>902</v>
+      </c>
+      <c r="Q4">
+        <v>902</v>
+      </c>
+      <c r="R4">
+        <v>902</v>
+      </c>
+      <c r="S4">
+        <v>902</v>
+      </c>
+      <c r="T4">
+        <v>999</v>
+      </c>
+      <c r="U4">
+        <v>999</v>
+      </c>
+      <c r="V4">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>812</v>
+      </c>
+      <c r="B5">
+        <v>999</v>
+      </c>
+      <c r="C5">
+        <v>903</v>
+      </c>
+      <c r="D5">
+        <v>903</v>
+      </c>
+      <c r="E5">
+        <v>903</v>
+      </c>
+      <c r="F5">
+        <v>903</v>
+      </c>
+      <c r="G5">
+        <v>903</v>
+      </c>
+      <c r="H5">
+        <v>903</v>
+      </c>
+      <c r="I5">
+        <v>903</v>
+      </c>
+      <c r="J5">
+        <v>903</v>
+      </c>
+      <c r="K5">
+        <v>903</v>
+      </c>
+      <c r="L5">
+        <v>903</v>
+      </c>
+      <c r="M5">
+        <v>903</v>
+      </c>
+      <c r="N5">
+        <v>903</v>
+      </c>
+      <c r="O5">
+        <v>903</v>
+      </c>
+      <c r="P5">
+        <v>903</v>
+      </c>
+      <c r="Q5">
+        <v>903</v>
+      </c>
+      <c r="R5">
+        <v>903</v>
+      </c>
+      <c r="S5">
+        <v>903</v>
+      </c>
+      <c r="T5">
+        <v>999</v>
+      </c>
+      <c r="U5">
+        <v>999</v>
+      </c>
+      <c r="V5">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>813</v>
+      </c>
+      <c r="B6">
+        <v>999</v>
+      </c>
+      <c r="C6">
+        <v>904</v>
+      </c>
+      <c r="D6">
+        <v>904</v>
+      </c>
+      <c r="E6">
+        <v>904</v>
+      </c>
+      <c r="F6">
+        <v>904</v>
+      </c>
+      <c r="G6">
+        <v>904</v>
+      </c>
+      <c r="H6">
+        <v>904</v>
+      </c>
+      <c r="I6">
+        <v>904</v>
+      </c>
+      <c r="J6">
+        <v>904</v>
+      </c>
+      <c r="K6">
+        <v>904</v>
+      </c>
+      <c r="L6">
+        <v>904</v>
+      </c>
+      <c r="M6">
+        <v>904</v>
+      </c>
+      <c r="N6">
+        <v>904</v>
+      </c>
+      <c r="O6">
+        <v>904</v>
+      </c>
+      <c r="P6">
+        <v>904</v>
+      </c>
+      <c r="Q6">
+        <v>904</v>
+      </c>
+      <c r="R6">
+        <v>904</v>
+      </c>
+      <c r="S6">
+        <v>904</v>
+      </c>
+      <c r="T6">
+        <v>999</v>
+      </c>
+      <c r="U6">
+        <v>999</v>
+      </c>
+      <c r="V6">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>805</v>
+      </c>
+      <c r="B7">
+        <v>999</v>
+      </c>
+      <c r="C7">
+        <v>905</v>
+      </c>
+      <c r="D7">
+        <v>905</v>
+      </c>
+      <c r="E7">
+        <v>905</v>
+      </c>
+      <c r="F7">
+        <v>905</v>
+      </c>
+      <c r="G7">
+        <v>905</v>
+      </c>
+      <c r="H7">
+        <v>905</v>
+      </c>
+      <c r="I7">
+        <v>905</v>
+      </c>
+      <c r="J7">
+        <v>905</v>
+      </c>
+      <c r="K7">
+        <v>905</v>
+      </c>
+      <c r="L7">
+        <v>905</v>
+      </c>
+      <c r="M7">
+        <v>905</v>
+      </c>
+      <c r="N7">
+        <v>905</v>
+      </c>
+      <c r="O7">
+        <v>905</v>
+      </c>
+      <c r="P7">
+        <v>905</v>
+      </c>
+      <c r="Q7">
+        <v>905</v>
+      </c>
+      <c r="R7">
+        <v>905</v>
+      </c>
+      <c r="S7">
+        <v>905</v>
+      </c>
+      <c r="T7">
+        <v>999</v>
+      </c>
+      <c r="U7">
+        <v>999</v>
+      </c>
+      <c r="V7">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>806</v>
+      </c>
+      <c r="B8">
+        <v>999</v>
+      </c>
+      <c r="C8">
+        <v>906</v>
+      </c>
+      <c r="D8">
+        <v>906</v>
+      </c>
+      <c r="E8">
+        <v>906</v>
+      </c>
+      <c r="F8">
+        <v>906</v>
+      </c>
+      <c r="G8">
+        <v>906</v>
+      </c>
+      <c r="H8">
+        <v>906</v>
+      </c>
+      <c r="I8">
+        <v>906</v>
+      </c>
+      <c r="J8">
+        <v>906</v>
+      </c>
+      <c r="K8">
+        <v>906</v>
+      </c>
+      <c r="L8">
+        <v>906</v>
+      </c>
+      <c r="M8">
+        <v>906</v>
+      </c>
+      <c r="N8">
+        <v>906</v>
+      </c>
+      <c r="O8">
+        <v>906</v>
+      </c>
+      <c r="P8">
+        <v>906</v>
+      </c>
+      <c r="Q8">
+        <v>906</v>
+      </c>
+      <c r="R8">
+        <v>906</v>
+      </c>
+      <c r="S8">
+        <v>906</v>
+      </c>
+      <c r="T8">
+        <v>999</v>
+      </c>
+      <c r="U8">
+        <v>999</v>
+      </c>
+      <c r="V8">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>807</v>
+      </c>
+      <c r="B9">
+        <v>999</v>
+      </c>
+      <c r="C9">
+        <v>907</v>
+      </c>
+      <c r="D9">
+        <v>907</v>
+      </c>
+      <c r="E9">
+        <v>907</v>
+      </c>
+      <c r="F9">
+        <v>907</v>
+      </c>
+      <c r="G9">
+        <v>907</v>
+      </c>
+      <c r="H9">
+        <v>907</v>
+      </c>
+      <c r="I9">
+        <v>907</v>
+      </c>
+      <c r="J9">
+        <v>907</v>
+      </c>
+      <c r="K9">
+        <v>907</v>
+      </c>
+      <c r="L9">
+        <v>907</v>
+      </c>
+      <c r="M9">
+        <v>907</v>
+      </c>
+      <c r="N9">
+        <v>907</v>
+      </c>
+      <c r="O9">
+        <v>907</v>
+      </c>
+      <c r="P9">
+        <v>907</v>
+      </c>
+      <c r="Q9">
+        <v>907</v>
+      </c>
+      <c r="R9">
+        <v>907</v>
+      </c>
+      <c r="S9">
+        <v>907</v>
+      </c>
+      <c r="T9">
+        <v>999</v>
+      </c>
+      <c r="U9">
+        <v>999</v>
+      </c>
+      <c r="V9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>808</v>
+      </c>
+      <c r="B10">
+        <v>999</v>
+      </c>
+      <c r="C10">
+        <v>908</v>
+      </c>
+      <c r="D10">
+        <v>908</v>
+      </c>
+      <c r="E10">
+        <v>908</v>
+      </c>
+      <c r="F10">
+        <v>908</v>
+      </c>
+      <c r="G10">
+        <v>908</v>
+      </c>
+      <c r="H10">
+        <v>908</v>
+      </c>
+      <c r="I10">
+        <v>908</v>
+      </c>
+      <c r="J10">
+        <v>908</v>
+      </c>
+      <c r="K10">
+        <v>908</v>
+      </c>
+      <c r="L10">
+        <v>908</v>
+      </c>
+      <c r="M10">
+        <v>908</v>
+      </c>
+      <c r="N10">
+        <v>908</v>
+      </c>
+      <c r="O10">
+        <v>908</v>
+      </c>
+      <c r="P10">
+        <v>908</v>
+      </c>
+      <c r="Q10">
+        <v>908</v>
+      </c>
+      <c r="R10">
+        <v>908</v>
+      </c>
+      <c r="S10">
+        <v>908</v>
+      </c>
+      <c r="T10">
+        <v>999</v>
+      </c>
+      <c r="U10">
+        <v>999</v>
+      </c>
+      <c r="V10">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>809</v>
+      </c>
+      <c r="B11">
+        <v>999</v>
+      </c>
+      <c r="C11">
+        <v>909</v>
+      </c>
+      <c r="D11">
+        <v>909</v>
+      </c>
+      <c r="E11">
+        <v>909</v>
+      </c>
+      <c r="F11">
+        <v>909</v>
+      </c>
+      <c r="G11">
+        <v>909</v>
+      </c>
+      <c r="H11">
+        <v>909</v>
+      </c>
+      <c r="I11">
+        <v>909</v>
+      </c>
+      <c r="J11">
+        <v>909</v>
+      </c>
+      <c r="K11">
+        <v>909</v>
+      </c>
+      <c r="L11">
+        <v>909</v>
+      </c>
+      <c r="M11">
+        <v>909</v>
+      </c>
+      <c r="N11">
+        <v>909</v>
+      </c>
+      <c r="O11">
+        <v>909</v>
+      </c>
+      <c r="P11">
+        <v>909</v>
+      </c>
+      <c r="Q11">
+        <v>909</v>
+      </c>
+      <c r="R11">
+        <v>909</v>
+      </c>
+      <c r="S11">
+        <v>909</v>
+      </c>
+      <c r="T11">
+        <v>999</v>
+      </c>
+      <c r="U11">
+        <v>999</v>
+      </c>
+      <c r="V11">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>810</v>
+      </c>
+      <c r="B12">
+        <v>999</v>
+      </c>
+      <c r="C12">
+        <v>999</v>
+      </c>
+      <c r="D12">
+        <v>999</v>
+      </c>
+      <c r="E12">
+        <v>999</v>
+      </c>
+      <c r="F12">
+        <v>999</v>
+      </c>
+      <c r="G12">
+        <v>999</v>
+      </c>
+      <c r="H12">
+        <v>999</v>
+      </c>
+      <c r="I12">
+        <v>999</v>
+      </c>
+      <c r="J12">
+        <v>999</v>
+      </c>
+      <c r="K12">
+        <v>999</v>
+      </c>
+      <c r="L12">
+        <v>999</v>
+      </c>
+      <c r="M12">
+        <v>999</v>
+      </c>
+      <c r="N12">
+        <v>999</v>
+      </c>
+      <c r="O12">
+        <v>999</v>
+      </c>
+      <c r="P12">
+        <v>999</v>
+      </c>
+      <c r="Q12">
+        <v>999</v>
+      </c>
+      <c r="R12">
+        <v>999</v>
+      </c>
+      <c r="S12">
+        <v>999</v>
+      </c>
+      <c r="T12">
+        <v>999</v>
+      </c>
+      <c r="U12">
+        <v>999</v>
+      </c>
+      <c r="V12">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" ref="A13:A24" si="0">B1</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" ref="A25:A36" si="1">C1</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="1"/>
+        <v>817</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" si="1"/>
+        <v>901</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" si="1"/>
+        <v>902</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="1"/>
+        <v>903</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="1"/>
+        <v>904</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="1"/>
+        <v>905</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" si="1"/>
+        <v>906</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" si="1"/>
+        <v>907</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" si="1"/>
+        <v>908</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" si="1"/>
+        <v>909</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="1"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" ref="A37:A48" si="2">D1</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" si="2"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f t="shared" si="2"/>
+        <v>901</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f t="shared" si="2"/>
+        <v>902</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f t="shared" si="2"/>
+        <v>903</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f t="shared" si="2"/>
+        <v>904</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f t="shared" si="2"/>
+        <v>905</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f t="shared" si="2"/>
+        <v>906</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f t="shared" si="2"/>
+        <v>907</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f t="shared" si="2"/>
+        <v>908</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f t="shared" si="2"/>
+        <v>909</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f t="shared" si="2"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f t="shared" ref="A49:A60" si="3">E1</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f t="shared" si="3"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f t="shared" si="3"/>
+        <v>901</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f t="shared" si="3"/>
+        <v>902</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f t="shared" si="3"/>
+        <v>903</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <f t="shared" si="3"/>
+        <v>904</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <f t="shared" si="3"/>
+        <v>905</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <f t="shared" si="3"/>
+        <v>906</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f t="shared" si="3"/>
+        <v>907</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <f t="shared" si="3"/>
+        <v>908</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f t="shared" si="3"/>
+        <v>909</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <f t="shared" si="3"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <f t="shared" ref="A61:A72" si="4">F1</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <f t="shared" si="4"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <f t="shared" si="4"/>
+        <v>901</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <f t="shared" si="4"/>
+        <v>902</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <f t="shared" si="4"/>
+        <v>903</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <f t="shared" si="4"/>
+        <v>904</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <f t="shared" si="4"/>
+        <v>905</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <f t="shared" si="4"/>
+        <v>906</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <f t="shared" si="4"/>
+        <v>907</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <f t="shared" si="4"/>
+        <v>908</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <f t="shared" si="4"/>
+        <v>909</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <f t="shared" si="4"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <f t="shared" ref="A73:A84" si="5">G1</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <f t="shared" si="5"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <f t="shared" si="5"/>
+        <v>901</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <f t="shared" si="5"/>
+        <v>902</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <f t="shared" si="5"/>
+        <v>903</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <f t="shared" si="5"/>
+        <v>904</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <f t="shared" si="5"/>
+        <v>905</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <f t="shared" si="5"/>
+        <v>906</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <f t="shared" si="5"/>
+        <v>907</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <f t="shared" si="5"/>
+        <v>908</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <f t="shared" si="5"/>
+        <v>909</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <f t="shared" si="5"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <f t="shared" ref="A85:A96" si="6">H1</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <f t="shared" si="6"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <f t="shared" si="6"/>
+        <v>901</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <f t="shared" si="6"/>
+        <v>902</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <f t="shared" si="6"/>
+        <v>903</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <f t="shared" si="6"/>
+        <v>904</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <f t="shared" si="6"/>
+        <v>905</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <f t="shared" si="6"/>
+        <v>906</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <f t="shared" si="6"/>
+        <v>907</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <f t="shared" si="6"/>
+        <v>908</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <f t="shared" si="6"/>
+        <v>909</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <f t="shared" si="6"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <f t="shared" ref="A97:A108" si="7">I1</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <f t="shared" si="7"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <f t="shared" si="7"/>
+        <v>901</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <f t="shared" si="7"/>
+        <v>902</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <f t="shared" si="7"/>
+        <v>903</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <f t="shared" si="7"/>
+        <v>904</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <f t="shared" si="7"/>
+        <v>905</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <f t="shared" si="7"/>
+        <v>906</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <f t="shared" si="7"/>
+        <v>907</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <f t="shared" si="7"/>
+        <v>908</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <f t="shared" si="7"/>
+        <v>909</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <f t="shared" si="7"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <f t="shared" ref="A109:A120" si="8">J1</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <f t="shared" si="8"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <f t="shared" si="8"/>
+        <v>901</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <f t="shared" si="8"/>
+        <v>902</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <f t="shared" si="8"/>
+        <v>903</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <f t="shared" si="8"/>
+        <v>904</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <f t="shared" si="8"/>
+        <v>905</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <f t="shared" si="8"/>
+        <v>906</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <f t="shared" si="8"/>
+        <v>907</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <f t="shared" si="8"/>
+        <v>908</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <f t="shared" si="8"/>
+        <v>909</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <f t="shared" si="8"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <f t="shared" ref="A121:A132" si="9">K1</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <f t="shared" si="9"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <f t="shared" si="9"/>
+        <v>901</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <f t="shared" si="9"/>
+        <v>902</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <f t="shared" si="9"/>
+        <v>903</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <f t="shared" si="9"/>
+        <v>904</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <f t="shared" si="9"/>
+        <v>905</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <f t="shared" si="9"/>
+        <v>906</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <f t="shared" si="9"/>
+        <v>907</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <f t="shared" si="9"/>
+        <v>908</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <f t="shared" si="9"/>
+        <v>909</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <f t="shared" si="9"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <f t="shared" ref="A133:A144" si="10">L1</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <f t="shared" si="10"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <f t="shared" si="10"/>
+        <v>901</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <f t="shared" si="10"/>
+        <v>902</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <f t="shared" si="10"/>
+        <v>903</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <f t="shared" si="10"/>
+        <v>904</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <f t="shared" si="10"/>
+        <v>905</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <f t="shared" si="10"/>
+        <v>906</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <f t="shared" si="10"/>
+        <v>907</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <f t="shared" si="10"/>
+        <v>908</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <f t="shared" si="10"/>
+        <v>909</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <f t="shared" si="10"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <f t="shared" ref="A145:A156" si="11">M1</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <f t="shared" si="11"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <f t="shared" si="11"/>
+        <v>901</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <f t="shared" si="11"/>
+        <v>902</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <f t="shared" si="11"/>
+        <v>903</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <f t="shared" si="11"/>
+        <v>904</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <f t="shared" si="11"/>
+        <v>905</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <f t="shared" si="11"/>
+        <v>906</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <f t="shared" si="11"/>
+        <v>907</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <f t="shared" si="11"/>
+        <v>908</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <f t="shared" si="11"/>
+        <v>909</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <f t="shared" si="11"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <f t="shared" ref="A157:A168" si="12">N1</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <f t="shared" si="12"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <f t="shared" si="12"/>
+        <v>901</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <f t="shared" si="12"/>
+        <v>902</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <f t="shared" si="12"/>
+        <v>903</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <f t="shared" si="12"/>
+        <v>904</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <f t="shared" si="12"/>
+        <v>905</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <f t="shared" si="12"/>
+        <v>906</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <f t="shared" si="12"/>
+        <v>907</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <f t="shared" si="12"/>
+        <v>908</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <f t="shared" si="12"/>
+        <v>909</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <f t="shared" si="12"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <f t="shared" ref="A169:A180" si="13">O1</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <f t="shared" si="13"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <f t="shared" si="13"/>
+        <v>901</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <f t="shared" si="13"/>
+        <v>902</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <f t="shared" si="13"/>
+        <v>903</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <f t="shared" si="13"/>
+        <v>904</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <f t="shared" si="13"/>
+        <v>905</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <f t="shared" si="13"/>
+        <v>906</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <f t="shared" si="13"/>
+        <v>907</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <f t="shared" si="13"/>
+        <v>908</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <f t="shared" si="13"/>
+        <v>909</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <f t="shared" si="13"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <f t="shared" ref="A181:A192" si="14">P1</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <f t="shared" si="14"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <f t="shared" si="14"/>
+        <v>901</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <f t="shared" si="14"/>
+        <v>902</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <f t="shared" si="14"/>
+        <v>903</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <f t="shared" si="14"/>
+        <v>904</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <f t="shared" si="14"/>
+        <v>905</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <f t="shared" si="14"/>
+        <v>906</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <f t="shared" si="14"/>
+        <v>907</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <f t="shared" si="14"/>
+        <v>908</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <f t="shared" si="14"/>
+        <v>909</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <f t="shared" si="14"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <f t="shared" ref="A193:A204" si="15">Q1</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <f t="shared" si="15"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <f t="shared" si="15"/>
+        <v>901</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <f t="shared" si="15"/>
+        <v>902</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <f t="shared" si="15"/>
+        <v>903</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <f t="shared" si="15"/>
+        <v>904</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <f t="shared" si="15"/>
+        <v>905</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <f t="shared" si="15"/>
+        <v>906</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <f t="shared" si="15"/>
+        <v>907</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <f t="shared" si="15"/>
+        <v>908</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <f t="shared" si="15"/>
+        <v>909</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <f t="shared" si="15"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <f t="shared" ref="A205:A216" si="16">R1</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <f t="shared" si="16"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <f t="shared" si="16"/>
+        <v>901</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <f t="shared" si="16"/>
+        <v>902</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <f t="shared" si="16"/>
+        <v>903</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <f t="shared" si="16"/>
+        <v>904</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <f t="shared" si="16"/>
+        <v>905</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <f t="shared" si="16"/>
+        <v>906</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <f t="shared" si="16"/>
+        <v>907</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <f t="shared" si="16"/>
+        <v>908</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <f t="shared" si="16"/>
+        <v>909</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <f t="shared" si="16"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <f t="shared" ref="A217:A228" si="17">S1</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <f t="shared" si="17"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <f t="shared" si="17"/>
+        <v>901</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <f t="shared" si="17"/>
+        <v>902</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <f t="shared" si="17"/>
+        <v>903</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <f t="shared" si="17"/>
+        <v>904</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <f t="shared" si="17"/>
+        <v>905</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <f t="shared" si="17"/>
+        <v>906</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <f t="shared" si="17"/>
+        <v>907</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <f t="shared" si="17"/>
+        <v>908</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <f t="shared" si="17"/>
+        <v>909</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <f t="shared" si="17"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <f t="shared" ref="A229:A240" si="18">T1</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <f t="shared" si="18"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <f t="shared" si="18"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <f t="shared" si="18"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <f t="shared" si="18"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <f t="shared" si="18"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <f t="shared" si="18"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <f t="shared" si="18"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <f t="shared" si="18"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <f t="shared" si="18"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <f t="shared" si="18"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <f t="shared" si="18"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <f>U1</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <f>U2</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <f>U3</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <f>U4</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <f>U5</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <f t="shared" ref="A246:A251" si="19">U6</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <f t="shared" si="19"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <f t="shared" si="19"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <f t="shared" si="19"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <f t="shared" si="19"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <f t="shared" si="19"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <f>U12</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <f>V1</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <f>V2</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <f>V3</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <f>V4</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <f>V5</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <f t="shared" ref="A258:A264" si="20">V6</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <f t="shared" si="20"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <f t="shared" si="20"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <f t="shared" si="20"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <f t="shared" si="20"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <f t="shared" si="20"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <f t="shared" si="20"/>
+        <v>999</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="V1:V12">
+    <cfRule type="cellIs" dxfId="220" priority="108" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:A264">
+    <cfRule type="cellIs" dxfId="218" priority="107" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q13:S17">
+    <cfRule type="cellIs" dxfId="214" priority="105" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7">
+    <cfRule type="cellIs" dxfId="212" priority="104" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A2">
+    <cfRule type="cellIs" dxfId="204" priority="100" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6">
+    <cfRule type="cellIs" dxfId="202" priority="99" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8:A10 A12">
+    <cfRule type="cellIs" dxfId="200" priority="98" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11">
+    <cfRule type="cellIs" dxfId="198" priority="97" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="cellIs" dxfId="196" priority="96" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5">
+    <cfRule type="cellIs" dxfId="188" priority="92" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="cellIs" dxfId="182" priority="89" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3">
+    <cfRule type="cellIs" dxfId="176" priority="86" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2">
+    <cfRule type="cellIs" dxfId="172" priority="84" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1">
+    <cfRule type="cellIs" dxfId="170" priority="83" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B12">
+    <cfRule type="cellIs" dxfId="162" priority="80" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D12">
+    <cfRule type="cellIs" dxfId="160" priority="79" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E2 E12">
+    <cfRule type="cellIs" dxfId="158" priority="78" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F2 F12">
+    <cfRule type="cellIs" dxfId="156" priority="77" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:H2 G12:H12">
+    <cfRule type="cellIs" dxfId="152" priority="75" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:I2 I12">
+    <cfRule type="cellIs" dxfId="150" priority="74" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1:M2 J12:M12">
+    <cfRule type="cellIs" dxfId="140" priority="69" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:M2">
+    <cfRule type="cellIs" dxfId="138" priority="68" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N1:N2 N12">
+    <cfRule type="cellIs" dxfId="118" priority="59" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O1:O2 O12">
+    <cfRule type="cellIs" dxfId="110" priority="55" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P1:Q2 P12:Q12">
+    <cfRule type="cellIs" dxfId="102" priority="51" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R1:R2 R12">
+    <cfRule type="cellIs" dxfId="100" priority="50" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S1:S2 S12">
+    <cfRule type="cellIs" dxfId="98" priority="49" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C11">
+    <cfRule type="cellIs" dxfId="94" priority="47" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3 E5 E7 E9 E11">
+    <cfRule type="cellIs" dxfId="90" priority="45" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3 F5 F7 F9 F11">
+    <cfRule type="cellIs" dxfId="86" priority="43" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3 G5 G7 G9 G11">
+    <cfRule type="cellIs" dxfId="82" priority="41" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3 H5 H7 H9 H11">
+    <cfRule type="cellIs" dxfId="78" priority="39" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3 I5 I7 I9 I11">
+    <cfRule type="cellIs" dxfId="74" priority="37" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3 K5 K7 K9 K11">
+    <cfRule type="cellIs" dxfId="72" priority="36" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3 J5 J7 J9 J11">
+    <cfRule type="cellIs" dxfId="70" priority="35" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M3 M5 M7 M9 M11">
+    <cfRule type="cellIs" dxfId="68" priority="34" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3 L5 L7 L9 L11">
+    <cfRule type="cellIs" dxfId="66" priority="33" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O3 O5 O7 O9 O11">
+    <cfRule type="cellIs" dxfId="64" priority="32" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N3 N5 N7 N9 N11">
+    <cfRule type="cellIs" dxfId="62" priority="31" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q3 Q5 Q7 Q9 Q11">
+    <cfRule type="cellIs" dxfId="60" priority="30" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P3 P5 P7 P9 P11">
+    <cfRule type="cellIs" dxfId="58" priority="29" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S3 S5 S7 S9 S11">
+    <cfRule type="cellIs" dxfId="56" priority="28" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R3 R5 R7 R9 R11">
+    <cfRule type="cellIs" dxfId="54" priority="27" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4 F6 F8 F10">
+    <cfRule type="cellIs" dxfId="48" priority="24" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4 E6 E8 E10">
+    <cfRule type="cellIs" dxfId="46" priority="23" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4 H6 H8 H10">
+    <cfRule type="cellIs" dxfId="44" priority="22" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4 G6 G8 G10">
+    <cfRule type="cellIs" dxfId="42" priority="21" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4 J6 J8 J10">
+    <cfRule type="cellIs" dxfId="40" priority="20" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4 I6 I8 I10">
+    <cfRule type="cellIs" dxfId="38" priority="19" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L4 L6 L8 L10">
+    <cfRule type="cellIs" dxfId="36" priority="18" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4 K6 K8 K10">
+    <cfRule type="cellIs" dxfId="34" priority="17" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M4 M6 M8 M10">
+    <cfRule type="cellIs" dxfId="30" priority="15" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O4 O6 O8 O10">
+    <cfRule type="cellIs" dxfId="20" priority="10" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N4 N6 N8 N10">
+    <cfRule type="cellIs" dxfId="18" priority="9" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q4 Q6 Q8 Q10">
+    <cfRule type="cellIs" dxfId="16" priority="8" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P4 P6 P8 P10">
+    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S4 S6 S8 S10">
+    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R4 R6 R8 R10">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U1:U12">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T1:T12">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH19"/>
   <sheetViews>
@@ -6044,7 +15208,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T19"/>
   <sheetViews>
@@ -7238,7 +16402,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A13:A264"/>
   <sheetViews>
@@ -7248,61 +16412,61 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="13" spans="1:1" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" ref="A13:A24" si="0">B1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>0</v>

--- a/Mall.xlsx
+++ b/Mall.xlsx
@@ -9,16 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7875" yWindow="465" windowWidth="21585" windowHeight="9495" tabRatio="500" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="7875" yWindow="465" windowWidth="21585" windowHeight="9495" tabRatio="500" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="NEW MALL" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet5" sheetId="6" r:id="rId3"/>
-    <sheet name="Sheet6" sheetId="7" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId6"/>
-    <sheet name="Sheet4" sheetId="5" r:id="rId7"/>
+    <sheet name="REGULAR GRID" sheetId="4" r:id="rId1"/>
+    <sheet name="TESTING GRID" sheetId="6" r:id="rId2"/>
+    <sheet name="CHOOSE STORE GRID" sheetId="7" r:id="rId3"/>
+    <sheet name="CONFIRM GRID" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
@@ -27,20 +24,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Up</t>
-  </si>
-  <si>
-    <t>Down</t>
-  </si>
-  <si>
-    <t>Pause</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -70,48 +53,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -128,834 +75,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="431">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="350">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4732,877 +3860,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.625" customWidth="1"/>
-    <col min="4" max="4" width="3.625" customWidth="1"/>
-    <col min="9" max="9" width="3.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>999</v>
-      </c>
-      <c r="B1">
-        <v>999</v>
-      </c>
-      <c r="C1">
-        <v>999</v>
-      </c>
-      <c r="D1">
-        <v>999</v>
-      </c>
-      <c r="E1">
-        <v>999</v>
-      </c>
-      <c r="F1">
-        <v>999</v>
-      </c>
-      <c r="G1">
-        <v>999</v>
-      </c>
-      <c r="H1">
-        <v>999</v>
-      </c>
-      <c r="I1">
-        <v>999</v>
-      </c>
-      <c r="J1">
-        <v>999</v>
-      </c>
-      <c r="K1">
-        <v>999</v>
-      </c>
-      <c r="L1">
-        <v>999</v>
-      </c>
-      <c r="M1">
-        <v>999</v>
-      </c>
-      <c r="N1">
-        <v>999</v>
-      </c>
-      <c r="O1">
-        <v>999</v>
-      </c>
-      <c r="P1">
-        <v>999</v>
-      </c>
-      <c r="Q1">
-        <v>999</v>
-      </c>
-      <c r="R1">
-        <v>800</v>
-      </c>
-      <c r="S1">
-        <v>800</v>
-      </c>
-      <c r="T1">
-        <v>800</v>
-      </c>
-      <c r="U1">
-        <v>800</v>
-      </c>
-      <c r="V1">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>999</v>
-      </c>
-      <c r="B2">
-        <v>101</v>
-      </c>
-      <c r="C2">
-        <v>101</v>
-      </c>
-      <c r="D2">
-        <v>999</v>
-      </c>
-      <c r="E2">
-        <v>107</v>
-      </c>
-      <c r="F2">
-        <v>107</v>
-      </c>
-      <c r="G2">
-        <v>113</v>
-      </c>
-      <c r="H2">
-        <v>113</v>
-      </c>
-      <c r="I2">
-        <v>999</v>
-      </c>
-      <c r="J2">
-        <v>117</v>
-      </c>
-      <c r="K2">
-        <v>117</v>
-      </c>
-      <c r="L2">
-        <v>117</v>
-      </c>
-      <c r="M2">
-        <v>117</v>
-      </c>
-      <c r="N2">
-        <v>999</v>
-      </c>
-      <c r="O2">
-        <v>133</v>
-      </c>
-      <c r="P2">
-        <v>133</v>
-      </c>
-      <c r="Q2">
-        <v>999</v>
-      </c>
-      <c r="R2">
-        <v>801</v>
-      </c>
-      <c r="S2">
-        <v>801</v>
-      </c>
-      <c r="T2">
-        <v>801</v>
-      </c>
-      <c r="U2">
-        <v>801</v>
-      </c>
-      <c r="V2">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>999</v>
-      </c>
-      <c r="B3">
-        <v>101</v>
-      </c>
-      <c r="C3">
-        <v>101</v>
-      </c>
-      <c r="D3">
-        <v>999</v>
-      </c>
-      <c r="E3">
-        <v>107</v>
-      </c>
-      <c r="F3">
-        <v>107</v>
-      </c>
-      <c r="G3">
-        <v>113</v>
-      </c>
-      <c r="H3">
-        <v>113</v>
-      </c>
-      <c r="I3">
-        <v>999</v>
-      </c>
-      <c r="J3">
-        <v>117</v>
-      </c>
-      <c r="K3">
-        <v>117</v>
-      </c>
-      <c r="L3">
-        <v>117</v>
-      </c>
-      <c r="M3">
-        <v>117</v>
-      </c>
-      <c r="N3">
-        <v>999</v>
-      </c>
-      <c r="O3">
-        <v>133</v>
-      </c>
-      <c r="P3">
-        <v>133</v>
-      </c>
-      <c r="Q3">
-        <v>999</v>
-      </c>
-      <c r="R3">
-        <v>802</v>
-      </c>
-      <c r="S3">
-        <v>802</v>
-      </c>
-      <c r="T3">
-        <v>802</v>
-      </c>
-      <c r="U3">
-        <v>802</v>
-      </c>
-      <c r="V3">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>999</v>
-      </c>
-      <c r="B4">
-        <v>999</v>
-      </c>
-      <c r="C4">
-        <v>999</v>
-      </c>
-      <c r="D4">
-        <v>999</v>
-      </c>
-      <c r="E4">
-        <v>999</v>
-      </c>
-      <c r="F4">
-        <v>999</v>
-      </c>
-      <c r="G4">
-        <v>999</v>
-      </c>
-      <c r="H4">
-        <v>999</v>
-      </c>
-      <c r="I4">
-        <v>999</v>
-      </c>
-      <c r="J4">
-        <v>999</v>
-      </c>
-      <c r="K4">
-        <v>999</v>
-      </c>
-      <c r="L4">
-        <v>999</v>
-      </c>
-      <c r="M4">
-        <v>999</v>
-      </c>
-      <c r="N4">
-        <v>999</v>
-      </c>
-      <c r="O4">
-        <v>133</v>
-      </c>
-      <c r="P4">
-        <v>133</v>
-      </c>
-      <c r="Q4">
-        <v>999</v>
-      </c>
-      <c r="R4">
-        <v>803</v>
-      </c>
-      <c r="S4">
-        <v>803</v>
-      </c>
-      <c r="T4">
-        <v>803</v>
-      </c>
-      <c r="U4">
-        <v>803</v>
-      </c>
-      <c r="V4">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>999</v>
-      </c>
-      <c r="B5">
-        <v>102</v>
-      </c>
-      <c r="C5">
-        <v>102</v>
-      </c>
-      <c r="D5">
-        <v>999</v>
-      </c>
-      <c r="E5">
-        <v>108</v>
-      </c>
-      <c r="F5">
-        <v>108</v>
-      </c>
-      <c r="G5">
-        <v>114</v>
-      </c>
-      <c r="H5">
-        <v>114</v>
-      </c>
-      <c r="I5">
-        <v>999</v>
-      </c>
-      <c r="J5">
-        <v>118</v>
-      </c>
-      <c r="K5">
-        <v>118</v>
-      </c>
-      <c r="L5">
-        <v>118</v>
-      </c>
-      <c r="M5">
-        <v>118</v>
-      </c>
-      <c r="N5">
-        <v>999</v>
-      </c>
-      <c r="O5">
-        <v>133</v>
-      </c>
-      <c r="P5">
-        <v>133</v>
-      </c>
-      <c r="Q5">
-        <v>999</v>
-      </c>
-      <c r="R5">
-        <v>804</v>
-      </c>
-      <c r="S5">
-        <v>804</v>
-      </c>
-      <c r="T5">
-        <v>804</v>
-      </c>
-      <c r="U5">
-        <v>804</v>
-      </c>
-      <c r="V5">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>999</v>
-      </c>
-      <c r="B6">
-        <v>102</v>
-      </c>
-      <c r="C6">
-        <v>102</v>
-      </c>
-      <c r="D6">
-        <v>999</v>
-      </c>
-      <c r="E6">
-        <v>108</v>
-      </c>
-      <c r="F6">
-        <v>108</v>
-      </c>
-      <c r="G6">
-        <v>114</v>
-      </c>
-      <c r="H6">
-        <v>114</v>
-      </c>
-      <c r="I6">
-        <v>999</v>
-      </c>
-      <c r="J6">
-        <v>118</v>
-      </c>
-      <c r="K6">
-        <v>118</v>
-      </c>
-      <c r="L6">
-        <v>118</v>
-      </c>
-      <c r="M6">
-        <v>118</v>
-      </c>
-      <c r="N6">
-        <v>999</v>
-      </c>
-      <c r="O6">
-        <v>999</v>
-      </c>
-      <c r="P6">
-        <v>132</v>
-      </c>
-      <c r="Q6">
-        <v>999</v>
-      </c>
-      <c r="R6">
-        <v>999</v>
-      </c>
-      <c r="S6">
-        <v>999</v>
-      </c>
-      <c r="T6">
-        <v>999</v>
-      </c>
-      <c r="U6">
-        <v>999</v>
-      </c>
-      <c r="V6">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>999</v>
-      </c>
-      <c r="B7">
-        <v>103</v>
-      </c>
-      <c r="C7">
-        <v>104</v>
-      </c>
-      <c r="D7">
-        <v>999</v>
-      </c>
-      <c r="E7">
-        <v>109</v>
-      </c>
-      <c r="F7">
-        <v>110</v>
-      </c>
-      <c r="G7">
-        <v>115</v>
-      </c>
-      <c r="H7">
-        <v>115</v>
-      </c>
-      <c r="I7">
-        <v>999</v>
-      </c>
-      <c r="J7">
-        <v>119</v>
-      </c>
-      <c r="K7">
-        <v>119</v>
-      </c>
-      <c r="L7">
-        <v>120</v>
-      </c>
-      <c r="M7">
-        <v>120</v>
-      </c>
-      <c r="N7">
-        <v>999</v>
-      </c>
-      <c r="O7">
-        <v>999</v>
-      </c>
-      <c r="P7">
-        <v>131</v>
-      </c>
-      <c r="Q7">
-        <v>999</v>
-      </c>
-      <c r="R7">
-        <v>999</v>
-      </c>
-      <c r="S7">
-        <v>999</v>
-      </c>
-      <c r="T7">
-        <v>999</v>
-      </c>
-      <c r="U7">
-        <v>999</v>
-      </c>
-      <c r="V7">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>999</v>
-      </c>
-      <c r="B8">
-        <v>103</v>
-      </c>
-      <c r="C8">
-        <v>104</v>
-      </c>
-      <c r="D8">
-        <v>999</v>
-      </c>
-      <c r="E8">
-        <v>109</v>
-      </c>
-      <c r="F8">
-        <v>110</v>
-      </c>
-      <c r="G8">
-        <v>115</v>
-      </c>
-      <c r="H8">
-        <v>115</v>
-      </c>
-      <c r="I8">
-        <v>999</v>
-      </c>
-      <c r="J8">
-        <v>119</v>
-      </c>
-      <c r="K8">
-        <v>119</v>
-      </c>
-      <c r="L8">
-        <v>120</v>
-      </c>
-      <c r="M8">
-        <v>120</v>
-      </c>
-      <c r="N8">
-        <v>999</v>
-      </c>
-      <c r="O8">
-        <v>999</v>
-      </c>
-      <c r="P8">
-        <v>130</v>
-      </c>
-      <c r="Q8">
-        <v>999</v>
-      </c>
-      <c r="R8">
-        <v>999</v>
-      </c>
-      <c r="S8">
-        <v>999</v>
-      </c>
-      <c r="T8">
-        <v>999</v>
-      </c>
-      <c r="U8">
-        <v>999</v>
-      </c>
-      <c r="V8">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>999</v>
-      </c>
-      <c r="B9">
-        <v>999</v>
-      </c>
-      <c r="C9">
-        <v>999</v>
-      </c>
-      <c r="D9">
-        <v>999</v>
-      </c>
-      <c r="E9">
-        <v>999</v>
-      </c>
-      <c r="F9">
-        <v>999</v>
-      </c>
-      <c r="G9">
-        <v>999</v>
-      </c>
-      <c r="H9">
-        <v>999</v>
-      </c>
-      <c r="I9">
-        <v>999</v>
-      </c>
-      <c r="J9">
-        <v>999</v>
-      </c>
-      <c r="K9">
-        <v>999</v>
-      </c>
-      <c r="L9">
-        <v>999</v>
-      </c>
-      <c r="M9">
-        <v>999</v>
-      </c>
-      <c r="N9">
-        <v>999</v>
-      </c>
-      <c r="O9">
-        <v>999</v>
-      </c>
-      <c r="P9">
-        <v>129</v>
-      </c>
-      <c r="Q9">
-        <v>999</v>
-      </c>
-      <c r="R9">
-        <v>999</v>
-      </c>
-      <c r="S9">
-        <v>999</v>
-      </c>
-      <c r="T9">
-        <v>999</v>
-      </c>
-      <c r="U9">
-        <v>999</v>
-      </c>
-      <c r="V9">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>999</v>
-      </c>
-      <c r="B10">
-        <v>105</v>
-      </c>
-      <c r="C10">
-        <v>106</v>
-      </c>
-      <c r="D10">
-        <v>999</v>
-      </c>
-      <c r="E10">
-        <v>111</v>
-      </c>
-      <c r="F10">
-        <v>112</v>
-      </c>
-      <c r="G10">
-        <v>116</v>
-      </c>
-      <c r="H10">
-        <v>116</v>
-      </c>
-      <c r="I10">
-        <v>999</v>
-      </c>
-      <c r="J10">
-        <v>121</v>
-      </c>
-      <c r="K10">
-        <v>121</v>
-      </c>
-      <c r="L10">
-        <v>122</v>
-      </c>
-      <c r="M10">
-        <v>999</v>
-      </c>
-      <c r="N10">
-        <v>999</v>
-      </c>
-      <c r="O10">
-        <v>999</v>
-      </c>
-      <c r="P10">
-        <v>128</v>
-      </c>
-      <c r="Q10">
-        <v>999</v>
-      </c>
-      <c r="R10">
-        <v>999</v>
-      </c>
-      <c r="S10">
-        <v>999</v>
-      </c>
-      <c r="T10">
-        <v>999</v>
-      </c>
-      <c r="U10">
-        <v>999</v>
-      </c>
-      <c r="V10">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>999</v>
-      </c>
-      <c r="B11">
-        <v>105</v>
-      </c>
-      <c r="C11">
-        <v>106</v>
-      </c>
-      <c r="D11">
-        <v>999</v>
-      </c>
-      <c r="E11">
-        <v>111</v>
-      </c>
-      <c r="F11">
-        <v>112</v>
-      </c>
-      <c r="G11">
-        <v>116</v>
-      </c>
-      <c r="H11">
-        <v>116</v>
-      </c>
-      <c r="I11">
-        <v>999</v>
-      </c>
-      <c r="J11">
-        <v>121</v>
-      </c>
-      <c r="K11">
-        <v>121</v>
-      </c>
-      <c r="L11">
-        <v>123</v>
-      </c>
-      <c r="M11">
-        <v>124</v>
-      </c>
-      <c r="N11">
-        <v>125</v>
-      </c>
-      <c r="O11">
-        <v>126</v>
-      </c>
-      <c r="P11">
-        <v>127</v>
-      </c>
-      <c r="Q11">
-        <v>999</v>
-      </c>
-      <c r="R11">
-        <v>999</v>
-      </c>
-      <c r="S11">
-        <v>999</v>
-      </c>
-      <c r="T11">
-        <v>999</v>
-      </c>
-      <c r="U11">
-        <v>999</v>
-      </c>
-      <c r="V11">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>999</v>
-      </c>
-      <c r="B12">
-        <v>999</v>
-      </c>
-      <c r="C12">
-        <v>999</v>
-      </c>
-      <c r="D12">
-        <v>999</v>
-      </c>
-      <c r="E12">
-        <v>999</v>
-      </c>
-      <c r="F12">
-        <v>999</v>
-      </c>
-      <c r="G12">
-        <v>999</v>
-      </c>
-      <c r="H12">
-        <v>999</v>
-      </c>
-      <c r="I12">
-        <v>999</v>
-      </c>
-      <c r="J12">
-        <v>999</v>
-      </c>
-      <c r="K12">
-        <v>999</v>
-      </c>
-      <c r="L12">
-        <v>999</v>
-      </c>
-      <c r="M12">
-        <v>999</v>
-      </c>
-      <c r="N12">
-        <v>999</v>
-      </c>
-      <c r="O12">
-        <v>999</v>
-      </c>
-      <c r="P12">
-        <v>999</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>0</v>
-      </c>
-      <c r="R12" t="s">
-        <v>1</v>
-      </c>
-      <c r="S12" t="s">
-        <v>2</v>
-      </c>
-      <c r="T12">
-        <v>808</v>
-      </c>
-      <c r="U12">
-        <v>809</v>
-      </c>
-      <c r="V12">
-        <v>999</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A1:V1 A4:V4 A2:A3 D2:D3 I2:V3 L7:O8 A9:O9 A5:A8 A10:A11 M10:O10 D10:D11 D5:D8 I5:O6 I7:I8 I10:K10 I11:J11 Q5:V10 Q11 A12:P12 R12">
-    <cfRule type="cellIs" dxfId="430" priority="6" operator="equal">
-      <formula>999</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A12">
-    <cfRule type="cellIs" dxfId="429" priority="5" operator="equal">
-      <formula>999</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S12 V11:V12">
-    <cfRule type="cellIs" dxfId="428" priority="4" operator="equal">
-      <formula>999</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T12:U12">
-    <cfRule type="cellIs" dxfId="427" priority="3" operator="equal">
-      <formula>999</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R11:U11">
-    <cfRule type="cellIs" dxfId="426" priority="2" operator="equal">
-      <formula>999</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q12">
-    <cfRule type="cellIs" dxfId="425" priority="1" operator="equal">
-      <formula>999</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V264"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:V264"/>
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7941,142 +6202,142 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="V6 F12:P12 T1:V5 V12 T7:V11 F1:S1 G2:H3 O7:S8 G10:H11 G5:H8 L5:S6 L7:M8 M10:S10 L10:N11 L2:T3 F9:S9 F4:T4">
-    <cfRule type="cellIs" dxfId="424" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="349" priority="52" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:A264">
-    <cfRule type="cellIs" dxfId="423" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="348" priority="51" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:U6 T12:U12">
-    <cfRule type="cellIs" dxfId="422" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="347" priority="48" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q12:S17">
-    <cfRule type="cellIs" dxfId="417" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="42" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="cellIs" dxfId="372" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="299" priority="24" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="370" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="23" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11 B7:D10">
-    <cfRule type="cellIs" dxfId="368" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="22" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:C11">
-    <cfRule type="cellIs" dxfId="366" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="21" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A2">
-    <cfRule type="cellIs" dxfId="364" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="295" priority="20" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="cellIs" dxfId="362" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="19" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:A10 A12">
-    <cfRule type="cellIs" dxfId="360" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="18" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="cellIs" dxfId="358" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="17" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:D12">
-    <cfRule type="cellIs" dxfId="356" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="291" priority="16" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E2 E7:E11">
-    <cfRule type="cellIs" dxfId="354" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="15" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6 E12">
-    <cfRule type="cellIs" dxfId="352" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="14" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:D5">
-    <cfRule type="cellIs" dxfId="350" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="13" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" dxfId="348" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="287" priority="12" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="346" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="11" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:D4">
-    <cfRule type="cellIs" dxfId="344" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="10" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="342" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="9" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="340" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="8" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:D3">
-    <cfRule type="cellIs" dxfId="338" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="7" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="cellIs" dxfId="336" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="6" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="334" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="5" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:D2">
-    <cfRule type="cellIs" dxfId="332" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="279" priority="4" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:D1">
-    <cfRule type="cellIs" dxfId="330" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="3" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="328" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="2" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="cellIs" dxfId="326" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="1" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8084,12 +6345,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V264"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10427,142 +8688,142 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="V6 F12:P12 T1:V5 V12 T7:V11 F1:S1 G2:H3 O7:S8 G10:H11 G5:H8 L5:S6 L7:M8 M10:S10 M11:N11 L10:L11 L2:S3 F9:S9 F4:S4">
-    <cfRule type="cellIs" dxfId="400" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="50" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:A264">
-    <cfRule type="cellIs" dxfId="399" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="49" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:U6 T12:U12">
-    <cfRule type="cellIs" dxfId="398" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="323" priority="48" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q12:S17">
-    <cfRule type="cellIs" dxfId="393" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="43" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="cellIs" dxfId="324" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="24" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="322" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="23" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11 B7:D10">
-    <cfRule type="cellIs" dxfId="320" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="22" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:C11">
-    <cfRule type="cellIs" dxfId="318" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="21" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A2">
-    <cfRule type="cellIs" dxfId="316" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="20" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="cellIs" dxfId="314" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="19" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:A10 A12">
-    <cfRule type="cellIs" dxfId="312" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="18" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="cellIs" dxfId="310" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="17" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:D12">
-    <cfRule type="cellIs" dxfId="308" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="16" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E2 E7:E11">
-    <cfRule type="cellIs" dxfId="306" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="15" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6 E12">
-    <cfRule type="cellIs" dxfId="304" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="14" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:D5">
-    <cfRule type="cellIs" dxfId="302" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="13" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" dxfId="300" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="12" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="298" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="11" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:D4">
-    <cfRule type="cellIs" dxfId="296" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="10" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="294" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="9" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="292" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="8" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:D3">
-    <cfRule type="cellIs" dxfId="290" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="7" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="cellIs" dxfId="288" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="6" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="286" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="5" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:D2">
-    <cfRule type="cellIs" dxfId="284" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="4" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:D1">
-    <cfRule type="cellIs" dxfId="282" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="3" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="280" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="2" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="cellIs" dxfId="278" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="1" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10570,12 +8831,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V264"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1:T12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10857,7 +9118,7 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>812</v>
+        <v>999</v>
       </c>
       <c r="B5">
         <v>999</v>
@@ -10925,7 +9186,7 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>813</v>
+        <v>999</v>
       </c>
       <c r="B6">
         <v>999</v>
@@ -11265,7 +9526,7 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>809</v>
+        <v>999</v>
       </c>
       <c r="B11">
         <v>999</v>
@@ -12913,5018 +11174,2867 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="V1:V12">
-    <cfRule type="cellIs" dxfId="220" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="109" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:A264">
-    <cfRule type="cellIs" dxfId="218" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="108" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q13:S17">
-    <cfRule type="cellIs" dxfId="214" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="106" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="cellIs" dxfId="212" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="105" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A2">
-    <cfRule type="cellIs" dxfId="204" priority="100" operator="equal">
-      <formula>999</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A6">
-    <cfRule type="cellIs" dxfId="202" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="101" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:A10 A12">
-    <cfRule type="cellIs" dxfId="200" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="99" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="cellIs" dxfId="198" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="98" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="cellIs" dxfId="196" priority="96" operator="equal">
-      <formula>999</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" dxfId="188" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="97" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="182" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="90" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="cellIs" dxfId="176" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="87" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="cellIs" dxfId="172" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="85" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="cellIs" dxfId="170" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="84" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B12">
-    <cfRule type="cellIs" dxfId="162" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="81" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D12">
-    <cfRule type="cellIs" dxfId="160" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="80" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E2 E12">
-    <cfRule type="cellIs" dxfId="158" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="79" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F2 F12">
-    <cfRule type="cellIs" dxfId="156" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="78" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:H2 G12:H12">
-    <cfRule type="cellIs" dxfId="152" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="76" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I2 I12">
-    <cfRule type="cellIs" dxfId="150" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="75" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:M2 J12:M12">
-    <cfRule type="cellIs" dxfId="140" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="70" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:M2">
-    <cfRule type="cellIs" dxfId="138" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="69" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N2 N12">
-    <cfRule type="cellIs" dxfId="118" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="60" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O2 O12">
-    <cfRule type="cellIs" dxfId="110" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="56" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1:Q2 P12:Q12">
-    <cfRule type="cellIs" dxfId="102" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="52" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R2 R12">
-    <cfRule type="cellIs" dxfId="100" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="51" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S2 S12">
-    <cfRule type="cellIs" dxfId="98" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="50" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C11">
-    <cfRule type="cellIs" dxfId="94" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="48" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3 E5 E7 E9 E11">
-    <cfRule type="cellIs" dxfId="90" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="46" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3 F5 F7 F9 F11">
-    <cfRule type="cellIs" dxfId="86" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="44" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3 G5 G7 G9 G11">
-    <cfRule type="cellIs" dxfId="82" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="42" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3 H5 H7 H9 H11">
-    <cfRule type="cellIs" dxfId="78" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="40" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3 I5 I7 I9 I11">
-    <cfRule type="cellIs" dxfId="74" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="38" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3 K5 K7 K9 K11">
-    <cfRule type="cellIs" dxfId="72" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="37" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3 J5 J7 J9 J11">
-    <cfRule type="cellIs" dxfId="70" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="36" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3 M5 M7 M9 M11">
-    <cfRule type="cellIs" dxfId="68" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="35" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3 L5 L7 L9 L11">
-    <cfRule type="cellIs" dxfId="66" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="34" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3 O5 O7 O9 O11">
-    <cfRule type="cellIs" dxfId="64" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="33" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3 N5 N7 N9 N11">
-    <cfRule type="cellIs" dxfId="62" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="32" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3 Q5 Q7 Q9 Q11">
-    <cfRule type="cellIs" dxfId="60" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="31" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3 P5 P7 P9 P11">
-    <cfRule type="cellIs" dxfId="58" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="30" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3 S5 S7 S9 S11">
-    <cfRule type="cellIs" dxfId="56" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="29" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R3 R5 R7 R9 R11">
-    <cfRule type="cellIs" dxfId="54" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="28" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4 F6 F8 F10">
-    <cfRule type="cellIs" dxfId="48" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="25" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4 E6 E8 E10">
-    <cfRule type="cellIs" dxfId="46" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="24" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4 H6 H8 H10">
-    <cfRule type="cellIs" dxfId="44" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="23" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4 G6 G8 G10">
-    <cfRule type="cellIs" dxfId="42" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="22" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4 J6 J8 J10">
-    <cfRule type="cellIs" dxfId="40" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="21" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4 I6 I8 I10">
-    <cfRule type="cellIs" dxfId="38" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="20" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L8 L10">
-    <cfRule type="cellIs" dxfId="36" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="19" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4 K6 K8 K10">
-    <cfRule type="cellIs" dxfId="34" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="18" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4 M6 M8 M10">
-    <cfRule type="cellIs" dxfId="30" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="16" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4 O6 O8 O10">
-    <cfRule type="cellIs" dxfId="20" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="11" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4 N6 N8 N10">
-    <cfRule type="cellIs" dxfId="18" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="10" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q4 Q6 Q8 Q10">
-    <cfRule type="cellIs" dxfId="16" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="9" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4 P6 P8 P10">
-    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="8" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S4 S6 S8 S10">
-    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="7" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R4 R6 R8 R10">
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="6" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1:U12">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="3" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T12">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="2" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:A6">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH19"/>
+  <dimension ref="A1:V264"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="O17" sqref="N17:O18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="8" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="22" width="3.875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1">
-        <v>0</v>
-      </c>
-      <c r="G1" s="1">
-        <v>0</v>
-      </c>
-      <c r="H1" s="1">
-        <v>0</v>
-      </c>
-      <c r="I1" s="1">
-        <v>0</v>
-      </c>
-      <c r="J1" s="1">
-        <v>0</v>
-      </c>
-      <c r="K1" s="1">
-        <v>0</v>
-      </c>
-      <c r="L1" s="1">
-        <v>0</v>
-      </c>
-      <c r="M1" s="1">
-        <v>0</v>
-      </c>
-      <c r="N1" s="1">
-        <v>0</v>
-      </c>
-      <c r="O1" s="1">
-        <v>0</v>
-      </c>
-      <c r="P1" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q1" s="1">
-        <v>0</v>
-      </c>
-      <c r="R1" s="1">
-        <v>0</v>
-      </c>
-      <c r="S1" s="1">
-        <v>0</v>
-      </c>
-      <c r="T1" s="1">
-        <v>0</v>
-      </c>
-      <c r="U1" s="1">
-        <v>0</v>
-      </c>
-      <c r="V1" s="1">
-        <v>0</v>
-      </c>
-      <c r="W1" s="1">
-        <v>0</v>
-      </c>
-      <c r="X1" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0</v>
-      </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
-        <v>0</v>
-      </c>
-      <c r="N2" s="1">
-        <v>0</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>0</v>
-      </c>
-      <c r="R2" s="1">
-        <v>0</v>
-      </c>
-      <c r="S2" s="1">
-        <v>0</v>
-      </c>
-      <c r="T2" s="1">
-        <v>0</v>
-      </c>
-      <c r="U2" s="1">
-        <v>0</v>
-      </c>
-      <c r="V2" s="1">
-        <v>0</v>
-      </c>
-      <c r="W2" s="1">
-        <v>0</v>
-      </c>
-      <c r="X2" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0</v>
-      </c>
-      <c r="L3" s="1">
-        <v>0</v>
-      </c>
-      <c r="M3" s="1">
-        <v>0</v>
-      </c>
-      <c r="N3" s="1">
-        <v>0</v>
-      </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>0</v>
-      </c>
-      <c r="R3" s="1">
-        <v>0</v>
-      </c>
-      <c r="S3" s="1">
-        <v>0</v>
-      </c>
-      <c r="T3" s="1">
-        <v>0</v>
-      </c>
-      <c r="U3" s="1">
-        <v>0</v>
-      </c>
-      <c r="V3" s="1">
-        <v>0</v>
-      </c>
-      <c r="W3" s="1">
-        <v>0</v>
-      </c>
-      <c r="X3" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="4">
-        <v>28</v>
-      </c>
-      <c r="L4" s="4">
-        <v>28</v>
-      </c>
-      <c r="M4" s="4">
-        <v>28</v>
-      </c>
-      <c r="N4" s="4">
-        <v>28</v>
-      </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="8">
-        <v>15</v>
-      </c>
-      <c r="Q4" s="8">
-        <v>14</v>
-      </c>
-      <c r="R4" s="8">
-        <v>13</v>
-      </c>
-      <c r="S4" s="8">
-        <v>12</v>
-      </c>
-      <c r="T4" s="8">
-        <v>11</v>
-      </c>
-      <c r="U4" s="1">
-        <v>0</v>
-      </c>
-      <c r="V4" s="1">
-        <v>0</v>
-      </c>
-      <c r="W4" s="1">
-        <v>0</v>
-      </c>
-      <c r="X4" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-      <c r="K5" s="4">
-        <v>28</v>
-      </c>
-      <c r="L5" s="4">
-        <v>28</v>
-      </c>
-      <c r="M5" s="4">
-        <v>28</v>
-      </c>
-      <c r="N5" s="4">
-        <v>28</v>
-      </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>0</v>
-      </c>
-      <c r="R5" s="1">
-        <v>0</v>
-      </c>
-      <c r="S5" s="1">
-        <v>0</v>
-      </c>
-      <c r="T5" s="6">
-        <v>0</v>
-      </c>
-      <c r="U5" s="1">
-        <v>0</v>
-      </c>
-      <c r="V5" s="1">
-        <v>0</v>
-      </c>
-      <c r="W5" s="1">
-        <v>0</v>
-      </c>
-      <c r="X5" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
-      <c r="L6" s="1">
-        <v>0</v>
-      </c>
-      <c r="M6" s="1">
-        <v>0</v>
-      </c>
-      <c r="N6" s="1">
-        <v>0</v>
-      </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>0</v>
-      </c>
-      <c r="R6" s="1">
-        <v>0</v>
-      </c>
-      <c r="S6" s="1">
-        <v>0</v>
-      </c>
-      <c r="T6" s="9">
-        <v>10</v>
-      </c>
-      <c r="U6" s="1">
-        <v>0</v>
-      </c>
-      <c r="V6" s="1">
-        <v>0</v>
-      </c>
-      <c r="W6" s="1">
-        <v>0</v>
-      </c>
-      <c r="X6" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2">
-        <v>29</v>
-      </c>
-      <c r="L7" s="2">
-        <v>29</v>
-      </c>
-      <c r="M7" s="1">
-        <v>0</v>
-      </c>
-      <c r="N7" s="4">
-        <v>26</v>
-      </c>
-      <c r="O7" s="4">
-        <v>26</v>
-      </c>
-      <c r="P7" s="2">
-        <v>16</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>16</v>
-      </c>
-      <c r="R7" s="1">
-        <v>0</v>
-      </c>
-      <c r="S7" s="1">
-        <v>0</v>
-      </c>
-      <c r="T7" s="8">
-        <v>9</v>
-      </c>
-      <c r="U7" s="1">
-        <v>0</v>
-      </c>
-      <c r="V7" s="1">
-        <v>0</v>
-      </c>
-      <c r="W7" s="1">
-        <v>0</v>
-      </c>
-      <c r="X7" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>0</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
-      <c r="K8" s="2">
-        <v>29</v>
-      </c>
-      <c r="L8" s="2">
-        <v>29</v>
-      </c>
-      <c r="M8" s="1">
-        <v>0</v>
-      </c>
-      <c r="N8" s="4">
-        <v>26</v>
-      </c>
-      <c r="O8" s="4">
-        <v>26</v>
-      </c>
-      <c r="P8" s="2">
-        <v>16</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>16</v>
-      </c>
-      <c r="R8" s="1">
-        <v>0</v>
-      </c>
-      <c r="S8" s="8">
-        <v>7</v>
-      </c>
-      <c r="T8" s="8">
-        <v>8</v>
-      </c>
-      <c r="U8" s="1">
-        <v>0</v>
-      </c>
-      <c r="V8" s="1">
-        <v>0</v>
-      </c>
-      <c r="W8" s="1">
-        <v>0</v>
-      </c>
-      <c r="X8" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>0</v>
-      </c>
-      <c r="B9" s="1">
-        <v>0</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0</v>
-      </c>
-      <c r="K9" s="2">
-        <v>29</v>
-      </c>
-      <c r="L9" s="2">
-        <v>29</v>
-      </c>
-      <c r="M9" s="1">
-        <v>0</v>
-      </c>
-      <c r="N9" s="4">
-        <v>26</v>
-      </c>
-      <c r="O9" s="4">
-        <v>26</v>
-      </c>
-      <c r="P9" s="4">
-        <v>17</v>
-      </c>
-      <c r="Q9" s="4">
-        <v>17</v>
-      </c>
-      <c r="R9" s="1">
-        <v>0</v>
-      </c>
-      <c r="S9" s="4">
-        <v>6</v>
-      </c>
-      <c r="T9" s="4">
-        <v>6</v>
-      </c>
-      <c r="U9" s="1">
-        <v>0</v>
-      </c>
-      <c r="V9" s="1">
-        <v>0</v>
-      </c>
-      <c r="W9" s="1">
-        <v>0</v>
-      </c>
-      <c r="X9" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>0</v>
-      </c>
-      <c r="B10" s="1">
-        <v>0</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1">
-        <v>0</v>
-      </c>
-      <c r="K10" s="2">
-        <v>29</v>
-      </c>
-      <c r="L10" s="2">
-        <v>29</v>
-      </c>
-      <c r="M10" s="1">
-        <v>0</v>
-      </c>
-      <c r="N10" s="4">
-        <v>26</v>
-      </c>
-      <c r="O10" s="4">
-        <v>26</v>
-      </c>
-      <c r="P10" s="4">
-        <v>17</v>
-      </c>
-      <c r="Q10" s="4">
-        <v>17</v>
-      </c>
-      <c r="R10" s="1">
-        <v>0</v>
-      </c>
-      <c r="S10" s="4">
-        <v>6</v>
-      </c>
-      <c r="T10" s="4">
-        <v>6</v>
-      </c>
-      <c r="U10" s="1">
-        <v>0</v>
-      </c>
-      <c r="V10" s="1">
-        <v>0</v>
-      </c>
-      <c r="W10" s="1">
-        <v>0</v>
-      </c>
-      <c r="X10" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>0</v>
-      </c>
-      <c r="B11" s="1">
-        <v>0</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0</v>
-      </c>
-      <c r="K11" s="1">
-        <v>0</v>
-      </c>
-      <c r="L11" s="1">
-        <v>0</v>
-      </c>
-      <c r="M11" s="1">
-        <v>0</v>
-      </c>
-      <c r="N11" s="1">
-        <v>0</v>
-      </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>0</v>
-      </c>
-      <c r="R11" s="1">
-        <v>0</v>
-      </c>
-      <c r="S11" s="1">
-        <v>0</v>
-      </c>
-      <c r="T11" s="1">
-        <v>0</v>
-      </c>
-      <c r="U11" s="1">
-        <v>0</v>
-      </c>
-      <c r="V11" s="1">
-        <v>0</v>
-      </c>
-      <c r="W11" s="1">
-        <v>0</v>
-      </c>
-      <c r="X11" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>0</v>
-      </c>
-      <c r="B12" s="1">
-        <v>0</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0</v>
-      </c>
-      <c r="J12" s="1">
-        <v>0</v>
-      </c>
-      <c r="K12" s="4">
-        <v>30</v>
-      </c>
-      <c r="L12" s="4">
-        <v>30</v>
-      </c>
-      <c r="M12" s="1">
-        <v>0</v>
-      </c>
-      <c r="N12" s="5">
-        <v>25</v>
-      </c>
-      <c r="O12" s="5">
-        <v>25</v>
-      </c>
-      <c r="P12" s="4">
-        <v>18</v>
-      </c>
-      <c r="Q12" s="4">
-        <v>18</v>
-      </c>
-      <c r="R12" s="1">
-        <v>0</v>
-      </c>
-      <c r="S12" s="4">
-        <v>5</v>
-      </c>
-      <c r="T12" s="4">
-        <v>5</v>
-      </c>
-      <c r="U12" s="1">
-        <v>0</v>
-      </c>
-      <c r="V12" s="1">
-        <v>0</v>
-      </c>
-      <c r="W12" s="1">
-        <v>0</v>
-      </c>
-      <c r="X12" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>0</v>
-      </c>
-      <c r="B13" s="1">
-        <v>0</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0</v>
-      </c>
-      <c r="J13" s="1">
-        <v>0</v>
-      </c>
-      <c r="K13" s="4">
-        <v>30</v>
-      </c>
-      <c r="L13" s="4">
-        <v>30</v>
-      </c>
-      <c r="M13" s="1">
-        <v>0</v>
-      </c>
-      <c r="N13" s="5">
-        <v>25</v>
-      </c>
-      <c r="O13" s="5">
-        <v>25</v>
-      </c>
-      <c r="P13" s="4">
-        <v>18</v>
-      </c>
-      <c r="Q13" s="4">
-        <v>18</v>
-      </c>
-      <c r="R13" s="1">
-        <v>0</v>
-      </c>
-      <c r="S13" s="4">
-        <v>5</v>
-      </c>
-      <c r="T13" s="4">
-        <v>5</v>
-      </c>
-      <c r="U13" s="1">
-        <v>0</v>
-      </c>
-      <c r="V13" s="1">
-        <v>0</v>
-      </c>
-      <c r="W13" s="1">
-        <v>0</v>
-      </c>
-      <c r="X13" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>0</v>
-      </c>
-      <c r="B14" s="1">
-        <v>0</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0</v>
-      </c>
-      <c r="J14" s="1">
-        <v>0</v>
-      </c>
-      <c r="K14" s="5">
-        <v>31</v>
-      </c>
-      <c r="L14" s="5">
-        <v>31</v>
-      </c>
-      <c r="M14" s="1">
-        <v>0</v>
-      </c>
-      <c r="N14" s="4">
-        <v>24</v>
-      </c>
-      <c r="O14" s="4">
-        <v>24</v>
-      </c>
-      <c r="P14" s="5">
-        <v>19</v>
-      </c>
-      <c r="Q14" s="5">
-        <v>19</v>
-      </c>
-      <c r="R14" s="1">
-        <v>0</v>
-      </c>
-      <c r="S14" s="2">
-        <v>4</v>
-      </c>
-      <c r="T14" s="2">
-        <v>4</v>
-      </c>
-      <c r="U14" s="1">
-        <v>0</v>
-      </c>
-      <c r="V14" s="1">
-        <v>0</v>
-      </c>
-      <c r="W14" s="1">
-        <v>0</v>
-      </c>
-      <c r="X14" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>0</v>
-      </c>
-      <c r="B15" s="1">
-        <v>0</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0</v>
-      </c>
-      <c r="J15" s="1">
-        <v>0</v>
-      </c>
-      <c r="K15" s="5">
-        <v>31</v>
-      </c>
-      <c r="L15" s="5">
-        <v>31</v>
-      </c>
-      <c r="M15" s="1">
-        <v>0</v>
-      </c>
-      <c r="N15" s="4">
-        <v>24</v>
-      </c>
-      <c r="O15" s="4">
-        <v>24</v>
-      </c>
-      <c r="P15" s="4">
-        <v>20</v>
-      </c>
-      <c r="Q15" s="4">
-        <v>20</v>
-      </c>
-      <c r="R15" s="1">
-        <v>0</v>
-      </c>
-      <c r="S15" s="4">
-        <v>3</v>
-      </c>
-      <c r="T15" s="4">
-        <v>3</v>
-      </c>
-      <c r="U15" s="1">
-        <v>0</v>
-      </c>
-      <c r="V15" s="1">
-        <v>0</v>
-      </c>
-      <c r="W15" s="1">
-        <v>0</v>
-      </c>
-      <c r="X15" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>0</v>
-      </c>
-      <c r="B16" s="1">
-        <v>0</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0</v>
-      </c>
-      <c r="I16" s="1">
-        <v>0</v>
-      </c>
-      <c r="J16" s="1">
-        <v>0</v>
-      </c>
-      <c r="K16" s="1">
-        <v>0</v>
-      </c>
-      <c r="L16" s="1">
-        <v>0</v>
-      </c>
-      <c r="M16" s="1">
-        <v>0</v>
-      </c>
-      <c r="N16" s="1">
-        <v>0</v>
-      </c>
-      <c r="O16" s="1">
-        <v>0</v>
-      </c>
-      <c r="P16" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="1">
-        <v>0</v>
-      </c>
-      <c r="R16" s="1">
-        <v>0</v>
-      </c>
-      <c r="S16" s="1">
-        <v>0</v>
-      </c>
-      <c r="T16" s="1">
-        <v>0</v>
-      </c>
-      <c r="U16" s="1">
-        <v>0</v>
-      </c>
-      <c r="V16" s="1">
-        <v>0</v>
-      </c>
-      <c r="W16" s="1">
-        <v>0</v>
-      </c>
-      <c r="X16" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>0</v>
-      </c>
-      <c r="B17" s="1">
-        <v>0</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0</v>
-      </c>
-      <c r="J17" s="1">
-        <v>0</v>
-      </c>
-      <c r="K17" s="4">
-        <v>32</v>
-      </c>
-      <c r="L17" s="4">
-        <v>32</v>
-      </c>
-      <c r="M17" s="1">
-        <v>0</v>
-      </c>
-      <c r="N17" s="4">
-        <v>32</v>
-      </c>
-      <c r="O17" s="4">
-        <v>32</v>
-      </c>
-      <c r="P17" s="4">
-        <v>21</v>
-      </c>
-      <c r="Q17" s="4">
-        <v>21</v>
-      </c>
-      <c r="R17" s="1">
-        <v>0</v>
-      </c>
-      <c r="S17" s="2">
-        <v>2</v>
-      </c>
-      <c r="T17" s="2">
-        <v>2</v>
-      </c>
-      <c r="U17" s="1">
-        <v>0</v>
-      </c>
-      <c r="V17" s="1">
-        <v>0</v>
-      </c>
-      <c r="W17" s="1">
-        <v>0</v>
-      </c>
-      <c r="X17" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH17" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>0</v>
-      </c>
-      <c r="B18" s="1">
-        <v>0</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0</v>
-      </c>
-      <c r="H18" s="1">
-        <v>0</v>
-      </c>
-      <c r="I18" s="1">
-        <v>0</v>
-      </c>
-      <c r="J18" s="1">
-        <v>0</v>
-      </c>
-      <c r="K18" s="4">
-        <v>32</v>
-      </c>
-      <c r="L18" s="4">
-        <v>32</v>
-      </c>
-      <c r="M18" s="1">
-        <v>0</v>
-      </c>
-      <c r="N18" s="4">
-        <v>32</v>
-      </c>
-      <c r="O18" s="4">
-        <v>32</v>
-      </c>
-      <c r="P18" s="5">
-        <v>22</v>
-      </c>
-      <c r="Q18" s="5">
-        <v>22</v>
-      </c>
-      <c r="R18" s="1">
-        <v>0</v>
-      </c>
-      <c r="S18" s="4">
-        <v>1</v>
-      </c>
-      <c r="T18" s="4">
-        <v>1</v>
-      </c>
-      <c r="U18" s="1">
-        <v>0</v>
-      </c>
-      <c r="V18" s="1">
-        <v>0</v>
-      </c>
-      <c r="W18" s="1">
-        <v>0</v>
-      </c>
-      <c r="X18" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH18" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>0</v>
-      </c>
-      <c r="B19" s="1">
-        <v>0</v>
-      </c>
-      <c r="C19" s="1">
-        <v>0</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0</v>
-      </c>
-      <c r="H19" s="1">
-        <v>0</v>
-      </c>
-      <c r="I19" s="1">
-        <v>0</v>
-      </c>
-      <c r="J19" s="1">
-        <v>0</v>
-      </c>
-      <c r="K19" s="1">
-        <v>0</v>
-      </c>
-      <c r="L19" s="1">
-        <v>0</v>
-      </c>
-      <c r="M19" s="1">
-        <v>0</v>
-      </c>
-      <c r="N19" s="1">
-        <v>0</v>
-      </c>
-      <c r="O19" s="1">
-        <v>0</v>
-      </c>
-      <c r="P19" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="1">
-        <v>0</v>
-      </c>
-      <c r="R19" s="1">
-        <v>0</v>
-      </c>
-      <c r="S19" s="1">
-        <v>0</v>
-      </c>
-      <c r="T19" s="1">
-        <v>0</v>
-      </c>
-      <c r="U19" s="1">
-        <v>0</v>
-      </c>
-      <c r="V19" s="1">
-        <v>0</v>
-      </c>
-      <c r="W19" s="1">
-        <v>0</v>
-      </c>
-      <c r="X19" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD19" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE19" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF19" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG19" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH19" s="1">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="5" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1">
-        <v>0</v>
-      </c>
-      <c r="G1" s="1">
-        <v>0</v>
-      </c>
-      <c r="H1" s="1">
-        <v>0</v>
-      </c>
-      <c r="I1" s="1">
-        <v>0</v>
-      </c>
-      <c r="J1" s="1">
-        <v>0</v>
-      </c>
-      <c r="K1" s="1">
-        <v>0</v>
-      </c>
-      <c r="L1" s="1">
-        <v>0</v>
-      </c>
-      <c r="M1" s="1">
-        <v>0</v>
-      </c>
-      <c r="N1" s="1">
-        <v>0</v>
-      </c>
-      <c r="O1" s="1">
-        <v>0</v>
-      </c>
-      <c r="P1" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q1" s="1">
-        <v>0</v>
-      </c>
-      <c r="R1" s="1">
-        <v>0</v>
-      </c>
-      <c r="S1" s="1">
-        <v>0</v>
-      </c>
-      <c r="T1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0</v>
-      </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
-        <v>0</v>
-      </c>
-      <c r="N2" s="1">
-        <v>0</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>0</v>
-      </c>
-      <c r="R2" s="1">
-        <v>0</v>
-      </c>
-      <c r="S2" s="1">
-        <v>0</v>
-      </c>
-      <c r="T2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2">
-        <v>1</v>
-      </c>
-      <c r="H3" s="7">
-        <v>1</v>
-      </c>
-      <c r="I3" s="3">
-        <v>1</v>
-      </c>
-      <c r="J3" s="3">
-        <v>1</v>
-      </c>
-      <c r="K3" s="3">
-        <v>1</v>
-      </c>
-      <c r="L3" s="3">
-        <v>1</v>
-      </c>
-      <c r="M3" s="3">
-        <v>1</v>
-      </c>
-      <c r="N3" s="2">
-        <v>1</v>
-      </c>
-      <c r="O3" s="2">
-        <v>1</v>
-      </c>
-      <c r="P3" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>1</v>
-      </c>
-      <c r="R3" s="2">
-        <v>1</v>
-      </c>
-      <c r="S3" s="2">
-        <v>1</v>
-      </c>
-      <c r="T3" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1</v>
-      </c>
-      <c r="G4" s="2">
-        <v>1</v>
-      </c>
-      <c r="H4" s="7">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0</v>
-      </c>
-      <c r="L4" s="1">
-        <v>0</v>
-      </c>
-      <c r="M4" s="6">
-        <v>0</v>
-      </c>
-      <c r="N4" s="2">
-        <v>1</v>
-      </c>
-      <c r="O4" s="2">
-        <v>1</v>
-      </c>
-      <c r="P4" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>1</v>
-      </c>
-      <c r="R4" s="2">
-        <v>1</v>
-      </c>
-      <c r="S4" s="2">
-        <v>1</v>
-      </c>
-      <c r="T4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1</v>
-      </c>
-      <c r="G5" s="2">
-        <v>1</v>
-      </c>
-      <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-      <c r="L5" s="1">
-        <v>0</v>
-      </c>
-      <c r="M5" s="7">
-        <v>1</v>
-      </c>
-      <c r="N5" s="2">
-        <v>1</v>
-      </c>
-      <c r="O5" s="2">
-        <v>1</v>
-      </c>
-      <c r="P5" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>1</v>
-      </c>
-      <c r="R5" s="2">
-        <v>1</v>
-      </c>
-      <c r="S5" s="2">
-        <v>1</v>
-      </c>
-      <c r="T5" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
-      <c r="L6" s="1">
-        <v>0</v>
-      </c>
-      <c r="M6" s="3">
-        <v>1</v>
-      </c>
-      <c r="N6" s="1">
-        <v>0</v>
-      </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>0</v>
-      </c>
-      <c r="R6" s="1">
-        <v>0</v>
-      </c>
-      <c r="S6" s="1">
-        <v>0</v>
-      </c>
-      <c r="T6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>1</v>
-      </c>
-      <c r="B7" s="5">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1</v>
-      </c>
-      <c r="F7" s="4">
-        <v>1</v>
-      </c>
-      <c r="G7" s="4">
-        <v>1</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
-        <v>1</v>
-      </c>
-      <c r="J7" s="2">
-        <v>1</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0</v>
-      </c>
-      <c r="L7" s="1">
-        <v>0</v>
-      </c>
-      <c r="M7" s="3">
-        <v>1</v>
-      </c>
-      <c r="N7" s="1">
-        <v>0</v>
-      </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>0</v>
-      </c>
-      <c r="R7" s="1">
-        <v>0</v>
-      </c>
-      <c r="S7" s="1">
-        <v>0</v>
-      </c>
-      <c r="T7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>1</v>
-      </c>
-      <c r="B8" s="5">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0</v>
-      </c>
-      <c r="D8" s="4">
-        <v>1</v>
-      </c>
-      <c r="E8" s="4">
-        <v>1</v>
-      </c>
-      <c r="F8" s="2">
-        <v>1</v>
-      </c>
-      <c r="G8" s="2">
-        <v>1</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2">
-        <v>1</v>
-      </c>
-      <c r="J8" s="2">
-        <v>1</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3">
-        <v>1</v>
-      </c>
-      <c r="M8" s="3">
-        <v>1</v>
-      </c>
-      <c r="N8" s="1">
-        <v>0</v>
-      </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>0</v>
-      </c>
-      <c r="R8" s="1">
-        <v>0</v>
-      </c>
-      <c r="S8" s="1">
-        <v>0</v>
-      </c>
-      <c r="T8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>1</v>
-      </c>
-      <c r="B9" s="4">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4">
-        <v>1</v>
-      </c>
-      <c r="J9" s="4">
-        <v>1</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0</v>
-      </c>
-      <c r="L9" s="4">
-        <v>1</v>
-      </c>
-      <c r="M9" s="4">
-        <v>1</v>
-      </c>
-      <c r="N9" s="1">
-        <v>0</v>
-      </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>0</v>
-      </c>
-      <c r="R9" s="1">
-        <v>0</v>
-      </c>
-      <c r="S9" s="1">
-        <v>0</v>
-      </c>
-      <c r="T9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>1</v>
-      </c>
-      <c r="B10" s="5">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0</v>
-      </c>
-      <c r="D10" s="4">
-        <v>1</v>
-      </c>
-      <c r="E10" s="4">
-        <v>1</v>
-      </c>
-      <c r="F10" s="5">
-        <v>1</v>
-      </c>
-      <c r="G10" s="5">
-        <v>1</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
-      <c r="I10" s="4">
-        <v>1</v>
-      </c>
-      <c r="J10" s="4">
-        <v>1</v>
-      </c>
-      <c r="K10" s="1">
-        <v>0</v>
-      </c>
-      <c r="L10" s="4">
-        <v>1</v>
-      </c>
-      <c r="M10" s="4">
-        <v>1</v>
-      </c>
-      <c r="N10" s="1">
-        <v>0</v>
-      </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>0</v>
-      </c>
-      <c r="R10" s="1">
-        <v>0</v>
-      </c>
-      <c r="S10" s="1">
-        <v>0</v>
-      </c>
-      <c r="T10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>1</v>
-      </c>
-      <c r="B11" s="4">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0</v>
-      </c>
-      <c r="D11" s="5">
-        <v>1</v>
-      </c>
-      <c r="E11" s="5">
-        <v>1</v>
-      </c>
-      <c r="F11" s="4">
-        <v>1</v>
-      </c>
-      <c r="G11" s="4">
-        <v>1</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0</v>
-      </c>
-      <c r="K11" s="1">
-        <v>0</v>
-      </c>
-      <c r="L11" s="1">
-        <v>0</v>
-      </c>
-      <c r="M11" s="1">
-        <v>0</v>
-      </c>
-      <c r="N11" s="1">
-        <v>0</v>
-      </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>0</v>
-      </c>
-      <c r="R11" s="1">
-        <v>0</v>
-      </c>
-      <c r="S11" s="1">
-        <v>0</v>
-      </c>
-      <c r="T11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>1</v>
-      </c>
-      <c r="B12" s="5">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0</v>
-      </c>
-      <c r="D12" s="4">
-        <v>1</v>
-      </c>
-      <c r="E12" s="4">
-        <v>1</v>
-      </c>
-      <c r="F12" s="5">
-        <v>1</v>
-      </c>
-      <c r="G12" s="5">
-        <v>1</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
-      <c r="I12" s="4">
-        <v>1</v>
-      </c>
-      <c r="J12" s="4">
-        <v>1</v>
-      </c>
-      <c r="K12" s="1">
-        <v>0</v>
-      </c>
-      <c r="L12" s="4">
-        <v>1</v>
-      </c>
-      <c r="M12" s="4">
-        <v>1</v>
-      </c>
-      <c r="N12" s="1">
-        <v>0</v>
-      </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="1">
-        <v>0</v>
-      </c>
-      <c r="R12" s="1">
-        <v>0</v>
-      </c>
-      <c r="S12" s="1">
-        <v>0</v>
-      </c>
-      <c r="T12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>1</v>
-      </c>
-      <c r="B13" s="4">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0</v>
-      </c>
-      <c r="D13" s="5">
-        <v>1</v>
-      </c>
-      <c r="E13" s="5">
-        <v>1</v>
-      </c>
-      <c r="F13" s="4">
-        <v>1</v>
-      </c>
-      <c r="G13" s="4">
-        <v>1</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0</v>
-      </c>
-      <c r="I13" s="4">
-        <v>1</v>
-      </c>
-      <c r="J13" s="4">
-        <v>1</v>
-      </c>
-      <c r="K13" s="1">
-        <v>0</v>
-      </c>
-      <c r="L13" s="4">
-        <v>1</v>
-      </c>
-      <c r="M13" s="4">
-        <v>1</v>
-      </c>
-      <c r="N13" s="1">
-        <v>0</v>
-      </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="1">
-        <v>0</v>
-      </c>
-      <c r="R13" s="1">
-        <v>0</v>
-      </c>
-      <c r="S13" s="1">
-        <v>0</v>
-      </c>
-      <c r="T13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>1</v>
-      </c>
-      <c r="B14" s="5">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0</v>
-      </c>
-      <c r="D14" s="4">
-        <v>1</v>
-      </c>
-      <c r="E14" s="4">
-        <v>1</v>
-      </c>
-      <c r="F14" s="5">
-        <v>1</v>
-      </c>
-      <c r="G14" s="5">
-        <v>1</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0</v>
-      </c>
-      <c r="I14" s="5">
-        <v>1</v>
-      </c>
-      <c r="J14" s="5">
-        <v>1</v>
-      </c>
-      <c r="K14" s="1">
-        <v>0</v>
-      </c>
-      <c r="L14" s="2">
-        <v>1</v>
-      </c>
-      <c r="M14" s="2">
-        <v>1</v>
-      </c>
-      <c r="N14" s="1">
-        <v>0</v>
-      </c>
-      <c r="O14" s="1">
-        <v>0</v>
-      </c>
-      <c r="P14" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="1">
-        <v>0</v>
-      </c>
-      <c r="R14" s="1">
-        <v>0</v>
-      </c>
-      <c r="S14" s="1">
-        <v>0</v>
-      </c>
-      <c r="T14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>1</v>
-      </c>
-      <c r="B15" s="4">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0</v>
-      </c>
-      <c r="D15" s="4">
-        <v>1</v>
-      </c>
-      <c r="E15" s="4">
-        <v>1</v>
-      </c>
-      <c r="F15" s="5">
-        <v>1</v>
-      </c>
-      <c r="G15" s="5">
-        <v>1</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0</v>
-      </c>
-      <c r="I15" s="4">
-        <v>1</v>
-      </c>
-      <c r="J15" s="4">
-        <v>1</v>
-      </c>
-      <c r="K15" s="1">
-        <v>0</v>
-      </c>
-      <c r="L15" s="4">
-        <v>1</v>
-      </c>
-      <c r="M15" s="4">
-        <v>1</v>
-      </c>
-      <c r="N15" s="1">
-        <v>0</v>
-      </c>
-      <c r="O15" s="1">
-        <v>0</v>
-      </c>
-      <c r="P15" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="1">
-        <v>0</v>
-      </c>
-      <c r="R15" s="1">
-        <v>0</v>
-      </c>
-      <c r="S15" s="1">
-        <v>0</v>
-      </c>
-      <c r="T15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <v>1</v>
-      </c>
-      <c r="B16" s="5">
-        <v>1</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0</v>
-      </c>
-      <c r="I16" s="1">
-        <v>0</v>
-      </c>
-      <c r="J16" s="1">
-        <v>0</v>
-      </c>
-      <c r="K16" s="1">
-        <v>0</v>
-      </c>
-      <c r="L16" s="1">
-        <v>0</v>
-      </c>
-      <c r="M16" s="1">
-        <v>0</v>
-      </c>
-      <c r="N16" s="1">
-        <v>0</v>
-      </c>
-      <c r="O16" s="1">
-        <v>0</v>
-      </c>
-      <c r="P16" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="1">
-        <v>0</v>
-      </c>
-      <c r="R16" s="1">
-        <v>0</v>
-      </c>
-      <c r="S16" s="1">
-        <v>0</v>
-      </c>
-      <c r="T16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>1</v>
-      </c>
-      <c r="B17" s="4">
-        <v>1</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0</v>
-      </c>
-      <c r="D17" s="4">
-        <v>1</v>
-      </c>
-      <c r="E17" s="4">
-        <v>1</v>
-      </c>
-      <c r="F17" s="5">
-        <v>1</v>
-      </c>
-      <c r="G17" s="5">
-        <v>1</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0</v>
-      </c>
-      <c r="I17" s="4">
-        <v>1</v>
-      </c>
-      <c r="J17" s="4">
-        <v>1</v>
-      </c>
-      <c r="K17" s="1">
-        <v>0</v>
-      </c>
-      <c r="L17" s="2">
-        <v>1</v>
-      </c>
-      <c r="M17" s="2">
-        <v>1</v>
-      </c>
-      <c r="N17" s="1">
-        <v>0</v>
-      </c>
-      <c r="O17" s="1">
-        <v>0</v>
-      </c>
-      <c r="P17" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="1">
-        <v>0</v>
-      </c>
-      <c r="R17" s="1">
-        <v>0</v>
-      </c>
-      <c r="S17" s="1">
-        <v>0</v>
-      </c>
-      <c r="T17" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <v>1</v>
-      </c>
-      <c r="B18" s="5">
-        <v>1</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0</v>
-      </c>
-      <c r="D18" s="4">
-        <v>1</v>
-      </c>
-      <c r="E18" s="4">
-        <v>1</v>
-      </c>
-      <c r="F18" s="5">
-        <v>1</v>
-      </c>
-      <c r="G18" s="5">
-        <v>1</v>
-      </c>
-      <c r="H18" s="1">
-        <v>0</v>
-      </c>
-      <c r="I18" s="5">
-        <v>1</v>
-      </c>
-      <c r="J18" s="5">
-        <v>1</v>
-      </c>
-      <c r="K18" s="1">
-        <v>0</v>
-      </c>
-      <c r="L18" s="4">
-        <v>1</v>
-      </c>
-      <c r="M18" s="4">
-        <v>1</v>
-      </c>
-      <c r="N18" s="1">
-        <v>0</v>
-      </c>
-      <c r="O18" s="1">
-        <v>0</v>
-      </c>
-      <c r="P18" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="1">
-        <v>0</v>
-      </c>
-      <c r="R18" s="1">
-        <v>0</v>
-      </c>
-      <c r="S18" s="1">
-        <v>0</v>
-      </c>
-      <c r="T18" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>0</v>
-      </c>
-      <c r="B19" s="1">
-        <v>0</v>
-      </c>
-      <c r="C19" s="1">
-        <v>0</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0</v>
-      </c>
-      <c r="H19" s="1">
-        <v>0</v>
-      </c>
-      <c r="I19" s="1">
-        <v>0</v>
-      </c>
-      <c r="J19" s="1">
-        <v>0</v>
-      </c>
-      <c r="K19" s="1">
-        <v>0</v>
-      </c>
-      <c r="L19" s="1">
-        <v>0</v>
-      </c>
-      <c r="M19" s="1">
-        <v>0</v>
-      </c>
-      <c r="N19" s="1">
-        <v>0</v>
-      </c>
-      <c r="O19" s="1">
-        <v>0</v>
-      </c>
-      <c r="P19" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="1">
-        <v>0</v>
-      </c>
-      <c r="R19" s="1">
-        <v>0</v>
-      </c>
-      <c r="S19" s="1">
-        <v>0</v>
-      </c>
-      <c r="T19" s="1">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A13:A264"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>800</v>
+      </c>
+      <c r="B1">
+        <v>999</v>
+      </c>
+      <c r="C1">
+        <v>999</v>
+      </c>
+      <c r="D1">
+        <v>999</v>
+      </c>
+      <c r="E1">
+        <v>999</v>
+      </c>
+      <c r="F1">
+        <v>999</v>
+      </c>
+      <c r="G1">
+        <v>999</v>
+      </c>
+      <c r="H1">
+        <v>999</v>
+      </c>
+      <c r="I1">
+        <v>999</v>
+      </c>
+      <c r="J1">
+        <v>999</v>
+      </c>
+      <c r="K1">
+        <v>999</v>
+      </c>
+      <c r="L1">
+        <v>999</v>
+      </c>
+      <c r="M1">
+        <v>999</v>
+      </c>
+      <c r="N1">
+        <v>999</v>
+      </c>
+      <c r="O1">
+        <v>999</v>
+      </c>
+      <c r="P1">
+        <v>999</v>
+      </c>
+      <c r="Q1">
+        <v>999</v>
+      </c>
+      <c r="R1">
+        <v>999</v>
+      </c>
+      <c r="S1">
+        <v>999</v>
+      </c>
+      <c r="T1">
+        <v>999</v>
+      </c>
+      <c r="U1">
+        <v>999</v>
+      </c>
+      <c r="V1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>801</v>
+      </c>
+      <c r="B2">
+        <v>999</v>
+      </c>
+      <c r="C2">
+        <v>999</v>
+      </c>
+      <c r="D2">
+        <v>999</v>
+      </c>
+      <c r="E2">
+        <v>999</v>
+      </c>
+      <c r="F2">
+        <v>999</v>
+      </c>
+      <c r="G2">
+        <v>999</v>
+      </c>
+      <c r="H2">
+        <v>999</v>
+      </c>
+      <c r="I2">
+        <v>999</v>
+      </c>
+      <c r="J2">
+        <v>999</v>
+      </c>
+      <c r="K2">
+        <v>999</v>
+      </c>
+      <c r="L2">
+        <v>999</v>
+      </c>
+      <c r="M2">
+        <v>999</v>
+      </c>
+      <c r="N2">
+        <v>999</v>
+      </c>
+      <c r="O2">
+        <v>999</v>
+      </c>
+      <c r="P2">
+        <v>999</v>
+      </c>
+      <c r="Q2">
+        <v>999</v>
+      </c>
+      <c r="R2">
+        <v>999</v>
+      </c>
+      <c r="S2">
+        <v>999</v>
+      </c>
+      <c r="T2">
+        <v>999</v>
+      </c>
+      <c r="U2">
+        <v>999</v>
+      </c>
+      <c r="V2">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>999</v>
+      </c>
+      <c r="B3">
+        <v>999</v>
+      </c>
+      <c r="C3">
+        <v>999</v>
+      </c>
+      <c r="D3">
+        <v>999</v>
+      </c>
+      <c r="E3">
+        <v>999</v>
+      </c>
+      <c r="F3">
+        <v>999</v>
+      </c>
+      <c r="G3">
+        <v>999</v>
+      </c>
+      <c r="H3">
+        <v>999</v>
+      </c>
+      <c r="I3">
+        <v>999</v>
+      </c>
+      <c r="J3">
+        <v>999</v>
+      </c>
+      <c r="K3">
+        <v>999</v>
+      </c>
+      <c r="L3">
+        <v>999</v>
+      </c>
+      <c r="M3">
+        <v>999</v>
+      </c>
+      <c r="N3">
+        <v>999</v>
+      </c>
+      <c r="O3">
+        <v>999</v>
+      </c>
+      <c r="P3">
+        <v>999</v>
+      </c>
+      <c r="Q3">
+        <v>999</v>
+      </c>
+      <c r="R3">
+        <v>999</v>
+      </c>
+      <c r="S3">
+        <v>999</v>
+      </c>
+      <c r="T3">
+        <v>999</v>
+      </c>
+      <c r="U3">
+        <v>999</v>
+      </c>
+      <c r="V3">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>999</v>
+      </c>
+      <c r="B4">
+        <v>999</v>
+      </c>
+      <c r="C4">
+        <v>999</v>
+      </c>
+      <c r="D4">
+        <v>999</v>
+      </c>
+      <c r="E4">
+        <v>999</v>
+      </c>
+      <c r="F4">
+        <v>999</v>
+      </c>
+      <c r="G4">
+        <v>999</v>
+      </c>
+      <c r="H4">
+        <v>999</v>
+      </c>
+      <c r="I4">
+        <v>999</v>
+      </c>
+      <c r="J4">
+        <v>999</v>
+      </c>
+      <c r="K4">
+        <v>999</v>
+      </c>
+      <c r="L4">
+        <v>999</v>
+      </c>
+      <c r="M4">
+        <v>999</v>
+      </c>
+      <c r="N4">
+        <v>999</v>
+      </c>
+      <c r="O4">
+        <v>999</v>
+      </c>
+      <c r="P4">
+        <v>999</v>
+      </c>
+      <c r="Q4">
+        <v>999</v>
+      </c>
+      <c r="R4">
+        <v>999</v>
+      </c>
+      <c r="S4">
+        <v>999</v>
+      </c>
+      <c r="T4">
+        <v>999</v>
+      </c>
+      <c r="U4">
+        <v>999</v>
+      </c>
+      <c r="V4">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>999</v>
+      </c>
+      <c r="B5">
+        <v>999</v>
+      </c>
+      <c r="C5">
+        <v>999</v>
+      </c>
+      <c r="D5">
+        <v>999</v>
+      </c>
+      <c r="E5">
+        <v>999</v>
+      </c>
+      <c r="F5">
+        <v>999</v>
+      </c>
+      <c r="G5">
+        <v>999</v>
+      </c>
+      <c r="H5">
+        <v>999</v>
+      </c>
+      <c r="I5">
+        <v>999</v>
+      </c>
+      <c r="J5">
+        <v>999</v>
+      </c>
+      <c r="K5">
+        <v>999</v>
+      </c>
+      <c r="L5">
+        <v>999</v>
+      </c>
+      <c r="M5">
+        <v>999</v>
+      </c>
+      <c r="N5">
+        <v>999</v>
+      </c>
+      <c r="O5">
+        <v>999</v>
+      </c>
+      <c r="P5">
+        <v>999</v>
+      </c>
+      <c r="Q5">
+        <v>999</v>
+      </c>
+      <c r="R5">
+        <v>999</v>
+      </c>
+      <c r="S5">
+        <v>999</v>
+      </c>
+      <c r="T5">
+        <v>999</v>
+      </c>
+      <c r="U5">
+        <v>999</v>
+      </c>
+      <c r="V5">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>999</v>
+      </c>
+      <c r="B6">
+        <v>999</v>
+      </c>
+      <c r="C6">
+        <v>999</v>
+      </c>
+      <c r="D6">
+        <v>999</v>
+      </c>
+      <c r="E6">
+        <v>999</v>
+      </c>
+      <c r="F6">
+        <v>999</v>
+      </c>
+      <c r="G6">
+        <v>999</v>
+      </c>
+      <c r="H6">
+        <v>999</v>
+      </c>
+      <c r="I6">
+        <v>999</v>
+      </c>
+      <c r="J6">
+        <v>999</v>
+      </c>
+      <c r="K6">
+        <v>999</v>
+      </c>
+      <c r="L6">
+        <v>999</v>
+      </c>
+      <c r="M6">
+        <v>999</v>
+      </c>
+      <c r="N6">
+        <v>999</v>
+      </c>
+      <c r="O6">
+        <v>999</v>
+      </c>
+      <c r="P6">
+        <v>999</v>
+      </c>
+      <c r="Q6">
+        <v>999</v>
+      </c>
+      <c r="R6">
+        <v>999</v>
+      </c>
+      <c r="S6">
+        <v>999</v>
+      </c>
+      <c r="T6">
+        <v>999</v>
+      </c>
+      <c r="U6">
+        <v>999</v>
+      </c>
+      <c r="V6">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>805</v>
+      </c>
+      <c r="B7">
+        <v>999</v>
+      </c>
+      <c r="C7">
+        <v>999</v>
+      </c>
+      <c r="D7">
+        <v>999</v>
+      </c>
+      <c r="E7">
+        <v>999</v>
+      </c>
+      <c r="F7">
+        <v>999</v>
+      </c>
+      <c r="G7">
+        <v>999</v>
+      </c>
+      <c r="H7">
+        <v>999</v>
+      </c>
+      <c r="I7">
+        <v>999</v>
+      </c>
+      <c r="J7">
+        <v>999</v>
+      </c>
+      <c r="K7">
+        <v>999</v>
+      </c>
+      <c r="L7">
+        <v>999</v>
+      </c>
+      <c r="M7">
+        <v>999</v>
+      </c>
+      <c r="N7">
+        <v>999</v>
+      </c>
+      <c r="O7">
+        <v>999</v>
+      </c>
+      <c r="P7">
+        <v>999</v>
+      </c>
+      <c r="Q7">
+        <v>999</v>
+      </c>
+      <c r="R7">
+        <v>999</v>
+      </c>
+      <c r="S7">
+        <v>999</v>
+      </c>
+      <c r="T7">
+        <v>999</v>
+      </c>
+      <c r="U7">
+        <v>999</v>
+      </c>
+      <c r="V7">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>806</v>
+      </c>
+      <c r="B8">
+        <v>999</v>
+      </c>
+      <c r="C8">
+        <v>999</v>
+      </c>
+      <c r="D8">
+        <v>999</v>
+      </c>
+      <c r="E8">
+        <v>999</v>
+      </c>
+      <c r="F8">
+        <v>999</v>
+      </c>
+      <c r="G8">
+        <v>999</v>
+      </c>
+      <c r="H8">
+        <v>999</v>
+      </c>
+      <c r="I8">
+        <v>1001</v>
+      </c>
+      <c r="J8">
+        <v>1001</v>
+      </c>
+      <c r="K8">
+        <v>999</v>
+      </c>
+      <c r="L8">
+        <v>1002</v>
+      </c>
+      <c r="M8">
+        <v>1002</v>
+      </c>
+      <c r="N8">
+        <v>999</v>
+      </c>
+      <c r="O8">
+        <v>999</v>
+      </c>
+      <c r="P8">
+        <v>999</v>
+      </c>
+      <c r="Q8">
+        <v>999</v>
+      </c>
+      <c r="R8">
+        <v>999</v>
+      </c>
+      <c r="S8">
+        <v>999</v>
+      </c>
+      <c r="T8">
+        <v>999</v>
+      </c>
+      <c r="U8">
+        <v>999</v>
+      </c>
+      <c r="V8">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>807</v>
+      </c>
+      <c r="B9">
+        <v>999</v>
+      </c>
+      <c r="C9">
+        <v>999</v>
+      </c>
+      <c r="D9">
+        <v>999</v>
+      </c>
+      <c r="E9">
+        <v>999</v>
+      </c>
+      <c r="F9">
+        <v>999</v>
+      </c>
+      <c r="G9">
+        <v>999</v>
+      </c>
+      <c r="H9">
+        <v>999</v>
+      </c>
+      <c r="I9">
+        <v>999</v>
+      </c>
+      <c r="J9">
+        <v>999</v>
+      </c>
+      <c r="K9">
+        <v>999</v>
+      </c>
+      <c r="L9">
+        <v>999</v>
+      </c>
+      <c r="M9">
+        <v>999</v>
+      </c>
+      <c r="N9">
+        <v>999</v>
+      </c>
+      <c r="O9">
+        <v>999</v>
+      </c>
+      <c r="P9">
+        <v>999</v>
+      </c>
+      <c r="Q9">
+        <v>999</v>
+      </c>
+      <c r="R9">
+        <v>999</v>
+      </c>
+      <c r="S9">
+        <v>999</v>
+      </c>
+      <c r="T9">
+        <v>999</v>
+      </c>
+      <c r="U9">
+        <v>999</v>
+      </c>
+      <c r="V9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>808</v>
+      </c>
+      <c r="B10">
+        <v>999</v>
+      </c>
+      <c r="C10">
+        <v>999</v>
+      </c>
+      <c r="D10">
+        <v>999</v>
+      </c>
+      <c r="E10">
+        <v>999</v>
+      </c>
+      <c r="F10">
+        <v>999</v>
+      </c>
+      <c r="G10">
+        <v>999</v>
+      </c>
+      <c r="H10">
+        <v>999</v>
+      </c>
+      <c r="I10">
+        <v>999</v>
+      </c>
+      <c r="J10">
+        <v>999</v>
+      </c>
+      <c r="K10">
+        <v>999</v>
+      </c>
+      <c r="L10">
+        <v>999</v>
+      </c>
+      <c r="M10">
+        <v>999</v>
+      </c>
+      <c r="N10">
+        <v>999</v>
+      </c>
+      <c r="O10">
+        <v>999</v>
+      </c>
+      <c r="P10">
+        <v>999</v>
+      </c>
+      <c r="Q10">
+        <v>999</v>
+      </c>
+      <c r="R10">
+        <v>999</v>
+      </c>
+      <c r="S10">
+        <v>999</v>
+      </c>
+      <c r="T10">
+        <v>999</v>
+      </c>
+      <c r="U10">
+        <v>999</v>
+      </c>
+      <c r="V10">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>999</v>
+      </c>
+      <c r="B11">
+        <v>999</v>
+      </c>
+      <c r="C11">
+        <v>999</v>
+      </c>
+      <c r="D11">
+        <v>999</v>
+      </c>
+      <c r="E11">
+        <v>999</v>
+      </c>
+      <c r="F11">
+        <v>999</v>
+      </c>
+      <c r="G11">
+        <v>999</v>
+      </c>
+      <c r="H11">
+        <v>999</v>
+      </c>
+      <c r="I11">
+        <v>999</v>
+      </c>
+      <c r="J11">
+        <v>999</v>
+      </c>
+      <c r="K11">
+        <v>999</v>
+      </c>
+      <c r="L11">
+        <v>999</v>
+      </c>
+      <c r="M11">
+        <v>999</v>
+      </c>
+      <c r="N11">
+        <v>999</v>
+      </c>
+      <c r="O11">
+        <v>999</v>
+      </c>
+      <c r="P11">
+        <v>999</v>
+      </c>
+      <c r="Q11">
+        <v>999</v>
+      </c>
+      <c r="R11">
+        <v>999</v>
+      </c>
+      <c r="S11">
+        <v>999</v>
+      </c>
+      <c r="T11">
+        <v>999</v>
+      </c>
+      <c r="U11">
+        <v>999</v>
+      </c>
+      <c r="V11">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>810</v>
+      </c>
+      <c r="B12">
+        <v>999</v>
+      </c>
+      <c r="C12">
+        <v>999</v>
+      </c>
+      <c r="D12">
+        <v>999</v>
+      </c>
+      <c r="E12">
+        <v>999</v>
+      </c>
+      <c r="F12">
+        <v>999</v>
+      </c>
+      <c r="G12">
+        <v>999</v>
+      </c>
+      <c r="H12">
+        <v>999</v>
+      </c>
+      <c r="I12">
+        <v>999</v>
+      </c>
+      <c r="J12">
+        <v>999</v>
+      </c>
+      <c r="K12">
+        <v>999</v>
+      </c>
+      <c r="L12">
+        <v>999</v>
+      </c>
+      <c r="M12">
+        <v>999</v>
+      </c>
+      <c r="N12">
+        <v>999</v>
+      </c>
+      <c r="O12">
+        <v>999</v>
+      </c>
+      <c r="P12">
+        <v>999</v>
+      </c>
+      <c r="Q12">
+        <v>999</v>
+      </c>
+      <c r="R12">
+        <v>999</v>
+      </c>
+      <c r="S12">
+        <v>999</v>
+      </c>
+      <c r="T12">
+        <v>999</v>
+      </c>
+      <c r="U12">
+        <v>999</v>
+      </c>
+      <c r="V12">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" ref="A13:A24" si="0">B1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" ref="A25:A36" si="1">C1</f>
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" ref="A37:A48" si="2">D1</f>
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" ref="A49:A60" si="3">E1</f>
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61">
-        <f t="shared" ref="A61:A71" si="4">F1</f>
-        <v>0</v>
+        <f t="shared" ref="A61:A72" si="4">F1</f>
+        <v>999</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72">
-        <f t="shared" ref="A72" si="5">F12</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>999</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73">
-        <f t="shared" ref="A73:A83" si="6">G1</f>
-        <v>0</v>
+        <f t="shared" ref="A73:A84" si="5">G1</f>
+        <v>999</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>999</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>999</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>999</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>999</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>999</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>999</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>999</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>999</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>999</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>999</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84">
-        <f t="shared" ref="A84" si="7">G12</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>999</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85">
-        <f t="shared" ref="A85:A95" si="8">H1</f>
-        <v>0</v>
+        <f t="shared" ref="A85:A96" si="6">H1</f>
+        <v>999</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>999</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>999</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>999</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>999</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>999</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>999</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>999</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>999</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>999</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>999</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96">
-        <f t="shared" ref="A96" si="9">H12</f>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>999</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97">
-        <f t="shared" ref="A97:A107" si="10">I1</f>
-        <v>0</v>
+        <f t="shared" ref="A97:A108" si="7">I1</f>
+        <v>999</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>999</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>999</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>999</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>999</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>999</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>999</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1001</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>999</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>999</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>999</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108">
-        <f t="shared" ref="A108" si="11">I12</f>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>999</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109">
-        <f t="shared" ref="A109:A119" si="12">J1</f>
-        <v>0</v>
+        <f t="shared" ref="A109:A120" si="8">J1</f>
+        <v>999</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>999</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>999</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>999</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>999</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>999</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>999</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>1001</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>999</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>999</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>999</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120">
-        <f t="shared" ref="A120" si="13">J12</f>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>999</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121">
-        <f t="shared" ref="A121:A131" si="14">K1</f>
-        <v>0</v>
+        <f t="shared" ref="A121:A132" si="9">K1</f>
+        <v>999</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>999</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>999</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>999</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>999</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>999</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>999</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>999</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>999</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>999</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>999</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132">
-        <f t="shared" ref="A132" si="15">K12</f>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>999</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133">
-        <f t="shared" ref="A133:A143" si="16">L1</f>
-        <v>0</v>
+        <f t="shared" ref="A133:A144" si="10">L1</f>
+        <v>999</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>999</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>999</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>999</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>999</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>999</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>999</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>1002</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>999</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>999</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>999</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144">
-        <f t="shared" ref="A144" si="17">L12</f>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>999</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145">
-        <f t="shared" ref="A145:A155" si="18">M1</f>
-        <v>0</v>
+        <f t="shared" ref="A145:A156" si="11">M1</f>
+        <v>999</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>999</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>999</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>999</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>999</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>999</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>999</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>1002</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>999</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>999</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>999</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156">
-        <f t="shared" ref="A156" si="19">M12</f>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>999</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157">
-        <f t="shared" ref="A157:A167" si="20">N1</f>
-        <v>0</v>
+        <f t="shared" ref="A157:A168" si="12">N1</f>
+        <v>999</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>999</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>999</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>999</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>999</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>999</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>999</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>999</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>999</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>999</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>999</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168">
-        <f t="shared" ref="A168" si="21">N12</f>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>999</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169">
-        <f t="shared" ref="A169:A179" si="22">O1</f>
-        <v>0</v>
+        <f t="shared" ref="A169:A180" si="13">O1</f>
+        <v>999</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>999</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>999</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>999</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>999</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>999</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>999</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>999</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>999</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>999</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>999</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180">
-        <f t="shared" ref="A180" si="23">O12</f>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>999</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181">
-        <f t="shared" ref="A181:A191" si="24">P1</f>
-        <v>0</v>
+        <f t="shared" ref="A181:A192" si="14">P1</f>
+        <v>999</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182">
-        <f t="shared" si="24"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>999</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183">
-        <f t="shared" si="24"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>999</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184">
-        <f t="shared" si="24"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>999</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185">
-        <f t="shared" si="24"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>999</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186">
-        <f t="shared" si="24"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>999</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187">
-        <f t="shared" si="24"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>999</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188">
-        <f t="shared" si="24"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>999</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189">
-        <f t="shared" si="24"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>999</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190">
-        <f t="shared" si="24"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>999</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191">
-        <f t="shared" si="24"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>999</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192">
-        <f t="shared" ref="A192" si="25">P12</f>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>999</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193">
-        <f t="shared" ref="A193:A204" si="26">Q1</f>
-        <v>0</v>
+        <f t="shared" ref="A193:A204" si="15">Q1</f>
+        <v>999</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>999</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>999</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>999</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>999</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>999</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>999</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>999</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>999</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>999</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>999</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>999</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205">
-        <f t="shared" ref="A205:A216" si="27">R1</f>
-        <v>0</v>
+        <f t="shared" ref="A205:A216" si="16">R1</f>
+        <v>999</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206">
-        <f t="shared" si="27"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>999</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207">
-        <f t="shared" si="27"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>999</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208">
-        <f t="shared" si="27"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>999</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209">
-        <f t="shared" si="27"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>999</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210">
-        <f t="shared" si="27"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>999</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211">
-        <f t="shared" si="27"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>999</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212">
-        <f t="shared" si="27"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>999</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213">
-        <f t="shared" si="27"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>999</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214">
-        <f t="shared" si="27"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>999</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215">
-        <f t="shared" si="27"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>999</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216">
-        <f t="shared" si="27"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>999</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217">
-        <f t="shared" ref="A217:A228" si="28">S1</f>
-        <v>0</v>
+        <f t="shared" ref="A217:A228" si="17">S1</f>
+        <v>999</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218">
-        <f t="shared" si="28"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>999</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219">
-        <f t="shared" si="28"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>999</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220">
-        <f t="shared" si="28"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>999</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221">
-        <f t="shared" si="28"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>999</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222">
-        <f t="shared" si="28"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>999</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223">
-        <f t="shared" si="28"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>999</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224">
-        <f t="shared" si="28"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>999</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225">
-        <f t="shared" si="28"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>999</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226">
-        <f t="shared" si="28"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>999</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227">
-        <f t="shared" si="28"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>999</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228">
-        <f t="shared" si="28"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>999</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229">
-        <f t="shared" ref="A229:A240" si="29">T1</f>
-        <v>0</v>
+        <f t="shared" ref="A229:A240" si="18">T1</f>
+        <v>999</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230">
-        <f t="shared" si="29"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>999</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231">
-        <f t="shared" si="29"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>999</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232">
-        <f t="shared" si="29"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>999</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233">
-        <f t="shared" si="29"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>999</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234">
-        <f t="shared" si="29"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>999</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235">
-        <f t="shared" si="29"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>999</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236">
-        <f t="shared" si="29"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>999</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237">
-        <f t="shared" si="29"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>999</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238">
-        <f t="shared" si="29"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>999</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239">
-        <f t="shared" si="29"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>999</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240">
-        <f t="shared" si="29"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>999</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241">
         <f>U1</f>
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242">
         <f>U2</f>
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243">
         <f>U3</f>
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244">
         <f>U4</f>
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245">
         <f>U5</f>
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246">
-        <f t="shared" ref="A246:A251" si="30">U6</f>
-        <v>0</v>
+        <f t="shared" ref="A246:A251" si="19">U6</f>
+        <v>999</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247">
-        <f t="shared" si="30"/>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>999</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248">
-        <f t="shared" si="30"/>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>999</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249">
-        <f t="shared" si="30"/>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>999</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250">
-        <f t="shared" si="30"/>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>999</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251">
-        <f t="shared" si="30"/>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>999</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252">
         <f>U12</f>
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253">
         <f>V1</f>
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254">
         <f>V2</f>
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255">
         <f>V3</f>
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256">
         <f>V4</f>
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257">
         <f>V5</f>
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258">
-        <f t="shared" ref="A258:A264" si="31">V6</f>
-        <v>0</v>
+        <f t="shared" ref="A258:A264" si="20">V6</f>
+        <v>999</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259">
-        <f t="shared" si="31"/>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>999</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260">
-        <f t="shared" si="31"/>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>999</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261">
-        <f t="shared" si="31"/>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>999</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262">
-        <f t="shared" si="31"/>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>999</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263">
-        <f t="shared" si="31"/>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>999</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264">
-        <f t="shared" si="31"/>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>999</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="V1:V12">
+    <cfRule type="cellIs" dxfId="113" priority="86" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:A264">
+    <cfRule type="cellIs" dxfId="112" priority="85" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q13:S17">
+    <cfRule type="cellIs" dxfId="111" priority="84" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7">
+    <cfRule type="cellIs" dxfId="110" priority="83" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A2">
+    <cfRule type="cellIs" dxfId="109" priority="82" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8:A10 A12">
+    <cfRule type="cellIs" dxfId="107" priority="80" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="cellIs" dxfId="105" priority="78" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="cellIs" dxfId="103" priority="76" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3">
+    <cfRule type="cellIs" dxfId="102" priority="75" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1">
+    <cfRule type="cellIs" dxfId="100" priority="73" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B12">
+    <cfRule type="cellIs" dxfId="99" priority="72" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S1:S2 S12">
+    <cfRule type="cellIs" dxfId="87" priority="60" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C11">
+    <cfRule type="cellIs" dxfId="86" priority="59" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S3 S5 S7 S9 S11">
+    <cfRule type="cellIs" dxfId="72" priority="45" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S4 S6 S8 S10">
+    <cfRule type="cellIs" dxfId="57" priority="30" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U1:U12">
+    <cfRule type="cellIs" dxfId="55" priority="28" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T1:T12">
+    <cfRule type="cellIs" dxfId="54" priority="27" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F12">
+    <cfRule type="cellIs" dxfId="53" priority="26" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E12">
+    <cfRule type="cellIs" dxfId="51" priority="25" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D12">
+    <cfRule type="cellIs" dxfId="49" priority="24" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:I12">
+    <cfRule type="cellIs" dxfId="47" priority="23" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:H12">
+    <cfRule type="cellIs" dxfId="45" priority="22" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:G12">
+    <cfRule type="cellIs" dxfId="43" priority="21" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:L12">
+    <cfRule type="cellIs" dxfId="41" priority="20" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:K12">
+    <cfRule type="cellIs" dxfId="39" priority="19" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1:J12">
+    <cfRule type="cellIs" dxfId="37" priority="18" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O1:O12">
+    <cfRule type="cellIs" dxfId="35" priority="17" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N1:N12">
+    <cfRule type="cellIs" dxfId="33" priority="16" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M12">
+    <cfRule type="cellIs" dxfId="31" priority="15" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R1:R12">
+    <cfRule type="cellIs" dxfId="29" priority="14" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q1:Q12">
+    <cfRule type="cellIs" dxfId="27" priority="13" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P1:P12">
+    <cfRule type="cellIs" dxfId="25" priority="12" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T1:T12">
+    <cfRule type="cellIs" dxfId="23" priority="11" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S1:S12">
+    <cfRule type="cellIs" dxfId="21" priority="10" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R1:R12">
+    <cfRule type="cellIs" dxfId="19" priority="9" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E11">
+    <cfRule type="cellIs" dxfId="17" priority="8" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D11">
+    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C11">
+    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G11">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F11">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:A6">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Mall.xlsx
+++ b/Mall.xlsx
@@ -9,13 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7875" yWindow="465" windowWidth="21585" windowHeight="9495" tabRatio="500" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="7875" yWindow="465" windowWidth="21585" windowHeight="9495" tabRatio="500" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="REGULAR GRID" sheetId="4" r:id="rId1"/>
-    <sheet name="TESTING GRID" sheetId="6" r:id="rId2"/>
-    <sheet name="CHOOSE STORE GRID" sheetId="7" r:id="rId3"/>
-    <sheet name="CONFIRM GRID" sheetId="8" r:id="rId4"/>
+    <sheet name="Sheet8" sheetId="9" r:id="rId1"/>
+    <sheet name="REGULAR GRID" sheetId="4" r:id="rId2"/>
+    <sheet name="TESTING GRID" sheetId="6" r:id="rId3"/>
+    <sheet name="CHOOSE STORE GRID" sheetId="7" r:id="rId4"/>
+    <sheet name="ZERO" sheetId="10" r:id="rId5"/>
+    <sheet name="CONFIRM GRID" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
@@ -83,7 +85,1207 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="350">
+  <dxfs count="470">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3860,10 +5062,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V264"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6202,142 +7416,142 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="V6 F12:P12 T1:V5 V12 T7:V11 F1:S1 G2:H3 O7:S8 G10:H11 G5:H8 L5:S6 L7:M8 M10:S10 L10:N11 L2:T3 F9:S9 F4:T4">
-    <cfRule type="cellIs" dxfId="349" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="469" priority="52" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:A264">
-    <cfRule type="cellIs" dxfId="348" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="468" priority="51" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:U6 T12:U12">
-    <cfRule type="cellIs" dxfId="347" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="467" priority="48" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q12:S17">
-    <cfRule type="cellIs" dxfId="342" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="462" priority="42" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="cellIs" dxfId="299" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="419" priority="24" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="298" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="418" priority="23" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11 B7:D10">
-    <cfRule type="cellIs" dxfId="297" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="417" priority="22" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:C11">
-    <cfRule type="cellIs" dxfId="296" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="416" priority="21" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A2">
-    <cfRule type="cellIs" dxfId="295" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="415" priority="20" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="cellIs" dxfId="294" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="414" priority="19" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:A10 A12">
-    <cfRule type="cellIs" dxfId="293" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="413" priority="18" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="cellIs" dxfId="292" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="412" priority="17" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:D12">
-    <cfRule type="cellIs" dxfId="291" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="411" priority="16" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E2 E7:E11">
-    <cfRule type="cellIs" dxfId="290" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="410" priority="15" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6 E12">
-    <cfRule type="cellIs" dxfId="289" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="409" priority="14" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:D5">
-    <cfRule type="cellIs" dxfId="288" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="408" priority="13" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" dxfId="287" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="407" priority="12" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="286" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="406" priority="11" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:D4">
-    <cfRule type="cellIs" dxfId="285" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="405" priority="10" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="284" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="404" priority="9" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="283" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="403" priority="8" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:D3">
-    <cfRule type="cellIs" dxfId="282" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="402" priority="7" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="cellIs" dxfId="281" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="401" priority="6" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="280" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="400" priority="5" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:D2">
-    <cfRule type="cellIs" dxfId="279" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="399" priority="4" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:D1">
-    <cfRule type="cellIs" dxfId="278" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="398" priority="3" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="277" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="397" priority="2" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="cellIs" dxfId="276" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="396" priority="1" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6345,7 +7559,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V264"/>
   <sheetViews>
@@ -8688,142 +9902,142 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="V6 F12:P12 T1:V5 V12 T7:V11 F1:S1 G2:H3 O7:S8 G10:H11 G5:H8 L5:S6 L7:M8 M10:S10 M11:N11 L10:L11 L2:S3 F9:S9 F4:S4">
-    <cfRule type="cellIs" dxfId="325" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="445" priority="50" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:A264">
-    <cfRule type="cellIs" dxfId="324" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="444" priority="49" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:U6 T12:U12">
-    <cfRule type="cellIs" dxfId="323" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="443" priority="48" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q12:S17">
-    <cfRule type="cellIs" dxfId="318" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="438" priority="43" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="cellIs" dxfId="275" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="395" priority="24" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="274" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="394" priority="23" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11 B7:D10">
-    <cfRule type="cellIs" dxfId="273" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="393" priority="22" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:C11">
-    <cfRule type="cellIs" dxfId="272" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="392" priority="21" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A2">
-    <cfRule type="cellIs" dxfId="271" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="391" priority="20" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="cellIs" dxfId="270" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="390" priority="19" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:A10 A12">
-    <cfRule type="cellIs" dxfId="269" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="389" priority="18" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="cellIs" dxfId="268" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="388" priority="17" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:D12">
-    <cfRule type="cellIs" dxfId="267" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="387" priority="16" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E2 E7:E11">
-    <cfRule type="cellIs" dxfId="266" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="386" priority="15" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6 E12">
-    <cfRule type="cellIs" dxfId="265" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="385" priority="14" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:D5">
-    <cfRule type="cellIs" dxfId="264" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="384" priority="13" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" dxfId="263" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="383" priority="12" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="262" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="382" priority="11" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:D4">
-    <cfRule type="cellIs" dxfId="261" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="381" priority="10" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="260" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="380" priority="9" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="259" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="379" priority="8" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:D3">
-    <cfRule type="cellIs" dxfId="258" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="378" priority="7" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="cellIs" dxfId="257" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="377" priority="6" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="256" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="376" priority="5" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:D2">
-    <cfRule type="cellIs" dxfId="255" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="375" priority="4" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:D1">
-    <cfRule type="cellIs" dxfId="254" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="374" priority="3" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="253" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="373" priority="2" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="cellIs" dxfId="252" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="372" priority="1" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8831,12 +10045,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V264"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A6"/>
+      <selection activeCell="A5" sqref="A1:V264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11174,297 +12388,297 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="V1:V12">
-    <cfRule type="cellIs" dxfId="223" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="343" priority="109" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:A264">
-    <cfRule type="cellIs" dxfId="222" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="108" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q13:S17">
-    <cfRule type="cellIs" dxfId="220" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="340" priority="106" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="cellIs" dxfId="219" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="339" priority="105" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A2">
-    <cfRule type="cellIs" dxfId="215" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="335" priority="101" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:A10 A12">
-    <cfRule type="cellIs" dxfId="213" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="99" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="cellIs" dxfId="212" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="98" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="cellIs" dxfId="211" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="331" priority="97" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="204" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="90" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="cellIs" dxfId="201" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="87" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="cellIs" dxfId="199" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="319" priority="85" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="cellIs" dxfId="198" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="84" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B12">
-    <cfRule type="cellIs" dxfId="193" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="81" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D12">
-    <cfRule type="cellIs" dxfId="192" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="80" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E2 E12">
-    <cfRule type="cellIs" dxfId="191" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="311" priority="79" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F2 F12">
-    <cfRule type="cellIs" dxfId="190" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="78" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:H2 G12:H12">
-    <cfRule type="cellIs" dxfId="188" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="76" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I2 I12">
-    <cfRule type="cellIs" dxfId="187" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="307" priority="75" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:M2 J12:M12">
-    <cfRule type="cellIs" dxfId="182" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="70" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:M2">
-    <cfRule type="cellIs" dxfId="181" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="69" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N2 N12">
-    <cfRule type="cellIs" dxfId="172" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="60" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O2 O12">
-    <cfRule type="cellIs" dxfId="168" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="56" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1:Q2 P12:Q12">
-    <cfRule type="cellIs" dxfId="164" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="52" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R2 R12">
-    <cfRule type="cellIs" dxfId="163" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="51" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S2 S12">
-    <cfRule type="cellIs" dxfId="162" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="50" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C11">
-    <cfRule type="cellIs" dxfId="160" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="48" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3 E5 E7 E9 E11">
-    <cfRule type="cellIs" dxfId="158" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="46" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3 F5 F7 F9 F11">
-    <cfRule type="cellIs" dxfId="156" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="44" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3 G5 G7 G9 G11">
-    <cfRule type="cellIs" dxfId="154" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="42" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3 H5 H7 H9 H11">
-    <cfRule type="cellIs" dxfId="152" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="40" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3 I5 I7 I9 I11">
-    <cfRule type="cellIs" dxfId="150" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="38" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3 K5 K7 K9 K11">
-    <cfRule type="cellIs" dxfId="149" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="37" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3 J5 J7 J9 J11">
-    <cfRule type="cellIs" dxfId="148" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="36" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3 M5 M7 M9 M11">
-    <cfRule type="cellIs" dxfId="147" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="35" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3 L5 L7 L9 L11">
-    <cfRule type="cellIs" dxfId="146" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="34" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3 O5 O7 O9 O11">
-    <cfRule type="cellIs" dxfId="145" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="33" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3 N5 N7 N9 N11">
-    <cfRule type="cellIs" dxfId="144" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="32" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3 Q5 Q7 Q9 Q11">
-    <cfRule type="cellIs" dxfId="143" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="31" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3 P5 P7 P9 P11">
-    <cfRule type="cellIs" dxfId="142" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="30" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3 S5 S7 S9 S11">
-    <cfRule type="cellIs" dxfId="141" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="29" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R3 R5 R7 R9 R11">
-    <cfRule type="cellIs" dxfId="140" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="28" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4 F6 F8 F10">
-    <cfRule type="cellIs" dxfId="137" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="25" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4 E6 E8 E10">
-    <cfRule type="cellIs" dxfId="136" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="24" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4 H6 H8 H10">
-    <cfRule type="cellIs" dxfId="135" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="23" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4 G6 G8 G10">
-    <cfRule type="cellIs" dxfId="134" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="22" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4 J6 J8 J10">
-    <cfRule type="cellIs" dxfId="133" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="21" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4 I6 I8 I10">
-    <cfRule type="cellIs" dxfId="132" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="20" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L8 L10">
-    <cfRule type="cellIs" dxfId="131" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="19" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4 K6 K8 K10">
-    <cfRule type="cellIs" dxfId="130" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="18" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4 M6 M8 M10">
-    <cfRule type="cellIs" dxfId="128" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="16" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4 O6 O8 O10">
-    <cfRule type="cellIs" dxfId="123" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="11" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4 N6 N8 N10">
-    <cfRule type="cellIs" dxfId="122" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="10" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q4 Q6 Q8 Q10">
-    <cfRule type="cellIs" dxfId="121" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="9" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4 P6 P8 P10">
-    <cfRule type="cellIs" dxfId="120" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="8" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S4 S6 S8 S10">
-    <cfRule type="cellIs" dxfId="119" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="7" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R4 R6 R8 R10">
-    <cfRule type="cellIs" dxfId="118" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="6" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1:U12">
-    <cfRule type="cellIs" dxfId="115" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="3" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T12">
-    <cfRule type="cellIs" dxfId="114" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="2" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A6">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="1" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11473,12 +12687,2373 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V264"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="22" width="1.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>0</v>
+      </c>
+      <c r="G1">
+        <v>0</v>
+      </c>
+      <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="I1">
+        <v>0</v>
+      </c>
+      <c r="J1">
+        <v>0</v>
+      </c>
+      <c r="K1">
+        <v>0</v>
+      </c>
+      <c r="L1">
+        <v>0</v>
+      </c>
+      <c r="M1">
+        <v>0</v>
+      </c>
+      <c r="N1">
+        <v>0</v>
+      </c>
+      <c r="O1">
+        <v>0</v>
+      </c>
+      <c r="P1">
+        <v>0</v>
+      </c>
+      <c r="Q1">
+        <v>0</v>
+      </c>
+      <c r="R1">
+        <v>0</v>
+      </c>
+      <c r="S1">
+        <v>0</v>
+      </c>
+      <c r="T1">
+        <v>0</v>
+      </c>
+      <c r="U1">
+        <v>0</v>
+      </c>
+      <c r="V1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" ref="A13:A24" si="0">B1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" ref="A25:A36" si="1">C1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" ref="A37:A48" si="2">D1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f t="shared" ref="A49:A60" si="3">E1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <f t="shared" ref="A61:A72" si="4">F1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <f t="shared" ref="A73:A84" si="5">G1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <f t="shared" ref="A85:A96" si="6">H1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <f t="shared" ref="A97:A108" si="7">I1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <f t="shared" ref="A109:A120" si="8">J1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <f t="shared" ref="A121:A132" si="9">K1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <f t="shared" ref="A133:A144" si="10">L1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <f t="shared" ref="A145:A156" si="11">M1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <f t="shared" ref="A157:A168" si="12">N1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <f t="shared" ref="A169:A180" si="13">O1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <f t="shared" ref="A181:A192" si="14">P1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <f t="shared" ref="A193:A204" si="15">Q1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <f t="shared" ref="A205:A216" si="16">R1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <f t="shared" ref="A217:A228" si="17">S1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <f t="shared" ref="A229:A240" si="18">T1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <f>U1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <f>U2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <f>U3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <f>U4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <f>U5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <f t="shared" ref="A246:A251" si="19">U6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <f>U12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <f>V1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <f>V2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <f>V3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <f>V4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <f>V5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <f t="shared" ref="A258:A264" si="20">V6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A13:A264">
+    <cfRule type="cellIs" dxfId="117" priority="58" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q13:S17">
+    <cfRule type="cellIs" dxfId="115" priority="57" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:V12">
+    <cfRule type="cellIs" dxfId="111" priority="55" operator="equal">
+      <formula>999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V264"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13820,217 +17395,217 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="V1:V12">
-    <cfRule type="cellIs" dxfId="113" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="86" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:A264">
-    <cfRule type="cellIs" dxfId="112" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="85" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q13:S17">
-    <cfRule type="cellIs" dxfId="111" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="84" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="cellIs" dxfId="110" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="83" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A2">
-    <cfRule type="cellIs" dxfId="109" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="82" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:A10 A12">
-    <cfRule type="cellIs" dxfId="107" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="80" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="cellIs" dxfId="105" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="78" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="103" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="76" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="cellIs" dxfId="102" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="75" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="cellIs" dxfId="100" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="73" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B12">
-    <cfRule type="cellIs" dxfId="99" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="72" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S2 S12">
-    <cfRule type="cellIs" dxfId="87" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="60" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C11">
-    <cfRule type="cellIs" dxfId="86" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="59" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3 S5 S7 S9 S11">
-    <cfRule type="cellIs" dxfId="72" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="45" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S4 S6 S8 S10">
-    <cfRule type="cellIs" dxfId="57" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="30" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1:U12">
-    <cfRule type="cellIs" dxfId="55" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="28" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T12">
-    <cfRule type="cellIs" dxfId="54" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="27" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F12">
-    <cfRule type="cellIs" dxfId="53" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="26" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E12">
-    <cfRule type="cellIs" dxfId="51" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="25" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D12">
-    <cfRule type="cellIs" dxfId="49" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="24" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I12">
-    <cfRule type="cellIs" dxfId="47" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="23" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H12">
-    <cfRule type="cellIs" dxfId="45" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="22" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G12">
-    <cfRule type="cellIs" dxfId="43" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="21" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L12">
-    <cfRule type="cellIs" dxfId="41" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="20" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K12">
-    <cfRule type="cellIs" dxfId="39" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="19" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J12">
-    <cfRule type="cellIs" dxfId="37" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="18" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O12">
-    <cfRule type="cellIs" dxfId="35" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="17" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N12">
-    <cfRule type="cellIs" dxfId="33" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="16" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:M12">
-    <cfRule type="cellIs" dxfId="31" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="15" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R12">
-    <cfRule type="cellIs" dxfId="29" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="14" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:Q12">
-    <cfRule type="cellIs" dxfId="27" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="13" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1:P12">
-    <cfRule type="cellIs" dxfId="25" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="12" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T12">
-    <cfRule type="cellIs" dxfId="23" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="11" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S12">
-    <cfRule type="cellIs" dxfId="21" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="10" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R12">
-    <cfRule type="cellIs" dxfId="19" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="9" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E11">
-    <cfRule type="cellIs" dxfId="17" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="8" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D11">
-    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="7" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C11">
-    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="6" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G11">
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="5" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F11">
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="4" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="3" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A6">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="2" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="1" operator="equal">
       <formula>999</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Mall.xlsx
+++ b/Mall.xlsx
@@ -5351,7 +5351,7 @@
   <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5390,10 +5390,10 @@
         <v>0</v>
       </c>
       <c r="B3">
+        <v>320</v>
+      </c>
+      <c r="C3">
         <v>280</v>
-      </c>
-      <c r="C3">
-        <v>320</v>
       </c>
       <c r="D3">
         <v>102</v>
@@ -5454,7 +5454,7 @@
       </c>
       <c r="F6">
         <f>B3</f>
-        <v>280</v>
+        <v>320</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -5472,7 +5472,7 @@
       </c>
       <c r="F7">
         <f>C3</f>
-        <v>320</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">

--- a/Mall.xlsx
+++ b/Mall.xlsx
@@ -5350,8 +5350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Mall.xlsx
+++ b/Mall.xlsx
@@ -5350,8 +5350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F100"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Mall.xlsx
+++ b/Mall.xlsx
@@ -5348,10 +5348,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F100"/>
+  <dimension ref="A1:F99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5366,6 +5366,10 @@
       <c r="C1" t="s">
         <v>4</v>
       </c>
+      <c r="F1">
+        <f>A2</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
@@ -5381,8 +5385,8 @@
         <v>101</v>
       </c>
       <c r="F2">
-        <f>A2</f>
-        <v>0</v>
+        <f>B2</f>
+        <v>320</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -5399,8 +5403,8 @@
         <v>102</v>
       </c>
       <c r="F3">
-        <f>B2</f>
-        <v>320</v>
+        <f>C2</f>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -5417,8 +5421,8 @@
         <v>103</v>
       </c>
       <c r="F4">
-        <f>C2</f>
-        <v>100</v>
+        <f>A3</f>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -5435,8 +5439,8 @@
         <v>104</v>
       </c>
       <c r="F5">
-        <f>A3</f>
-        <v>0</v>
+        <f>B3</f>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -5453,8 +5457,8 @@
         <v>105</v>
       </c>
       <c r="F6">
-        <f>B3</f>
-        <v>320</v>
+        <f>C3</f>
+        <v>280</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -5471,8 +5475,8 @@
         <v>106</v>
       </c>
       <c r="F7">
-        <f>C3</f>
-        <v>280</v>
+        <f>A4</f>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -5489,8 +5493,8 @@
         <v>107</v>
       </c>
       <c r="F8">
-        <f>A4</f>
-        <v>1</v>
+        <f>B4</f>
+        <v>310</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -5507,8 +5511,8 @@
         <v>108</v>
       </c>
       <c r="F9">
-        <f>B4</f>
-        <v>310</v>
+        <f>C4</f>
+        <v>410</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -5525,8 +5529,8 @@
         <v>109</v>
       </c>
       <c r="F10">
-        <f>C4</f>
-        <v>410</v>
+        <f>A5</f>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -5543,8 +5547,8 @@
         <v>110</v>
       </c>
       <c r="F11">
-        <f>A5</f>
-        <v>1</v>
+        <f>B5</f>
+        <v>370</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -5561,8 +5565,8 @@
         <v>111</v>
       </c>
       <c r="F12">
-        <f>B5</f>
-        <v>370</v>
+        <f>C5</f>
+        <v>410</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -5579,8 +5583,8 @@
         <v>112</v>
       </c>
       <c r="F13">
-        <f>C5</f>
-        <v>410</v>
+        <f>A6</f>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -5597,8 +5601,8 @@
         <v>113</v>
       </c>
       <c r="F14">
-        <f>A6</f>
-        <v>1</v>
+        <f>B6</f>
+        <v>310</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -5615,8 +5619,8 @@
         <v>114</v>
       </c>
       <c r="F15">
-        <f>B6</f>
-        <v>310</v>
+        <f>C6</f>
+        <v>590</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -5633,8 +5637,8 @@
         <v>115</v>
       </c>
       <c r="F16">
-        <f>C6</f>
-        <v>590</v>
+        <f>A7</f>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -5651,8 +5655,8 @@
         <v>116</v>
       </c>
       <c r="F17">
-        <f>A7</f>
-        <v>1</v>
+        <f>B7</f>
+        <v>370</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -5669,8 +5673,8 @@
         <v>117</v>
       </c>
       <c r="F18">
-        <f>B7</f>
-        <v>370</v>
+        <f>C7</f>
+        <v>590</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -5687,8 +5691,8 @@
         <v>118</v>
       </c>
       <c r="F19">
-        <f>C7</f>
-        <v>590</v>
+        <f>A8</f>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -5705,8 +5709,8 @@
         <v>119</v>
       </c>
       <c r="F20">
-        <f>A8</f>
-        <v>0</v>
+        <f>B8</f>
+        <v>500</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -5723,8 +5727,8 @@
         <v>120</v>
       </c>
       <c r="F21">
-        <f>B8</f>
-        <v>500</v>
+        <f>C8</f>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -5741,8 +5745,8 @@
         <v>121</v>
       </c>
       <c r="F22">
-        <f>C8</f>
-        <v>100</v>
+        <f>A9</f>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -5759,8 +5763,8 @@
         <v>122</v>
       </c>
       <c r="F23">
-        <f>A9</f>
-        <v>0</v>
+        <f>B9</f>
+        <v>500</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -5777,8 +5781,8 @@
         <v>123</v>
       </c>
       <c r="F24">
-        <f>B9</f>
-        <v>500</v>
+        <f>C9</f>
+        <v>280</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -5795,8 +5799,8 @@
         <v>124</v>
       </c>
       <c r="F25">
-        <f>C9</f>
-        <v>280</v>
+        <f>A10</f>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -5804,7 +5808,7 @@
         <v>1</v>
       </c>
       <c r="B26">
-        <v>1030</v>
+        <v>1150</v>
       </c>
       <c r="C26">
         <v>620</v>
@@ -5813,8 +5817,8 @@
         <v>125</v>
       </c>
       <c r="F26">
-        <f>A10</f>
-        <v>1</v>
+        <f>B10</f>
+        <v>490</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -5822,7 +5826,7 @@
         <v>1</v>
       </c>
       <c r="B27">
-        <v>1090</v>
+        <v>1150</v>
       </c>
       <c r="C27">
         <v>620</v>
@@ -5831,8 +5835,8 @@
         <v>126</v>
       </c>
       <c r="F27">
-        <f>B10</f>
-        <v>490</v>
+        <f>C10</f>
+        <v>410</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -5840,7 +5844,7 @@
         <v>1</v>
       </c>
       <c r="B28">
-        <v>1050</v>
+        <v>1150</v>
       </c>
       <c r="C28">
         <v>620</v>
@@ -5849,8 +5853,8 @@
         <v>127</v>
       </c>
       <c r="F28">
-        <f>C10</f>
-        <v>410</v>
+        <f>A11</f>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -5858,7 +5862,7 @@
         <v>1</v>
       </c>
       <c r="B29">
-        <v>1050</v>
+        <v>1150</v>
       </c>
       <c r="C29">
         <v>560</v>
@@ -5867,8 +5871,8 @@
         <v>128</v>
       </c>
       <c r="F29">
-        <f>A11</f>
-        <v>1</v>
+        <f>B11</f>
+        <v>550</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -5876,7 +5880,7 @@
         <v>1</v>
       </c>
       <c r="B30">
-        <v>1050</v>
+        <v>1150</v>
       </c>
       <c r="C30">
         <v>500</v>
@@ -5885,8 +5889,8 @@
         <v>129</v>
       </c>
       <c r="F30">
-        <f>B11</f>
-        <v>550</v>
+        <f>C11</f>
+        <v>410</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -5894,7 +5898,7 @@
         <v>1</v>
       </c>
       <c r="B31">
-        <v>1050</v>
+        <v>1150</v>
       </c>
       <c r="C31">
         <v>440</v>
@@ -5903,8 +5907,8 @@
         <v>130</v>
       </c>
       <c r="F31">
-        <f>C11</f>
-        <v>410</v>
+        <f>A12</f>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -5912,7 +5916,7 @@
         <v>1</v>
       </c>
       <c r="B32">
-        <v>1050</v>
+        <v>1150</v>
       </c>
       <c r="C32">
         <v>380</v>
@@ -5921,8 +5925,8 @@
         <v>131</v>
       </c>
       <c r="F32">
-        <f>A12</f>
-        <v>1</v>
+        <f>B12</f>
+        <v>490</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -5930,7 +5934,7 @@
         <v>1</v>
       </c>
       <c r="B33">
-        <v>1050</v>
+        <v>1150</v>
       </c>
       <c r="C33">
         <v>320</v>
@@ -5939,8 +5943,8 @@
         <v>132</v>
       </c>
       <c r="F33">
-        <f>B12</f>
-        <v>490</v>
+        <f>C12</f>
+        <v>590</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -5957,402 +5961,396 @@
         <v>133</v>
       </c>
       <c r="F34">
-        <f>C12</f>
-        <v>590</v>
+        <f>A13</f>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F35">
-        <f>A13</f>
-        <v>1</v>
+        <f>B13</f>
+        <v>550</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F36">
-        <f>B13</f>
-        <v>550</v>
+        <f>C13</f>
+        <v>590</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F37">
-        <f>C13</f>
-        <v>590</v>
+        <f>A14</f>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F38">
-        <f>A14</f>
-        <v>0</v>
+        <f>B14</f>
+        <v>620</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F39">
-        <f>B14</f>
-        <v>620</v>
+        <f>C14</f>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F40">
-        <f>C14</f>
-        <v>100</v>
+        <f>A15</f>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F41">
-        <f>A15</f>
-        <v>0</v>
+        <f>B15</f>
+        <v>620</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F42">
-        <f>B15</f>
-        <v>620</v>
+        <f>C15</f>
+        <v>280</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F43">
-        <f>C15</f>
-        <v>280</v>
+        <f>A16</f>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F44">
-        <f>A16</f>
-        <v>0</v>
+        <f>B16</f>
+        <v>620</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F45">
-        <f>B16</f>
-        <v>620</v>
+        <f>C16</f>
+        <v>400</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F46">
-        <f>C16</f>
-        <v>400</v>
+        <f>A17</f>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F47">
-        <f>A17</f>
-        <v>0</v>
+        <f>B17</f>
+        <v>620</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F48">
-        <f>B17</f>
-        <v>620</v>
+        <f>C17</f>
+        <v>575</v>
       </c>
     </row>
     <row r="49" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F49">
-        <f>C17</f>
-        <v>575</v>
+        <f>A18</f>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F50">
-        <f>A18</f>
-        <v>0</v>
+        <f>B18</f>
+        <v>860</v>
       </c>
     </row>
     <row r="51" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F51">
-        <f>B18</f>
-        <v>860</v>
+        <f>C18</f>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F52">
-        <f>C18</f>
-        <v>100</v>
+        <f>A19</f>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F53">
-        <f>A19</f>
-        <v>0</v>
+        <f>B19</f>
+        <v>860</v>
       </c>
     </row>
     <row r="54" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F54">
-        <f>B19</f>
-        <v>860</v>
+        <f>C19</f>
+        <v>280</v>
       </c>
     </row>
     <row r="55" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F55">
-        <f>C19</f>
-        <v>280</v>
+        <f>A20</f>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F56">
-        <f>A20</f>
-        <v>0</v>
+        <f>B20</f>
+        <v>800</v>
       </c>
     </row>
     <row r="57" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F57">
-        <f>B20</f>
-        <v>800</v>
+        <f>C20</f>
+        <v>400</v>
       </c>
     </row>
     <row r="58" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F58">
-        <f>C20</f>
-        <v>400</v>
+        <f>A21</f>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F59">
-        <f>A21</f>
-        <v>0</v>
+        <f>B21</f>
+        <v>920</v>
       </c>
     </row>
     <row r="60" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F60">
-        <f>B21</f>
-        <v>920</v>
+        <f>C21</f>
+        <v>400</v>
       </c>
     </row>
     <row r="61" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F61">
-        <f>C21</f>
-        <v>400</v>
+        <f>A22</f>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F62">
-        <f>A22</f>
-        <v>0</v>
+        <f>B22</f>
+        <v>800</v>
       </c>
     </row>
     <row r="63" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F63">
-        <f>B22</f>
-        <v>800</v>
+        <f>C22</f>
+        <v>575</v>
       </c>
     </row>
     <row r="64" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F64">
-        <f>C22</f>
-        <v>575</v>
+        <f>A23</f>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F65">
-        <f>A23</f>
-        <v>1</v>
+        <f>B23</f>
+        <v>910</v>
       </c>
     </row>
     <row r="66" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F66">
-        <f>B23</f>
-        <v>910</v>
+        <f>C23</f>
+        <v>560</v>
       </c>
     </row>
     <row r="67" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F67">
-        <f>C23</f>
-        <v>560</v>
+        <f>A24</f>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F68">
-        <f>A24</f>
-        <v>1</v>
+        <f>B24</f>
+        <v>910</v>
       </c>
     </row>
     <row r="69" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F69">
-        <f>B24</f>
-        <v>910</v>
+        <f>C24</f>
+        <v>620</v>
       </c>
     </row>
     <row r="70" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F70">
-        <f>C24</f>
-        <v>620</v>
+        <f>A25</f>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F71">
-        <f>A25</f>
-        <v>1</v>
+        <f>B25</f>
+        <v>970</v>
       </c>
     </row>
     <row r="72" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F72">
-        <f>B25</f>
-        <v>970</v>
+        <f>C25</f>
+        <v>620</v>
       </c>
     </row>
     <row r="73" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F73">
-        <f>C25</f>
-        <v>620</v>
+        <f>A26</f>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F74">
-        <f>A26</f>
-        <v>1</v>
+        <f>B26</f>
+        <v>1150</v>
       </c>
     </row>
     <row r="75" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F75">
-        <f>B26</f>
-        <v>1030</v>
+        <f>C26</f>
+        <v>620</v>
       </c>
     </row>
     <row r="76" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F76">
-        <f>C26</f>
-        <v>620</v>
+        <f>A27</f>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F77">
-        <f>A27</f>
-        <v>1</v>
+        <f>B27</f>
+        <v>1150</v>
       </c>
     </row>
     <row r="78" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F78">
-        <f>B27</f>
-        <v>1090</v>
+        <f>C27</f>
+        <v>620</v>
       </c>
     </row>
     <row r="79" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F79">
-        <f>C27</f>
-        <v>620</v>
+        <f>A28</f>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F80">
-        <f>A28</f>
-        <v>1</v>
+        <f>B28</f>
+        <v>1150</v>
       </c>
     </row>
     <row r="81" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F81">
-        <f>B28</f>
-        <v>1050</v>
+        <f>C28</f>
+        <v>620</v>
       </c>
     </row>
     <row r="82" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F82">
-        <f>C28</f>
-        <v>620</v>
+        <f>A29</f>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F83">
-        <f>A29</f>
-        <v>1</v>
+        <f>B29</f>
+        <v>1150</v>
       </c>
     </row>
     <row r="84" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F84">
-        <f>B29</f>
-        <v>1050</v>
+        <f>C29</f>
+        <v>560</v>
       </c>
     </row>
     <row r="85" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F85">
-        <f>C29</f>
-        <v>560</v>
+        <f>A30</f>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F86">
-        <f>A30</f>
-        <v>1</v>
+        <f>B30</f>
+        <v>1150</v>
       </c>
     </row>
     <row r="87" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F87">
-        <f>B30</f>
-        <v>1050</v>
+        <f>C30</f>
+        <v>500</v>
       </c>
     </row>
     <row r="88" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F88">
-        <f>C30</f>
-        <v>500</v>
+        <f>A31</f>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F89">
-        <f>A31</f>
-        <v>1</v>
+        <f>B31</f>
+        <v>1150</v>
       </c>
     </row>
     <row r="90" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F90">
-        <f>B31</f>
-        <v>1050</v>
+        <f>C31</f>
+        <v>440</v>
       </c>
     </row>
     <row r="91" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F91">
-        <f>C31</f>
-        <v>440</v>
+        <f>A32</f>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F92">
-        <f>A32</f>
-        <v>1</v>
+        <f>B32</f>
+        <v>1150</v>
       </c>
     </row>
     <row r="93" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F93">
-        <f>B32</f>
-        <v>1050</v>
+        <f>C32</f>
+        <v>380</v>
       </c>
     </row>
     <row r="94" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F94">
-        <f>C32</f>
-        <v>380</v>
+        <f>A33</f>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F95">
-        <f>A33</f>
-        <v>1</v>
+        <f>B33</f>
+        <v>1150</v>
       </c>
     </row>
     <row r="96" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F96">
-        <f>B33</f>
-        <v>1050</v>
+        <f>C33</f>
+        <v>320</v>
       </c>
     </row>
     <row r="97" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F97">
-        <f>C33</f>
-        <v>320</v>
+        <f>A34</f>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F98">
-        <f>A34</f>
-        <v>0</v>
+        <f>B34</f>
+        <v>1100</v>
       </c>
     </row>
     <row r="99" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F99">
-        <f>B34</f>
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="100" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F100">
         <f>C34</f>
         <v>160</v>
       </c>
